--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5680" uniqueCount="3081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="3092">
   <si>
     <t>USER</t>
   </si>
@@ -9548,6 +9548,39 @@
   </si>
   <si>
     <t>====</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>changepasswor</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>com.amazon.shopping.*</t>
   </si>
 </sst>
 </file>
@@ -21243,8 +21276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21588,8 +21621,8 @@
         <v>741</v>
       </c>
     </row>
-    <row r="66" spans="9:21" ht="15.75" thickBot="1"/>
-    <row r="67" spans="9:21">
+    <row r="66" spans="2:21" ht="15.75" thickBot="1"/>
+    <row r="67" spans="2:21">
       <c r="I67" s="30"/>
       <c r="J67" s="31"/>
       <c r="K67" s="31"/>
@@ -21604,7 +21637,7 @@
       <c r="T67" s="31"/>
       <c r="U67" s="32"/>
     </row>
-    <row r="68" spans="9:21" ht="15.75" thickBot="1">
+    <row r="68" spans="2:21" ht="15.75" thickBot="1">
       <c r="I68" s="33"/>
       <c r="J68" s="27"/>
       <c r="K68" s="27"/>
@@ -21619,7 +21652,7 @@
       <c r="T68" s="27"/>
       <c r="U68" s="34"/>
     </row>
-    <row r="69" spans="9:21">
+    <row r="69" spans="2:21">
       <c r="I69" s="33"/>
       <c r="J69" s="27" t="s">
         <v>551</v>
@@ -21640,7 +21673,7 @@
       <c r="T69" s="27"/>
       <c r="U69" s="34"/>
     </row>
-    <row r="70" spans="9:21">
+    <row r="70" spans="2:21">
       <c r="I70" s="33"/>
       <c r="J70" s="27"/>
       <c r="K70" s="27"/>
@@ -21659,7 +21692,7 @@
       <c r="T70" s="27"/>
       <c r="U70" s="34"/>
     </row>
-    <row r="71" spans="9:21">
+    <row r="71" spans="2:21">
       <c r="I71" s="33"/>
       <c r="J71" s="27"/>
       <c r="K71" s="27"/>
@@ -21678,7 +21711,7 @@
       <c r="T71" s="27"/>
       <c r="U71" s="34"/>
     </row>
-    <row r="72" spans="9:21">
+    <row r="72" spans="2:21">
       <c r="I72" s="33"/>
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
@@ -21697,7 +21730,7 @@
       <c r="T72" s="51"/>
       <c r="U72" s="75"/>
     </row>
-    <row r="73" spans="9:21" ht="15.75" thickBot="1">
+    <row r="73" spans="2:21" ht="15.75" thickBot="1">
       <c r="I73" s="33"/>
       <c r="J73" s="27"/>
       <c r="K73" s="27"/>
@@ -21716,7 +21749,7 @@
       <c r="T73" s="51"/>
       <c r="U73" s="34"/>
     </row>
-    <row r="74" spans="9:21">
+    <row r="74" spans="2:21">
       <c r="I74" s="33"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
@@ -21731,7 +21764,7 @@
       <c r="T74" s="51"/>
       <c r="U74" s="34"/>
     </row>
-    <row r="75" spans="9:21" ht="15.75" thickBot="1">
+    <row r="75" spans="2:21" ht="15.75" thickBot="1">
       <c r="I75" s="35"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
@@ -21746,7 +21779,7 @@
       <c r="T75" s="36"/>
       <c r="U75" s="37"/>
     </row>
-    <row r="77" spans="9:21">
+    <row r="77" spans="2:21">
       <c r="I77" t="s">
         <v>745</v>
       </c>
@@ -21757,7 +21790,22 @@
         <v>748</v>
       </c>
     </row>
-    <row r="78" spans="9:21">
+    <row r="78" spans="2:21">
+      <c r="B78" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F78" t="s">
+        <v>225</v>
+      </c>
       <c r="J78" t="s">
         <v>746</v>
       </c>
@@ -21768,7 +21816,10 @@
         <v>749</v>
       </c>
     </row>
-    <row r="79" spans="9:21">
+    <row r="79" spans="2:21">
+      <c r="F79" t="s">
+        <v>3084</v>
+      </c>
       <c r="I79" t="s">
         <v>146</v>
       </c>
@@ -21776,42 +21827,89 @@
         <v>710</v>
       </c>
     </row>
-    <row r="80" spans="9:21">
+    <row r="80" spans="2:21">
+      <c r="B80" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3082</v>
+      </c>
       <c r="N80" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="10:10">
+    <row r="81" spans="2:10">
+      <c r="F81" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="F82" t="s">
+        <v>3086</v>
+      </c>
       <c r="J82" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="87" spans="10:10">
+    <row r="83" spans="2:10">
+      <c r="B83" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="F84" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="F85" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" t="s">
+        <v>3091</v>
+      </c>
       <c r="J87" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="88" spans="10:10">
+    <row r="88" spans="2:10">
       <c r="J88" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="89" spans="10:10">
+    <row r="89" spans="2:10">
       <c r="J89" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="93" spans="10:10">
+    <row r="93" spans="2:10">
       <c r="J93" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="94" spans="10:10">
+    <row r="94" spans="2:10">
       <c r="J94" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="95" spans="10:10">
+    <row r="95" spans="2:10">
       <c r="J95" t="s">
         <v>794</v>
       </c>
@@ -50817,8 +50915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5789" uniqueCount="3141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="3144">
   <si>
     <t>USER</t>
   </si>
@@ -9729,6 +9729,15 @@
   </si>
   <si>
     <t>System.arraycopy(arr1, 1,arr2, 2, 3);</t>
+  </si>
+  <si>
+    <t>String name="john"</t>
+  </si>
+  <si>
+    <t>sysout(   p1.name   );</t>
+  </si>
+  <si>
+    <t>sysout(   p2.name   );</t>
   </si>
 </sst>
 </file>
@@ -10950,8 +10959,8 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10959,8 +10968,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24389,7 +24398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -25531,7 +25540,7 @@
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="323" t="s">
+      <c r="N3" s="320" t="s">
         <v>3107</v>
       </c>
       <c r="O3" s="51"/>
@@ -35186,10 +35195,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W320"/>
+  <dimension ref="A1:W353"/>
   <sheetViews>
-    <sheetView topLeftCell="A254" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F261" sqref="F261:L271"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F343" sqref="F343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37226,6 +37235,172 @@
       <c r="K320" s="36"/>
       <c r="L320" s="36"/>
       <c r="M320" s="37"/>
+    </row>
+    <row r="329" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="330" spans="1:12">
+      <c r="F330" s="30"/>
+      <c r="G330" s="31"/>
+      <c r="H330" s="31"/>
+      <c r="I330" s="31"/>
+      <c r="J330" s="31"/>
+      <c r="K330" s="31"/>
+      <c r="L330" s="32"/>
+    </row>
+    <row r="331" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A331" t="s">
+        <v>481</v>
+      </c>
+      <c r="F331" s="33"/>
+      <c r="G331" s="27"/>
+      <c r="H331" s="27"/>
+      <c r="I331" s="27"/>
+      <c r="J331" s="27"/>
+      <c r="K331" s="27"/>
+      <c r="L331" s="34"/>
+    </row>
+    <row r="332" spans="1:12">
+      <c r="F332" s="33"/>
+      <c r="G332" s="27" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H332" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I332" s="27"/>
+      <c r="J332" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="K332" s="30"/>
+      <c r="L332" s="32"/>
+    </row>
+    <row r="333" spans="1:12">
+      <c r="B333" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F333" s="33"/>
+      <c r="G333" s="27" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H333" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="I333" s="27"/>
+      <c r="J333" s="27"/>
+      <c r="K333" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L333" s="34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="15.75" thickBot="1">
+      <c r="F334" s="33"/>
+      <c r="G334" s="27"/>
+      <c r="H334" s="27"/>
+      <c r="I334" s="27"/>
+      <c r="J334" s="27"/>
+      <c r="K334" s="35"/>
+      <c r="L334" s="37"/>
+    </row>
+    <row r="335" spans="1:12">
+      <c r="A335" t="s">
+        <v>146</v>
+      </c>
+      <c r="F335" s="33"/>
+      <c r="G335" s="27"/>
+      <c r="H335" s="27"/>
+      <c r="I335" s="27"/>
+      <c r="J335" s="27"/>
+      <c r="K335" s="27"/>
+      <c r="L335" s="34"/>
+    </row>
+    <row r="336" spans="1:12">
+      <c r="F336" s="33"/>
+      <c r="G336" s="27"/>
+      <c r="H336" s="27"/>
+      <c r="I336" s="27"/>
+      <c r="J336" s="27"/>
+      <c r="K336" s="27"/>
+      <c r="L336" s="34"/>
+    </row>
+    <row r="337" spans="2:12">
+      <c r="B337" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F337" s="33"/>
+      <c r="G337" s="27"/>
+      <c r="H337" s="27"/>
+      <c r="I337" s="27"/>
+      <c r="J337" s="27"/>
+      <c r="K337" s="27"/>
+      <c r="L337" s="34"/>
+    </row>
+    <row r="338" spans="2:12">
+      <c r="B338" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F338" s="33"/>
+      <c r="G338" s="27"/>
+      <c r="H338" s="27"/>
+      <c r="I338" s="27"/>
+      <c r="J338" s="27"/>
+      <c r="K338" s="27"/>
+      <c r="L338" s="34"/>
+    </row>
+    <row r="339" spans="2:12">
+      <c r="F339" s="33"/>
+      <c r="G339" s="27"/>
+      <c r="H339" s="27"/>
+      <c r="I339" s="27"/>
+      <c r="J339" s="27"/>
+      <c r="K339" s="27"/>
+      <c r="L339" s="34"/>
+    </row>
+    <row r="340" spans="2:12">
+      <c r="B340" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D340" t="s">
+        <v>414</v>
+      </c>
+      <c r="F340" s="33"/>
+      <c r="G340" s="27"/>
+      <c r="H340" s="27"/>
+      <c r="I340" s="27"/>
+      <c r="J340" s="27"/>
+      <c r="K340" s="27"/>
+      <c r="L340" s="34"/>
+    </row>
+    <row r="341" spans="2:12">
+      <c r="B341" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F341" s="33"/>
+      <c r="G341" s="27"/>
+      <c r="H341" s="27"/>
+      <c r="I341" s="27"/>
+      <c r="J341" s="27"/>
+      <c r="K341" s="27"/>
+      <c r="L341" s="34"/>
+    </row>
+    <row r="342" spans="2:12" ht="15.75" thickBot="1">
+      <c r="F342" s="35"/>
+      <c r="G342" s="36"/>
+      <c r="H342" s="36"/>
+      <c r="I342" s="36"/>
+      <c r="J342" s="36"/>
+      <c r="K342" s="36"/>
+      <c r="L342" s="37"/>
+    </row>
+    <row r="352" spans="2:12">
+      <c r="C352" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42581,11 +42756,11 @@
       <c r="L6" s="43" t="s">
         <v>1598</v>
       </c>
-      <c r="M6" s="320" t="s">
+      <c r="M6" s="323" t="s">
         <v>1599</v>
       </c>
-      <c r="N6" s="320"/>
-      <c r="O6" s="320"/>
+      <c r="N6" s="323"/>
+      <c r="O6" s="323"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="16" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="3144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5881" uniqueCount="3171">
   <si>
     <t>USER</t>
   </si>
@@ -9738,6 +9738,87 @@
   </si>
   <si>
     <t>sysout(   p2.name   );</t>
+  </si>
+  <si>
+    <t>String s3="john";</t>
+  </si>
+  <si>
+    <t>String s4="john";</t>
+  </si>
+  <si>
+    <t>Immutable object</t>
+  </si>
+  <si>
+    <t>String s6=new String("john");</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>unchangeable</t>
+  </si>
+  <si>
+    <t>value on variabel can be changed</t>
+  </si>
+  <si>
+    <t>but cannot change is the object in the memory</t>
+  </si>
+  <si>
+    <t>#ooo</t>
+  </si>
+  <si>
+    <t>String s1="hello";</t>
+  </si>
+  <si>
+    <t>s1=s1+ "usa";</t>
+  </si>
+  <si>
+    <t>s1=s1+"ny";</t>
+  </si>
+  <si>
+    <t>s1=s1+"abc";</t>
+  </si>
+  <si>
+    <t>DO NOT USE STRING if frequent EDITING</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>#fff</t>
+  </si>
+  <si>
+    <t>#ggg</t>
+  </si>
+  <si>
+    <t>#hhh</t>
+  </si>
+  <si>
+    <t>#iii</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>helloabc</t>
+  </si>
+  <si>
+    <t>helloabcusa</t>
+  </si>
+  <si>
+    <t>helloabcusany</t>
+  </si>
+  <si>
+    <t>StringBuilder</t>
+  </si>
+  <si>
+    <t>StringBuilder sb=new StringBuilder("hello");</t>
+  </si>
+  <si>
+    <t>sb.append("abc")</t>
+  </si>
+  <si>
+    <t>if(s1 == s5)</t>
   </si>
 </sst>
 </file>
@@ -10298,7 +10379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10971,6 +11052,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32047,25 +32133,25 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O297"/>
+  <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286:D287"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>1135</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>1133</v>
+        <v>2365</v>
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -32074,1698 +32160,1350 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1135</v>
+        <v>1176</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="324" t="s">
         <v>1134</v>
       </c>
       <c r="L3" s="31"/>
-      <c r="M3" s="31" t="s">
-        <v>2223</v>
-      </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="34"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A4" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>1047</v>
+      <c r="G4" s="39" t="s">
+        <v>415</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="33"/>
       <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1">
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F5" s="33" t="s">
+        <v>3145</v>
+      </c>
+      <c r="F5" s="50" t="s">
         <v>552</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>519</v>
+        <v>2023</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="109" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="34"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B6" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="L5" s="248" t="s">
+        <v>414</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>712</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>519</v>
+      <c r="G6" s="39" t="s">
+        <v>415</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="33"/>
       <c r="L6" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="M6" s="46" t="s">
-        <v>414</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M6" s="34"/>
       <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B7" t="s">
-        <v>2220</v>
-      </c>
-      <c r="F7" s="33" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A7" t="s">
+        <v>3147</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>1143</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>1045</v>
+      <c r="G7" s="39" t="s">
+        <v>415</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="33"/>
       <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="M7" s="34"/>
       <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B8" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F8" s="33" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+      <c r="F8" s="50" t="s">
         <v>2224</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>1046</v>
+        <v>2748</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="27" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M8" s="46" t="s">
+      <c r="L8" s="248" t="s">
         <v>526</v>
       </c>
+      <c r="M8" s="34"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B9" t="s">
-        <v>2259</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="27"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A9" t="s">
+        <v>3170</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>3148</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>2886</v>
+      </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="33"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="38" t="s">
+        <v>2023</v>
+      </c>
+      <c r="M9" s="34"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="B10" t="s">
-        <v>2004</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="33"/>
+        <v>657</v>
+      </c>
+      <c r="F10" s="50"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="46" t="s">
+        <v>414</v>
+      </c>
       <c r="J10" s="27"/>
       <c r="K10" s="33"/>
-      <c r="L10" s="38" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>561</v>
-      </c>
+      <c r="M10" s="34"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B11" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="27"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46" t="s">
+        <v>414</v>
+      </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="46"/>
+      <c r="I11" s="27" t="s">
+        <v>2748</v>
+      </c>
       <c r="J11" s="27"/>
       <c r="K11" s="33"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="M11" s="34"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1">
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>2260</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="33"/>
+        <v>665</v>
+      </c>
+      <c r="F12" s="50"/>
       <c r="G12" s="27" t="s">
-        <v>2022</v>
+        <v>2886</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="33"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="L12" s="38" t="s">
+        <v>3152</v>
+      </c>
+      <c r="M12" s="34"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B13" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="G13" s="51">
-        <v>30</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>414</v>
-      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+      <c r="F13" s="50"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="35"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+      <c r="F14" s="53"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="37"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:14">
+      <c r="G16" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="G17" t="s">
+        <v>3146</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="K18" s="56" t="s">
+        <v>3151</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A20" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C21" s="30" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="324" t="s">
+        <v>3163</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="325" t="s">
+        <v>1980</v>
+      </c>
+      <c r="I23" s="250" t="s">
+        <v>3158</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="325" t="s">
+        <v>2600</v>
+      </c>
+      <c r="I24" s="250" t="s">
+        <v>2705</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A25" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="325" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I25" s="250" t="s">
+        <v>2248</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C26" s="50"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="F26" s="328" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="325" t="s">
+        <v>2616</v>
+      </c>
+      <c r="I26" s="249" t="s">
+        <v>2247</v>
+      </c>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="C27" s="50"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="325" t="s">
+        <v>2750</v>
+      </c>
+      <c r="I27" s="250" t="s">
+        <v>3164</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="325" t="s">
+        <v>3159</v>
+      </c>
+      <c r="I28" s="249" t="s">
+        <v>3165</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="325" t="s">
+        <v>3160</v>
+      </c>
+      <c r="I29" s="250" t="s">
+        <v>3166</v>
+      </c>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="325" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I30" s="250"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="325" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I31" s="249"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C32" s="50"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="326"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1">
+      <c r="C33" s="53"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="71" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A71" t="s">
+        <v>344</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="32"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F72" s="33"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="30" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31" t="s">
+        <v>2223</v>
+      </c>
+      <c r="N72" s="32"/>
+      <c r="O72" s="34"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="B73" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A74" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="109" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M74" s="109"/>
+      <c r="N74" s="110"/>
+      <c r="O74" s="34"/>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B75" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="M75" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B76" t="s">
+        <v>2220</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G76" s="38" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="34"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B77" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G77" s="38" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="27" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M77" s="46" t="s">
+        <v>526</v>
+      </c>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B78" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F78" s="33"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B79" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="33"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M79" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B80" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="33"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+    </row>
+    <row r="81" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B81" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="33"/>
+      <c r="G81" s="27" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+    </row>
+    <row r="82" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B82" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G82" s="51">
+        <v>30</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I82" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="J82" s="27"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+    </row>
+    <row r="83" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B83" t="s">
+        <v>275</v>
+      </c>
+      <c r="F83" s="33"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="34"/>
+    </row>
+    <row r="84" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B84" t="s">
         <v>1776</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="E17" t="s">
+      <c r="F84" s="35"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="37"/>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="E86" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="F18" t="s">
+    <row r="87" spans="2:15">
+      <c r="F87" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="G19" t="s">
+    <row r="88" spans="2:15">
+      <c r="G88" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" t="s">
+    <row r="89" spans="2:15">
+      <c r="B89" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
-      <c r="E23" t="s">
+    <row r="92" spans="2:15">
+      <c r="E92" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1">
-      <c r="F26" s="30" t="s">
+    <row r="94" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="95" spans="2:15" ht="15.75" thickBot="1">
+      <c r="F95" s="30" t="s">
         <v>1133</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31" t="s">
+      <c r="G95" s="31"/>
+      <c r="H95" s="31" t="s">
         <v>1270</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" t="s">
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="32"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" t="s">
         <v>1135</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="30" t="s">
+      <c r="F96" s="33"/>
+      <c r="G96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="30" t="s">
         <v>1134</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="34"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" t="s">
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="34"/>
+    </row>
+    <row r="97" spans="2:15">
+      <c r="B97" t="s">
         <v>1150</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D97" t="s">
         <v>1154</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F97" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G97" s="27" t="s">
         <v>1047</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B29" t="s">
+      <c r="H97" s="43"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="34"/>
+      <c r="O97" s="34"/>
+    </row>
+    <row r="98" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B98" t="s">
         <v>1151</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D98" t="s">
         <v>1157</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="34"/>
-    </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B30" t="s">
+      <c r="F98" s="33"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="109"/>
+      <c r="M98" s="109"/>
+      <c r="N98" s="110"/>
+      <c r="O98" s="34"/>
+    </row>
+    <row r="99" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B99" t="s">
         <v>1152</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="27" t="s">
+      <c r="F99" s="33"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="27" t="s">
         <v>1144</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M99" s="46" t="s">
         <v>414</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-    </row>
-    <row r="31" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B31" t="s">
+      <c r="N99" s="34"/>
+      <c r="O99" s="34"/>
+    </row>
+    <row r="100" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B100" t="s">
         <v>1153</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-    </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1">
-      <c r="F32" s="33"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="27" t="s">
+      <c r="F100" s="33"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="34"/>
+      <c r="O100" s="34"/>
+    </row>
+    <row r="101" spans="2:15" ht="15.75" thickBot="1">
+      <c r="F101" s="33"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="27" t="s">
         <v>1156</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M101" s="46" t="s">
         <v>1155</v>
       </c>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" t="s">
+      <c r="N101" s="34"/>
+      <c r="O101" s="34"/>
+    </row>
+    <row r="102" spans="2:15">
+      <c r="B102" t="s">
         <v>1162</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-    </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B34" t="s">
+      <c r="F102" s="33"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="34"/>
+      <c r="O102" s="34"/>
+    </row>
+    <row r="103" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B103" t="s">
         <v>1163</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="27" t="s">
+      <c r="F103" s="33"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="27" t="s">
         <v>1045</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="M103" s="27" t="s">
         <v>1158</v>
       </c>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-    </row>
-    <row r="35" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B35" t="s">
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+    </row>
+    <row r="104" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B104" t="s">
         <v>1166</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F104" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G104" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-    </row>
-    <row r="36" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B36" t="s">
+      <c r="H104" s="27"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="34"/>
+      <c r="O104" s="34"/>
+    </row>
+    <row r="105" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B105" t="s">
         <v>1164</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="27" t="s">
+      <c r="F105" s="33"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="27" t="s">
         <v>1046</v>
       </c>
-      <c r="M36" s="27" t="s">
+      <c r="M105" s="27" t="s">
         <v>1159</v>
       </c>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-    </row>
-    <row r="37" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B37" t="s">
+      <c r="N105" s="34"/>
+      <c r="O105" s="34"/>
+    </row>
+    <row r="106" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B106" t="s">
         <v>1165</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27" t="s">
+      <c r="F106" s="33"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="I37" s="46" t="s">
+      <c r="I106" s="46" t="s">
         <v>1160</v>
       </c>
-      <c r="J37" s="27"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-    </row>
-    <row r="38" spans="2:15" ht="15.75" thickBot="1">
-      <c r="F38" s="33"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36" t="s">
+      <c r="J106" s="27"/>
+      <c r="K106" s="33"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="34"/>
+      <c r="O106" s="34"/>
+    </row>
+    <row r="107" spans="2:15" ht="15.75" thickBot="1">
+      <c r="F107" s="33"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="M38" s="36" t="s">
+      <c r="M107" s="36" t="s">
         <v>1160</v>
       </c>
-      <c r="N38" s="37"/>
-      <c r="O38" s="34"/>
-    </row>
-    <row r="39" spans="2:15" ht="15.75" thickBot="1">
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="37"/>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" t="s">
+      <c r="N107" s="37"/>
+      <c r="O107" s="34"/>
+    </row>
+    <row r="108" spans="2:15" ht="15.75" thickBot="1">
+      <c r="F108" s="35"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
+      <c r="O108" s="37"/>
+    </row>
+    <row r="111" spans="2:15">
+      <c r="B111" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
-      <c r="B43" t="s">
+    <row r="112" spans="2:15">
+      <c r="B112" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="44" spans="2:15">
-      <c r="B44" t="s">
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="45" spans="2:15">
-      <c r="C45" t="s">
+    <row r="114" spans="2:3">
+      <c r="C114" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="46" spans="2:15">
-      <c r="B46" t="s">
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="47" spans="2:15">
-      <c r="B47" t="s">
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="48" spans="2:15">
-      <c r="C48" t="s">
+    <row r="117" spans="2:3">
+      <c r="C117" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="C49" t="s">
+    <row r="118" spans="2:3">
+      <c r="C118" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="B51" t="s">
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" t="s">
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" t="s">
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" t="s">
+    <row r="125" spans="2:3">
+      <c r="B125" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
-      <c r="B57" t="s">
+    <row r="126" spans="2:3">
+      <c r="B126" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" t="s">
+    <row r="127" spans="2:3">
+      <c r="B127" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" t="s">
+    <row r="128" spans="2:3">
+      <c r="B128" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
-      <c r="B62" t="s">
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" t="s">
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
+    <row r="146" spans="2:3">
+      <c r="B146" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
+    <row r="148" spans="2:3">
+      <c r="B148" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+    <row r="149" spans="2:3">
+      <c r="B149" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
-      <c r="B81" t="s">
+    <row r="150" spans="2:3">
+      <c r="B150" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
+    <row r="151" spans="2:3">
+      <c r="B151" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
-      <c r="B83" t="s">
+    <row r="152" spans="2:3">
+      <c r="B152" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
-      <c r="B85" t="s">
+    <row r="154" spans="2:3">
+      <c r="B154" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
-      <c r="B87" t="s">
+    <row r="156" spans="2:3">
+      <c r="B156" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
-      <c r="B88" t="s">
+    <row r="157" spans="2:3">
+      <c r="B157" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
-      <c r="C89" t="s">
+    <row r="158" spans="2:3">
+      <c r="C158" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
-      <c r="C90" t="s">
+    <row r="159" spans="2:3">
+      <c r="C159" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
-      <c r="B91" t="s">
+    <row r="160" spans="2:3">
+      <c r="B160" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
-      <c r="C92" t="s">
+    <row r="161" spans="2:3">
+      <c r="C161" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
-      <c r="C93" t="s">
+    <row r="162" spans="2:3">
+      <c r="C162" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
-      <c r="B96" t="s">
+    <row r="165" spans="2:3">
+      <c r="B165" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
+    <row r="166" spans="2:3">
+      <c r="B166" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+    <row r="167" spans="2:3">
+      <c r="B167" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
+    <row r="168" spans="2:3">
+      <c r="B168" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+    <row r="169" spans="2:3">
+      <c r="B169" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
+    <row r="171" spans="2:3">
+      <c r="B171" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
+    <row r="172" spans="2:3">
+      <c r="B172" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
+    <row r="173" spans="2:3">
+      <c r="B173" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" t="s">
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="125" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B125" t="s">
+    <row r="193" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="194" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B194" t="s">
         <v>2014</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D194" t="s">
         <v>2019</v>
       </c>
-      <c r="G125" s="30"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="31"/>
-      <c r="M125" s="31"/>
-      <c r="N125" s="31"/>
-      <c r="O125" s="32"/>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="G126" s="33" t="s">
+      <c r="G194" s="30"/>
+      <c r="H194" s="31"/>
+      <c r="I194" s="31"/>
+      <c r="J194" s="31"/>
+      <c r="K194" s="31"/>
+      <c r="L194" s="31"/>
+      <c r="M194" s="31"/>
+      <c r="N194" s="31"/>
+      <c r="O194" s="32"/>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="G195" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="H126" s="27" t="s">
+      <c r="H195" s="27" t="s">
         <v>1440</v>
       </c>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="30" t="s">
+      <c r="I195" s="27"/>
+      <c r="J195" s="27"/>
+      <c r="K195" s="30" t="s">
         <v>1134</v>
       </c>
-      <c r="L126" s="31"/>
-      <c r="M126" s="31" t="s">
+      <c r="L195" s="31"/>
+      <c r="M195" s="31" t="s">
         <v>2006</v>
       </c>
-      <c r="N126" s="32"/>
-      <c r="O126" s="34"/>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" t="s">
-        <v>2026</v>
-      </c>
-      <c r="G127" s="33" t="s">
-        <v>2011</v>
-      </c>
-      <c r="H127" s="27" t="s">
-        <v>1965</v>
-      </c>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
-      <c r="K127" s="33"/>
-      <c r="L127" s="27"/>
-      <c r="M127" s="27"/>
-      <c r="N127" s="34"/>
-      <c r="O127" s="34"/>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" t="s">
-        <v>2007</v>
-      </c>
-      <c r="G128" s="33" t="s">
-        <v>2012</v>
-      </c>
-      <c r="H128" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
-      <c r="K128" s="33"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="34"/>
-      <c r="O128" s="34"/>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" t="s">
-        <v>2008</v>
-      </c>
-      <c r="G129" s="33" t="s">
-        <v>2015</v>
-      </c>
-      <c r="H129" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="33"/>
-      <c r="L129" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="M129" s="27" t="s">
-        <v>2010</v>
-      </c>
-      <c r="N129" s="34" t="s">
-        <v>2018</v>
-      </c>
-      <c r="O129" s="34"/>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" t="s">
-        <v>2009</v>
-      </c>
-      <c r="G130" s="33" t="s">
-        <v>2016</v>
-      </c>
-      <c r="H130" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="33"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="34"/>
-      <c r="O130" s="34"/>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" t="s">
-        <v>2017</v>
-      </c>
-      <c r="G131" s="33" t="s">
-        <v>2013</v>
-      </c>
-      <c r="H131" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="33"/>
-      <c r="L131" s="27"/>
-      <c r="M131" s="27"/>
-      <c r="N131" s="34"/>
-      <c r="O131" s="34"/>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="G132" s="33"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="33"/>
-      <c r="L132" s="27" t="s">
-        <v>1965</v>
-      </c>
-      <c r="M132" s="27" t="s">
-        <v>1731</v>
-      </c>
-      <c r="N132" s="34"/>
-      <c r="O132" s="34"/>
-    </row>
-    <row r="133" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A133" t="s">
-        <v>1558</v>
-      </c>
-      <c r="G133" s="33"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
-      <c r="K133" s="33"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="34"/>
-      <c r="O133" s="34"/>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" t="s">
-        <v>1977</v>
-      </c>
-      <c r="G134" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="H134" s="27" t="s">
-        <v>1144</v>
-      </c>
-      <c r="I134" s="32"/>
-      <c r="J134" s="27"/>
-      <c r="K134" s="33"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="34"/>
-      <c r="O134" s="34"/>
-    </row>
-    <row r="135" spans="1:15" ht="15.75" thickBot="1">
-      <c r="G135" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="H135" s="38" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I135" s="37"/>
-      <c r="J135" s="27"/>
-      <c r="K135" s="33"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="34"/>
-      <c r="O135" s="34"/>
-    </row>
-    <row r="136" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A136" t="s">
-        <v>2002</v>
-      </c>
-      <c r="G136" s="33"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="27"/>
-      <c r="K136" s="33"/>
-      <c r="L136" s="27"/>
-      <c r="M136" s="27"/>
-      <c r="N136" s="34"/>
-      <c r="O136" s="34"/>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="B137" t="s">
-        <v>357</v>
-      </c>
-      <c r="G137" s="33" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H137" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="I137" s="32">
-        <v>10</v>
-      </c>
-      <c r="J137" s="27"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="34"/>
-      <c r="O137" s="34"/>
-    </row>
-    <row r="138" spans="1:15" ht="15.75" thickBot="1">
-      <c r="B138" t="s">
-        <v>2003</v>
-      </c>
-      <c r="G138" s="33"/>
-      <c r="H138" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="I138" s="37">
-        <v>1</v>
-      </c>
-      <c r="J138" s="27"/>
-      <c r="K138" s="33"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="34"/>
-      <c r="O138" s="34"/>
-    </row>
-    <row r="139" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A139" t="s">
-        <v>146</v>
-      </c>
-      <c r="G139" s="33"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="33"/>
-      <c r="L139" s="27"/>
-      <c r="M139" s="27"/>
-      <c r="N139" s="34"/>
-      <c r="O139" s="34"/>
-    </row>
-    <row r="140" spans="1:15" ht="15.75" thickBot="1">
-      <c r="G140" s="33" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H140" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="I140" s="32">
-        <v>10</v>
-      </c>
-      <c r="J140" s="27"/>
-      <c r="K140" s="35"/>
-      <c r="L140" s="36"/>
-      <c r="M140" s="36"/>
-      <c r="N140" s="37"/>
-      <c r="O140" s="34"/>
-    </row>
-    <row r="141" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A141" t="s">
-        <v>2004</v>
-      </c>
-      <c r="B141" t="b">
-        <v>0</v>
-      </c>
-      <c r="G141" s="33"/>
-      <c r="H141" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="I141" s="37">
-        <v>1</v>
-      </c>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
-      <c r="L141" s="36"/>
-      <c r="M141" s="36"/>
-      <c r="N141" s="36"/>
-      <c r="O141" s="37"/>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" t="s">
-        <v>2005</v>
-      </c>
-      <c r="B142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="144" spans="1:15" ht="15.75" thickBot="1">
-      <c r="G144" s="47"/>
-      <c r="H144" s="48"/>
-      <c r="I144" s="48"/>
-      <c r="J144" s="48"/>
-      <c r="K144" s="48"/>
-      <c r="L144" s="48"/>
-      <c r="M144" s="48"/>
-      <c r="N144" s="49"/>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="G145" s="50"/>
-      <c r="H145" s="51" t="s">
-        <v>2022</v>
-      </c>
-      <c r="I145" s="51"/>
-      <c r="J145" s="47" t="s">
-        <v>2021</v>
-      </c>
-      <c r="K145" s="48"/>
-      <c r="L145" s="48"/>
-      <c r="M145" s="49"/>
-      <c r="N145" s="52"/>
-    </row>
-    <row r="146" spans="1:14">
-      <c r="G146" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="H146" s="51">
-        <v>40</v>
-      </c>
-      <c r="I146" s="51"/>
-      <c r="J146" s="50"/>
-      <c r="K146" s="51"/>
-      <c r="L146" s="51"/>
-      <c r="M146" s="52"/>
-      <c r="N146" s="52"/>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="G147" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="H147" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="I147" s="51"/>
-      <c r="J147" s="50"/>
-      <c r="K147" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="L147" s="51" t="s">
-        <v>2010</v>
-      </c>
-      <c r="M147" s="52" t="s">
-        <v>2018</v>
-      </c>
-      <c r="N147" s="52"/>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="G148" s="50" t="s">
-        <v>2025</v>
-      </c>
-      <c r="H148" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="I148" s="51"/>
-      <c r="J148" s="50"/>
-      <c r="K148" s="51" t="s">
-        <v>1965</v>
-      </c>
-      <c r="L148" s="51" t="s">
-        <v>1539</v>
-      </c>
-      <c r="M148" s="52"/>
-      <c r="N148" s="52"/>
-    </row>
-    <row r="149" spans="1:14">
-      <c r="G149" s="50" t="s">
-        <v>2015</v>
-      </c>
-      <c r="H149" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="I149" s="51"/>
-      <c r="J149" s="50"/>
-      <c r="K149" s="51" t="s">
-        <v>1966</v>
-      </c>
-      <c r="L149" s="51" t="s">
-        <v>1731</v>
-      </c>
-      <c r="M149" s="52"/>
-      <c r="N149" s="52"/>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="A150" t="s">
-        <v>275</v>
-      </c>
-      <c r="G150" s="50" t="s">
-        <v>2016</v>
-      </c>
-      <c r="H150" s="51" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I150" s="51"/>
-      <c r="J150" s="50"/>
-      <c r="K150" s="51" t="s">
-        <v>2023</v>
-      </c>
-      <c r="L150" s="51" t="s">
-        <v>2024</v>
-      </c>
-      <c r="M150" s="52"/>
-      <c r="N150" s="52"/>
-    </row>
-    <row r="151" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A151" t="s">
-        <v>1776</v>
-      </c>
-      <c r="G151" s="50"/>
-      <c r="H151" s="51"/>
-      <c r="I151" s="51"/>
-      <c r="J151" s="50"/>
-      <c r="K151" s="51"/>
-      <c r="L151" s="51"/>
-      <c r="M151" s="52"/>
-      <c r="N151" s="52"/>
-    </row>
-    <row r="152" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A152" t="s">
-        <v>514</v>
-      </c>
-      <c r="G152" s="50" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H152" s="58" t="s">
-        <v>2010</v>
-      </c>
-      <c r="I152" s="51"/>
-      <c r="J152" s="50"/>
-      <c r="K152" s="51"/>
-      <c r="L152" s="51"/>
-      <c r="M152" s="52"/>
-      <c r="N152" s="52"/>
-    </row>
-    <row r="153" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A153" t="s">
-        <v>379</v>
-      </c>
-      <c r="G153" s="50"/>
-      <c r="H153" s="51"/>
-      <c r="I153" s="51"/>
-      <c r="J153" s="50"/>
-      <c r="K153" s="51"/>
-      <c r="L153" s="51"/>
-      <c r="M153" s="52"/>
-      <c r="N153" s="52"/>
-    </row>
-    <row r="154" spans="1:14" ht="15.75" thickBot="1">
-      <c r="G154" s="50"/>
-      <c r="H154" s="58"/>
-      <c r="I154" s="51"/>
-      <c r="J154" s="50"/>
-      <c r="K154" s="51"/>
-      <c r="L154" s="51"/>
-      <c r="M154" s="52"/>
-      <c r="N154" s="52"/>
-    </row>
-    <row r="155" spans="1:14">
-      <c r="G155" s="50" t="s">
-        <v>2032</v>
-      </c>
-      <c r="H155" s="51"/>
-      <c r="I155" s="51"/>
-      <c r="J155" s="50"/>
-      <c r="K155" s="51"/>
-      <c r="L155" s="51"/>
-      <c r="M155" s="52"/>
-      <c r="N155" s="52"/>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="G156" s="50"/>
-      <c r="H156" s="51"/>
-      <c r="I156" s="51"/>
-      <c r="J156" s="50"/>
-      <c r="K156" s="51"/>
-      <c r="L156" s="51"/>
-      <c r="M156" s="52"/>
-      <c r="N156" s="52"/>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="G157" s="50"/>
-      <c r="H157" s="51"/>
-      <c r="I157" s="51"/>
-      <c r="J157" s="50"/>
-      <c r="K157" s="51"/>
-      <c r="L157" s="51"/>
-      <c r="M157" s="52"/>
-      <c r="N157" s="52"/>
-    </row>
-    <row r="158" spans="1:14" ht="15.75" thickBot="1">
-      <c r="G158" s="50"/>
-      <c r="H158" s="51"/>
-      <c r="I158" s="51"/>
-      <c r="J158" s="53"/>
-      <c r="K158" s="54"/>
-      <c r="L158" s="54"/>
-      <c r="M158" s="55"/>
-      <c r="N158" s="52"/>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159" t="s">
-        <v>2020</v>
-      </c>
-      <c r="G159" s="50"/>
-      <c r="H159" s="51"/>
-      <c r="I159" s="51"/>
-      <c r="J159" s="51"/>
-      <c r="K159" s="51"/>
-      <c r="L159" s="51"/>
-      <c r="M159" s="51"/>
-      <c r="N159" s="52"/>
-    </row>
-    <row r="160" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A160" t="s">
-        <v>2027</v>
-      </c>
-      <c r="G160" s="53"/>
-      <c r="H160" s="54"/>
-      <c r="I160" s="54"/>
-      <c r="J160" s="54"/>
-      <c r="K160" s="54"/>
-      <c r="L160" s="54"/>
-      <c r="M160" s="54"/>
-      <c r="N160" s="55"/>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="G168" t="s">
-        <v>2033</v>
-      </c>
-      <c r="K168" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="I170" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="I171" s="179">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="D172" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="D173" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="D174" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="G175" t="s">
-        <v>2036</v>
-      </c>
-      <c r="K175" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
-      <c r="D177" s="56" t="s">
-        <v>2239</v>
-      </c>
-      <c r="E177" s="56"/>
-      <c r="F177" s="56"/>
-      <c r="G177" s="56"/>
-      <c r="H177" s="56"/>
-      <c r="I177" s="56"/>
-    </row>
-    <row r="178" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="179" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F179" s="30" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G179" s="31"/>
-      <c r="H179" s="31"/>
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
-      <c r="K179" s="31"/>
-      <c r="L179" s="31"/>
-      <c r="M179" s="31"/>
-      <c r="N179" s="31"/>
-      <c r="O179" s="32"/>
-    </row>
-    <row r="180" spans="1:15">
-      <c r="F180" s="33"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="30" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L180" s="31"/>
-      <c r="M180" s="31" t="s">
-        <v>2223</v>
-      </c>
-      <c r="N180" s="32"/>
-      <c r="O180" s="34"/>
-    </row>
-    <row r="181" spans="1:15">
-      <c r="A181" t="s">
-        <v>2230</v>
-      </c>
-      <c r="C181" t="s">
-        <v>2231</v>
-      </c>
-      <c r="F181" s="33" t="s">
-        <v>2226</v>
-      </c>
-      <c r="G181" s="27">
-        <v>10</v>
-      </c>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="33"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="34"/>
-      <c r="O181" s="34"/>
-    </row>
-    <row r="182" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A182" t="s">
-        <v>2233</v>
-      </c>
-      <c r="D182" t="s">
-        <v>2238</v>
-      </c>
-      <c r="F182" s="33" t="s">
-        <v>2227</v>
-      </c>
-      <c r="G182" s="27">
-        <v>10</v>
-      </c>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="33"/>
-      <c r="L182" s="109" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M182" s="109"/>
-      <c r="N182" s="110"/>
-      <c r="O182" s="34"/>
-    </row>
-    <row r="183" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F183" s="33" t="s">
-        <v>2228</v>
-      </c>
-      <c r="G183" s="27">
-        <v>10</v>
-      </c>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="33"/>
-      <c r="L183" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="M183" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="N183" s="34"/>
-      <c r="O183" s="34"/>
-    </row>
-    <row r="184" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F184" s="33" t="s">
-        <v>2229</v>
-      </c>
-      <c r="G184" s="38">
-        <v>10</v>
-      </c>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="33"/>
-      <c r="L184" s="27"/>
-      <c r="M184" s="27"/>
-      <c r="N184" s="34"/>
-      <c r="O184" s="34"/>
-    </row>
-    <row r="185" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F185" s="33" t="s">
-        <v>2232</v>
-      </c>
-      <c r="G185" s="38">
-        <v>10</v>
-      </c>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="33"/>
-      <c r="L185" s="27" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M185" s="46" t="s">
-        <v>2240</v>
-      </c>
-      <c r="N185" s="34"/>
-      <c r="O185" s="34"/>
-    </row>
-    <row r="186" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F186" s="33"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="33"/>
-      <c r="L186" s="27"/>
-      <c r="M186" s="27"/>
-      <c r="N186" s="34"/>
-      <c r="O186" s="34"/>
-    </row>
-    <row r="187" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F187" s="33" t="s">
-        <v>2234</v>
-      </c>
-      <c r="G187" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="33"/>
-      <c r="L187" s="38"/>
-      <c r="M187" s="46"/>
-      <c r="N187" s="34"/>
-      <c r="O187" s="34"/>
-    </row>
-    <row r="188" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F188" s="33" t="s">
-        <v>2235</v>
-      </c>
-      <c r="G188" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="H188" s="27"/>
-      <c r="I188" s="46"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="33"/>
-      <c r="L188" s="27"/>
-      <c r="M188" s="27"/>
-      <c r="N188" s="34"/>
-      <c r="O188" s="34"/>
-    </row>
-    <row r="189" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F189" s="33" t="s">
-        <v>2236</v>
-      </c>
-      <c r="G189" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="33"/>
-      <c r="L189" s="27"/>
-      <c r="M189" s="27"/>
-      <c r="N189" s="34"/>
-      <c r="O189" s="34"/>
-    </row>
-    <row r="190" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F190" s="50" t="s">
-        <v>2237</v>
-      </c>
-      <c r="G190" s="51" t="s">
-        <v>519</v>
-      </c>
-      <c r="H190" s="27"/>
-      <c r="I190" s="46"/>
-      <c r="J190" s="27"/>
-      <c r="K190" s="33"/>
-      <c r="L190" s="27"/>
-      <c r="M190" s="27"/>
-      <c r="N190" s="34"/>
-      <c r="O190" s="34"/>
-    </row>
-    <row r="191" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F191" s="33"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
-      <c r="K191" s="35"/>
-      <c r="L191" s="36"/>
-      <c r="M191" s="36"/>
-      <c r="N191" s="37"/>
-      <c r="O191" s="34"/>
-    </row>
-    <row r="192" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F192" s="35"/>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36"/>
-      <c r="I192" s="36"/>
-      <c r="J192" s="36"/>
-      <c r="K192" s="36"/>
-      <c r="L192" s="36"/>
-      <c r="M192" s="36"/>
-      <c r="N192" s="36"/>
-      <c r="O192" s="37"/>
-    </row>
-    <row r="194" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="195" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A195" t="s">
-        <v>508</v>
-      </c>
-      <c r="F195" s="30" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G195" s="31"/>
-      <c r="H195" s="31"/>
-      <c r="I195" s="31"/>
-      <c r="J195" s="31"/>
-      <c r="K195" s="31"/>
-      <c r="L195" s="31"/>
-      <c r="M195" s="31"/>
-      <c r="N195" s="31"/>
-      <c r="O195" s="32"/>
+      <c r="N195" s="32"/>
+      <c r="O195" s="34"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" t="s">
-        <v>514</v>
-      </c>
-      <c r="F196" s="33"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
+        <v>2026</v>
+      </c>
+      <c r="G196" s="33" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H196" s="27" t="s">
+        <v>1965</v>
+      </c>
       <c r="I196" s="27"/>
       <c r="J196" s="27"/>
-      <c r="K196" s="30" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L196" s="31"/>
-      <c r="M196" s="31" t="s">
-        <v>2223</v>
-      </c>
-      <c r="N196" s="32"/>
+      <c r="K196" s="33"/>
+      <c r="L196" s="27"/>
+      <c r="M196" s="27"/>
+      <c r="N196" s="34"/>
       <c r="O196" s="34"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" t="s">
-        <v>2241</v>
-      </c>
-      <c r="F197" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="G197" s="51">
-        <v>40</v>
-      </c>
-      <c r="H197" s="27"/>
+        <v>2007</v>
+      </c>
+      <c r="G197" s="33" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H197" s="27" t="s">
+        <v>415</v>
+      </c>
       <c r="I197" s="27"/>
       <c r="J197" s="27"/>
       <c r="K197" s="33"/>
@@ -33776,1416 +33514,2247 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" t="s">
-        <v>2242</v>
-      </c>
-      <c r="F198" s="50"/>
-      <c r="G198" s="51"/>
-      <c r="H198" s="27"/>
+        <v>2008</v>
+      </c>
+      <c r="G198" s="33" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H198" s="38" t="s">
+        <v>415</v>
+      </c>
       <c r="I198" s="27"/>
       <c r="J198" s="27"/>
       <c r="K198" s="33"/>
-      <c r="L198" s="109" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M198" s="109"/>
-      <c r="N198" s="110"/>
+      <c r="L198" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="M198" s="27" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N198" s="34" t="s">
+        <v>2018</v>
+      </c>
       <c r="O198" s="34"/>
     </row>
     <row r="199" spans="1:15">
-      <c r="F199" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G199" s="51" t="s">
-        <v>2251</v>
-      </c>
-      <c r="H199" s="27"/>
+      <c r="A199" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G199" s="33" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H199" s="38" t="s">
+        <v>415</v>
+      </c>
       <c r="I199" s="27"/>
       <c r="J199" s="27"/>
       <c r="K199" s="33"/>
-      <c r="L199" s="27" t="s">
-        <v>1144</v>
-      </c>
-      <c r="M199" s="43" t="s">
-        <v>414</v>
-      </c>
+      <c r="L199" s="27"/>
+      <c r="M199" s="27"/>
       <c r="N199" s="34"/>
       <c r="O199" s="34"/>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" t="s">
-        <v>358</v>
-      </c>
-      <c r="F200" s="50"/>
-      <c r="G200" s="74"/>
-      <c r="H200" s="27"/>
+        <v>2017</v>
+      </c>
+      <c r="G200" s="33" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H200" s="38" t="s">
+        <v>415</v>
+      </c>
       <c r="I200" s="27"/>
       <c r="J200" s="27"/>
       <c r="K200" s="33"/>
-      <c r="L200" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="M200" s="43" t="s">
-        <v>1155</v>
-      </c>
+      <c r="L200" s="27"/>
+      <c r="M200" s="27"/>
       <c r="N200" s="34"/>
       <c r="O200" s="34"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" t="s">
-        <v>2243</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F201" s="33" t="s">
-        <v>2256</v>
-      </c>
-      <c r="G201" s="38" t="s">
-        <v>2257</v>
-      </c>
+      <c r="G201" s="33"/>
       <c r="H201" s="27"/>
       <c r="I201" s="27"/>
       <c r="J201" s="27"/>
       <c r="K201" s="33"/>
       <c r="L201" s="27" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M201" s="43" t="s">
-        <v>2246</v>
+        <v>1965</v>
+      </c>
+      <c r="M201" s="27" t="s">
+        <v>1731</v>
       </c>
       <c r="N201" s="34"/>
       <c r="O201" s="34"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" ht="15.75" thickBot="1">
       <c r="A202" t="s">
-        <v>2244</v>
-      </c>
-      <c r="C202" t="s">
-        <v>2249</v>
-      </c>
-      <c r="F202" s="33"/>
-      <c r="G202" s="27"/>
+        <v>1558</v>
+      </c>
+      <c r="G202" s="33"/>
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
       <c r="J202" s="27"/>
       <c r="K202" s="33"/>
-      <c r="L202" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="M202" s="43" t="s">
-        <v>2249</v>
-      </c>
+      <c r="L202" s="27"/>
+      <c r="M202" s="27"/>
       <c r="N202" s="34"/>
       <c r="O202" s="34"/>
     </row>
-    <row r="203" spans="1:15" ht="15.75" thickBot="1">
+    <row r="203" spans="1:15">
       <c r="A203" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C203" t="s">
-        <v>2250</v>
-      </c>
-      <c r="F203" s="33"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="27"/>
+        <v>1977</v>
+      </c>
+      <c r="G203" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="H203" s="27" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I203" s="32"/>
       <c r="J203" s="27"/>
       <c r="K203" s="33"/>
-      <c r="L203" s="38" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M203" s="43" t="s">
-        <v>2247</v>
-      </c>
+      <c r="L203" s="27"/>
+      <c r="M203" s="27"/>
       <c r="N203" s="34"/>
       <c r="O203" s="34"/>
     </row>
     <row r="204" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F204" s="33"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27" t="s">
-        <v>2257</v>
-      </c>
-      <c r="I204" s="46" t="s">
-        <v>2250</v>
-      </c>
+      <c r="G204" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="H204" s="38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I204" s="37"/>
       <c r="J204" s="27"/>
       <c r="K204" s="33"/>
-      <c r="L204" s="38" t="s">
-        <v>2251</v>
-      </c>
-      <c r="M204" s="43" t="s">
-        <v>2250</v>
-      </c>
+      <c r="L204" s="27"/>
+      <c r="M204" s="27"/>
       <c r="N204" s="34"/>
       <c r="O204" s="34"/>
     </row>
     <row r="205" spans="1:15" ht="15.75" thickBot="1">
       <c r="A205" t="s">
-        <v>2258</v>
-      </c>
-      <c r="F205" s="33"/>
-      <c r="G205" s="27"/>
+        <v>2002</v>
+      </c>
+      <c r="G205" s="33"/>
       <c r="H205" s="27"/>
       <c r="I205" s="27"/>
       <c r="J205" s="27"/>
       <c r="K205" s="33"/>
-      <c r="L205" s="27" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M205" s="43" t="s">
-        <v>2248</v>
-      </c>
+      <c r="L205" s="27"/>
+      <c r="M205" s="27"/>
       <c r="N205" s="34"/>
       <c r="O205" s="34"/>
     </row>
-    <row r="206" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A206" t="s">
-        <v>2252</v>
-      </c>
-      <c r="F206" s="50"/>
-      <c r="G206" s="51"/>
-      <c r="H206" s="27"/>
-      <c r="I206" s="46"/>
+    <row r="206" spans="1:15">
+      <c r="B206" t="s">
+        <v>357</v>
+      </c>
+      <c r="G206" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H206" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I206" s="32">
+        <v>10</v>
+      </c>
       <c r="J206" s="27"/>
       <c r="K206" s="33"/>
       <c r="L206" s="27"/>
-      <c r="M206" s="43"/>
+      <c r="M206" s="27"/>
       <c r="N206" s="34"/>
       <c r="O206" s="34"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A207" t="s">
-        <v>2253</v>
-      </c>
-      <c r="F207" s="33"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="27"/>
+      <c r="B207" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G207" s="33"/>
+      <c r="H207" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="I207" s="37">
+        <v>1</v>
+      </c>
       <c r="J207" s="27"/>
-      <c r="K207" s="35"/>
-      <c r="L207" s="36"/>
-      <c r="M207" s="36"/>
-      <c r="N207" s="37"/>
+      <c r="K207" s="33"/>
+      <c r="L207" s="27"/>
+      <c r="M207" s="27"/>
+      <c r="N207" s="34"/>
       <c r="O207" s="34"/>
     </row>
     <row r="208" spans="1:15" ht="15.75" thickBot="1">
       <c r="A208" t="s">
-        <v>2255</v>
-      </c>
-      <c r="F208" s="35"/>
-      <c r="G208" s="36"/>
-      <c r="H208" s="36"/>
-      <c r="I208" s="36"/>
-      <c r="J208" s="36"/>
-      <c r="K208" s="36"/>
-      <c r="L208" s="36"/>
-      <c r="M208" s="36"/>
-      <c r="N208" s="36"/>
-      <c r="O208" s="37"/>
-    </row>
-    <row r="209" spans="1:15">
-      <c r="A209" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="211" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F211" s="30"/>
-      <c r="G211" s="31"/>
-      <c r="H211" s="31"/>
-      <c r="I211" s="31"/>
-      <c r="J211" s="31"/>
-      <c r="K211" s="31"/>
-      <c r="L211" s="31"/>
-      <c r="M211" s="31"/>
-      <c r="N211" s="31"/>
-      <c r="O211" s="32"/>
-    </row>
-    <row r="212" spans="1:15">
-      <c r="A212" t="s">
-        <v>2566</v>
-      </c>
-      <c r="F212" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="G212" s="27" t="s">
-        <v>1440</v>
-      </c>
-      <c r="H212" s="27"/>
-      <c r="I212" s="27"/>
-      <c r="J212" s="27"/>
-      <c r="K212" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G208" s="33"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="27"/>
+      <c r="K208" s="33"/>
+      <c r="L208" s="27"/>
+      <c r="M208" s="27"/>
+      <c r="N208" s="34"/>
+      <c r="O208" s="34"/>
+    </row>
+    <row r="209" spans="1:15" ht="15.75" thickBot="1">
+      <c r="G209" s="33" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H209" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I209" s="32">
+        <v>10</v>
+      </c>
+      <c r="J209" s="27"/>
+      <c r="K209" s="35"/>
+      <c r="L209" s="36"/>
+      <c r="M209" s="36"/>
+      <c r="N209" s="37"/>
+      <c r="O209" s="34"/>
+    </row>
+    <row r="210" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A210" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+      <c r="G210" s="33"/>
+      <c r="H210" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="I210" s="37">
+        <v>1</v>
+      </c>
+      <c r="J210" s="36"/>
+      <c r="K210" s="36"/>
+      <c r="L210" s="36"/>
+      <c r="M210" s="36"/>
+      <c r="N210" s="36"/>
+      <c r="O210" s="37"/>
+    </row>
+    <row r="211" spans="1:15">
+      <c r="A211" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="213" spans="1:15" ht="15.75" thickBot="1">
+      <c r="G213" s="47"/>
+      <c r="H213" s="48"/>
+      <c r="I213" s="48"/>
+      <c r="J213" s="48"/>
+      <c r="K213" s="48"/>
+      <c r="L213" s="48"/>
+      <c r="M213" s="48"/>
+      <c r="N213" s="49"/>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="G214" s="50"/>
+      <c r="H214" s="51" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I214" s="51"/>
+      <c r="J214" s="47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K214" s="48"/>
+      <c r="L214" s="48"/>
+      <c r="M214" s="49"/>
+      <c r="N214" s="52"/>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="G215" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="H215" s="51">
+        <v>40</v>
+      </c>
+      <c r="I215" s="51"/>
+      <c r="J215" s="50"/>
+      <c r="K215" s="51"/>
+      <c r="L215" s="51"/>
+      <c r="M215" s="52"/>
+      <c r="N215" s="52"/>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="G216" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="H216" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="I216" s="51"/>
+      <c r="J216" s="50"/>
+      <c r="K216" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="L216" s="51" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M216" s="52" t="s">
+        <v>2018</v>
+      </c>
+      <c r="N216" s="52"/>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="G217" s="50" t="s">
+        <v>2025</v>
+      </c>
+      <c r="H217" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="I217" s="51"/>
+      <c r="J217" s="50"/>
+      <c r="K217" s="51" t="s">
+        <v>1965</v>
+      </c>
+      <c r="L217" s="51" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M217" s="52"/>
+      <c r="N217" s="52"/>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="G218" s="50" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H218" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="I218" s="51"/>
+      <c r="J218" s="50"/>
+      <c r="K218" s="51" t="s">
+        <v>1966</v>
+      </c>
+      <c r="L218" s="51" t="s">
+        <v>1731</v>
+      </c>
+      <c r="M218" s="52"/>
+      <c r="N218" s="52"/>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" t="s">
+        <v>275</v>
+      </c>
+      <c r="G219" s="50" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H219" s="51" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I219" s="51"/>
+      <c r="J219" s="50"/>
+      <c r="K219" s="51" t="s">
+        <v>2023</v>
+      </c>
+      <c r="L219" s="51" t="s">
+        <v>2024</v>
+      </c>
+      <c r="M219" s="52"/>
+      <c r="N219" s="52"/>
+    </row>
+    <row r="220" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A220" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G220" s="50"/>
+      <c r="H220" s="51"/>
+      <c r="I220" s="51"/>
+      <c r="J220" s="50"/>
+      <c r="K220" s="51"/>
+      <c r="L220" s="51"/>
+      <c r="M220" s="52"/>
+      <c r="N220" s="52"/>
+    </row>
+    <row r="221" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A221" t="s">
+        <v>514</v>
+      </c>
+      <c r="G221" s="50" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H221" s="58" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I221" s="51"/>
+      <c r="J221" s="50"/>
+      <c r="K221" s="51"/>
+      <c r="L221" s="51"/>
+      <c r="M221" s="52"/>
+      <c r="N221" s="52"/>
+    </row>
+    <row r="222" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A222" t="s">
+        <v>379</v>
+      </c>
+      <c r="G222" s="50"/>
+      <c r="H222" s="51"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="50"/>
+      <c r="K222" s="51"/>
+      <c r="L222" s="51"/>
+      <c r="M222" s="52"/>
+      <c r="N222" s="52"/>
+    </row>
+    <row r="223" spans="1:15" ht="15.75" thickBot="1">
+      <c r="G223" s="50"/>
+      <c r="H223" s="58"/>
+      <c r="I223" s="51"/>
+      <c r="J223" s="50"/>
+      <c r="K223" s="51"/>
+      <c r="L223" s="51"/>
+      <c r="M223" s="52"/>
+      <c r="N223" s="52"/>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="G224" s="50" t="s">
+        <v>2032</v>
+      </c>
+      <c r="H224" s="51"/>
+      <c r="I224" s="51"/>
+      <c r="J224" s="50"/>
+      <c r="K224" s="51"/>
+      <c r="L224" s="51"/>
+      <c r="M224" s="52"/>
+      <c r="N224" s="52"/>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="G225" s="50"/>
+      <c r="H225" s="51"/>
+      <c r="I225" s="51"/>
+      <c r="J225" s="50"/>
+      <c r="K225" s="51"/>
+      <c r="L225" s="51"/>
+      <c r="M225" s="52"/>
+      <c r="N225" s="52"/>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="G226" s="50"/>
+      <c r="H226" s="51"/>
+      <c r="I226" s="51"/>
+      <c r="J226" s="50"/>
+      <c r="K226" s="51"/>
+      <c r="L226" s="51"/>
+      <c r="M226" s="52"/>
+      <c r="N226" s="52"/>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" thickBot="1">
+      <c r="G227" s="50"/>
+      <c r="H227" s="51"/>
+      <c r="I227" s="51"/>
+      <c r="J227" s="53"/>
+      <c r="K227" s="54"/>
+      <c r="L227" s="54"/>
+      <c r="M227" s="55"/>
+      <c r="N227" s="52"/>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G228" s="50"/>
+      <c r="H228" s="51"/>
+      <c r="I228" s="51"/>
+      <c r="J228" s="51"/>
+      <c r="K228" s="51"/>
+      <c r="L228" s="51"/>
+      <c r="M228" s="51"/>
+      <c r="N228" s="52"/>
+    </row>
+    <row r="229" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A229" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G229" s="53"/>
+      <c r="H229" s="54"/>
+      <c r="I229" s="54"/>
+      <c r="J229" s="54"/>
+      <c r="K229" s="54"/>
+      <c r="L229" s="54"/>
+      <c r="M229" s="54"/>
+      <c r="N229" s="55"/>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="G237" t="s">
+        <v>2033</v>
+      </c>
+      <c r="K237" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="I239" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="I240" s="179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="D241" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="D242" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
+      <c r="D243" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15">
+      <c r="G244" t="s">
+        <v>2036</v>
+      </c>
+      <c r="K244" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
+      <c r="D246" s="56" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E246" s="56"/>
+      <c r="F246" s="56"/>
+      <c r="G246" s="56"/>
+      <c r="H246" s="56"/>
+      <c r="I246" s="56"/>
+    </row>
+    <row r="247" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="248" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F248" s="30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G248" s="31"/>
+      <c r="H248" s="31"/>
+      <c r="I248" s="31"/>
+      <c r="J248" s="31"/>
+      <c r="K248" s="31"/>
+      <c r="L248" s="31"/>
+      <c r="M248" s="31"/>
+      <c r="N248" s="31"/>
+      <c r="O248" s="32"/>
+    </row>
+    <row r="249" spans="1:15">
+      <c r="F249" s="33"/>
+      <c r="G249" s="27"/>
+      <c r="H249" s="27"/>
+      <c r="I249" s="27"/>
+      <c r="J249" s="27"/>
+      <c r="K249" s="30" t="s">
         <v>1134</v>
       </c>
-      <c r="L212" s="31"/>
-      <c r="M212" s="31" t="s">
-        <v>2565</v>
-      </c>
-      <c r="N212" s="32"/>
-      <c r="O212" s="34"/>
-    </row>
-    <row r="213" spans="1:15">
-      <c r="A213" t="s">
-        <v>275</v>
-      </c>
-      <c r="F213" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="G213" s="27" t="s">
-        <v>1966</v>
-      </c>
-      <c r="H213" s="27"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="27"/>
-      <c r="K213" s="33"/>
-      <c r="L213" s="27"/>
-      <c r="M213" s="27"/>
-      <c r="N213" s="34"/>
-      <c r="O213" s="34"/>
-    </row>
-    <row r="214" spans="1:15">
-      <c r="A214" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>2221</v>
-      </c>
-      <c r="F214" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="G214" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="H214" s="27"/>
-      <c r="I214" s="27"/>
-      <c r="J214" s="27"/>
-      <c r="K214" s="33"/>
-      <c r="L214" s="27" t="s">
-        <v>2570</v>
-      </c>
-      <c r="M214" s="27"/>
-      <c r="N214" s="34"/>
-      <c r="O214" s="34"/>
-    </row>
-    <row r="215" spans="1:15">
-      <c r="A215" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>2221</v>
-      </c>
-      <c r="F215" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="G215" s="27" t="s">
-        <v>2023</v>
-      </c>
-      <c r="H215" s="27"/>
-      <c r="I215" s="27"/>
-      <c r="J215" s="27"/>
-      <c r="K215" s="33"/>
-      <c r="L215" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="M215" s="27" t="s">
+      <c r="L249" s="31"/>
+      <c r="M249" s="31" t="s">
+        <v>2223</v>
+      </c>
+      <c r="N249" s="32"/>
+      <c r="O249" s="34"/>
+    </row>
+    <row r="250" spans="1:15">
+      <c r="A250" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F250" s="33" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G250" s="27">
+        <v>10</v>
+      </c>
+      <c r="H250" s="27"/>
+      <c r="I250" s="27"/>
+      <c r="J250" s="27"/>
+      <c r="K250" s="33"/>
+      <c r="L250" s="27"/>
+      <c r="M250" s="27"/>
+      <c r="N250" s="34"/>
+      <c r="O250" s="34"/>
+    </row>
+    <row r="251" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A251" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F251" s="33" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G251" s="27">
+        <v>10</v>
+      </c>
+      <c r="H251" s="27"/>
+      <c r="I251" s="27"/>
+      <c r="J251" s="27"/>
+      <c r="K251" s="33"/>
+      <c r="L251" s="109" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M251" s="109"/>
+      <c r="N251" s="110"/>
+      <c r="O251" s="34"/>
+    </row>
+    <row r="252" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F252" s="33" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G252" s="27">
+        <v>10</v>
+      </c>
+      <c r="H252" s="27"/>
+      <c r="I252" s="27"/>
+      <c r="J252" s="27"/>
+      <c r="K252" s="33"/>
+      <c r="L252" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="M252" s="46" t="s">
         <v>414</v>
       </c>
-      <c r="N215" s="34"/>
-      <c r="O215" s="34"/>
-    </row>
-    <row r="216" spans="1:15">
-      <c r="A216" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D216" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="F216" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="G216" s="51">
+      <c r="N252" s="34"/>
+      <c r="O252" s="34"/>
+    </row>
+    <row r="253" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F253" s="33" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G253" s="38">
         <v>10</v>
       </c>
-      <c r="H216" s="27"/>
-      <c r="I216" s="27"/>
-      <c r="J216" s="27"/>
-      <c r="K216" s="33"/>
-      <c r="L216" s="27"/>
-      <c r="M216" s="27"/>
-      <c r="N216" s="34"/>
-      <c r="O216" s="34"/>
-    </row>
-    <row r="217" spans="1:15">
-      <c r="A217" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F217" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="G217" s="51">
+      <c r="H253" s="27"/>
+      <c r="I253" s="27"/>
+      <c r="J253" s="27"/>
+      <c r="K253" s="33"/>
+      <c r="L253" s="27"/>
+      <c r="M253" s="27"/>
+      <c r="N253" s="34"/>
+      <c r="O253" s="34"/>
+    </row>
+    <row r="254" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F254" s="33" t="s">
+        <v>2232</v>
+      </c>
+      <c r="G254" s="38">
         <v>10</v>
       </c>
-      <c r="H217" s="27"/>
-      <c r="I217" s="27"/>
-      <c r="J217" s="27"/>
-      <c r="K217" s="33"/>
-      <c r="L217" s="27"/>
-      <c r="M217" s="27"/>
-      <c r="N217" s="34"/>
-      <c r="O217" s="34"/>
-    </row>
-    <row r="218" spans="1:15">
-      <c r="F218" s="33"/>
-      <c r="G218" s="27"/>
-      <c r="H218" s="27"/>
-      <c r="I218" s="27"/>
-      <c r="J218" s="27"/>
-      <c r="K218" s="33"/>
-      <c r="L218" s="27" t="s">
-        <v>1966</v>
-      </c>
-      <c r="M218" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="N218" s="34"/>
-      <c r="O218" s="34"/>
-    </row>
-    <row r="219" spans="1:15">
-      <c r="F219" s="33"/>
-      <c r="G219" s="27"/>
-      <c r="H219" s="27"/>
-      <c r="I219" s="27"/>
-      <c r="J219" s="27"/>
-      <c r="K219" s="33"/>
-      <c r="L219" s="27"/>
-      <c r="M219" s="27"/>
-      <c r="N219" s="34"/>
-      <c r="O219" s="34"/>
-    </row>
-    <row r="220" spans="1:15">
-      <c r="F220" s="33"/>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="27"/>
-      <c r="J220" s="27"/>
-      <c r="K220" s="33"/>
-      <c r="L220" s="27"/>
-      <c r="M220" s="27"/>
-      <c r="N220" s="34"/>
-      <c r="O220" s="34"/>
-    </row>
-    <row r="221" spans="1:15">
-      <c r="A221" t="s">
-        <v>2567</v>
-      </c>
-      <c r="D221" t="b">
-        <v>1</v>
-      </c>
-      <c r="F221" s="33"/>
-      <c r="G221" s="27"/>
-      <c r="H221" s="27"/>
-      <c r="I221" s="27"/>
-      <c r="J221" s="27"/>
-      <c r="K221" s="33"/>
-      <c r="L221" s="27"/>
-      <c r="M221" s="27"/>
-      <c r="N221" s="34"/>
-      <c r="O221" s="34"/>
-    </row>
-    <row r="222" spans="1:15">
-      <c r="A222" t="s">
-        <v>2563</v>
-      </c>
-      <c r="D222" t="b">
-        <v>1</v>
-      </c>
-      <c r="F222" s="33"/>
-      <c r="G222" s="27"/>
-      <c r="H222" s="27" t="s">
-        <v>2023</v>
-      </c>
-      <c r="I222" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="J222" s="27"/>
-      <c r="K222" s="33"/>
-      <c r="L222" s="27"/>
-      <c r="M222" s="27"/>
-      <c r="N222" s="34"/>
-      <c r="O222" s="34"/>
-    </row>
-    <row r="223" spans="1:15">
-      <c r="A223" t="s">
-        <v>2564</v>
-      </c>
-      <c r="D223" t="b">
-        <v>0</v>
-      </c>
-      <c r="F223" s="33"/>
-      <c r="G223" s="27"/>
-      <c r="H223" s="27"/>
-      <c r="I223" s="27"/>
-      <c r="J223" s="27"/>
-      <c r="K223" s="33"/>
-      <c r="L223" s="27"/>
-      <c r="M223" s="27"/>
-      <c r="N223" s="34"/>
-      <c r="O223" s="34"/>
-    </row>
-    <row r="224" spans="1:15">
-      <c r="F224" s="33"/>
-      <c r="G224" s="27"/>
-      <c r="H224" s="27"/>
-      <c r="I224" s="27"/>
-      <c r="J224" s="27"/>
-      <c r="K224" s="33"/>
-      <c r="L224" s="27"/>
-      <c r="M224" s="27"/>
-      <c r="N224" s="34"/>
-      <c r="O224" s="34"/>
-    </row>
-    <row r="225" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F225" s="33"/>
-      <c r="G225" s="27"/>
-      <c r="H225" s="27"/>
-      <c r="I225" s="27"/>
-      <c r="J225" s="27"/>
-      <c r="K225" s="35"/>
-      <c r="L225" s="36"/>
-      <c r="M225" s="36"/>
-      <c r="N225" s="37"/>
-      <c r="O225" s="34"/>
-    </row>
-    <row r="226" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F226" s="35"/>
-      <c r="G226" s="36"/>
-      <c r="H226" s="36"/>
-      <c r="I226" s="36"/>
-      <c r="J226" s="36"/>
-      <c r="K226" s="36"/>
-      <c r="L226" s="36"/>
-      <c r="M226" s="36"/>
-      <c r="N226" s="36"/>
-      <c r="O226" s="37"/>
-    </row>
-    <row r="228" spans="1:15">
-      <c r="D228" t="s">
-        <v>2568</v>
-      </c>
-      <c r="G228" t="s">
-        <v>2569</v>
-      </c>
-      <c r="I228" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15">
-      <c r="I229" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="232" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F232" s="30"/>
-      <c r="G232" s="31"/>
-      <c r="H232" s="31"/>
-      <c r="I232" s="31"/>
-      <c r="J232" s="31"/>
-      <c r="K232" s="31"/>
-      <c r="L232" s="31"/>
-      <c r="M232" s="31"/>
-      <c r="N232" s="31"/>
-      <c r="O232" s="32"/>
-    </row>
-    <row r="233" spans="1:15">
-      <c r="F233" s="33"/>
-      <c r="G233" s="27"/>
-      <c r="H233" s="27"/>
-      <c r="I233" s="27"/>
-      <c r="J233" s="27"/>
-      <c r="K233" s="30" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L233" s="31"/>
-      <c r="M233" s="31"/>
-      <c r="N233" s="32"/>
-      <c r="O233" s="34"/>
-    </row>
-    <row r="234" spans="1:15">
-      <c r="A234" t="s">
-        <v>2573</v>
-      </c>
-      <c r="F234" s="33" t="s">
-        <v>2580</v>
-      </c>
-      <c r="G234" s="27"/>
-      <c r="H234" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="I234" s="27"/>
-      <c r="J234" s="27"/>
-      <c r="K234" s="33"/>
-      <c r="L234" s="27"/>
-      <c r="M234" s="27"/>
-      <c r="N234" s="34"/>
-      <c r="O234" s="34"/>
-    </row>
-    <row r="235" spans="1:15">
-      <c r="A235" t="s">
-        <v>2574</v>
-      </c>
-      <c r="D235" s="10"/>
-      <c r="F235" s="33" t="s">
-        <v>2581</v>
-      </c>
-      <c r="G235" s="27"/>
-      <c r="H235" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="I235" s="27"/>
-      <c r="J235" s="27"/>
-      <c r="K235" s="33"/>
-      <c r="L235" s="27"/>
-      <c r="M235" s="27"/>
-      <c r="N235" s="34"/>
-      <c r="O235" s="34"/>
-    </row>
-    <row r="236" spans="1:15">
-      <c r="A236" t="s">
-        <v>2575</v>
-      </c>
-      <c r="D236" s="10"/>
-      <c r="F236" s="33" t="s">
-        <v>2582</v>
-      </c>
-      <c r="G236" s="27"/>
-      <c r="H236" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="I236" s="27"/>
-      <c r="J236" s="27"/>
-      <c r="K236" s="33"/>
-      <c r="L236" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="M236" s="27" t="s">
-        <v>2010</v>
-      </c>
-      <c r="N236" s="34"/>
-      <c r="O236" s="34"/>
-    </row>
-    <row r="237" spans="1:15">
-      <c r="A237" t="s">
-        <v>2578</v>
-      </c>
-      <c r="D237" s="10"/>
-      <c r="F237" s="33" t="s">
-        <v>2583</v>
-      </c>
-      <c r="G237" s="51"/>
-      <c r="H237" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="I237" s="27"/>
-      <c r="J237" s="27"/>
-      <c r="K237" s="33"/>
-      <c r="L237" s="27"/>
-      <c r="M237" s="27"/>
-      <c r="N237" s="34"/>
-      <c r="O237" s="34"/>
-    </row>
-    <row r="238" spans="1:15">
-      <c r="A238" t="s">
-        <v>2579</v>
-      </c>
-      <c r="F238" s="33" t="s">
-        <v>2584</v>
-      </c>
-      <c r="G238" s="51"/>
-      <c r="H238" s="27" t="s">
-        <v>1966</v>
-      </c>
-      <c r="I238" s="27"/>
-      <c r="J238" s="27"/>
-      <c r="K238" s="33"/>
-      <c r="L238" s="27"/>
-      <c r="M238" s="27"/>
-      <c r="N238" s="34"/>
-      <c r="O238" s="34"/>
-    </row>
-    <row r="239" spans="1:15">
-      <c r="A239" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F239" s="33" t="s">
-        <v>2585</v>
-      </c>
-      <c r="G239" s="27"/>
-      <c r="H239" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="I239" s="27"/>
-      <c r="J239" s="27"/>
-      <c r="K239" s="33"/>
-      <c r="L239" s="27"/>
-      <c r="M239" s="27"/>
-      <c r="N239" s="34"/>
-      <c r="O239" s="34"/>
-    </row>
-    <row r="240" spans="1:15">
-      <c r="A240" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F240" s="33" t="s">
-        <v>2586</v>
-      </c>
-      <c r="G240" s="27"/>
-      <c r="H240" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="I240" s="27"/>
-      <c r="J240" s="27"/>
-      <c r="K240" s="33"/>
-      <c r="L240" s="27" t="s">
-        <v>1966</v>
-      </c>
-      <c r="M240" s="27" t="s">
-        <v>2589</v>
-      </c>
-      <c r="N240" s="34"/>
-      <c r="O240" s="34"/>
-    </row>
-    <row r="241" spans="1:15">
-      <c r="F241" s="33"/>
-      <c r="G241" s="27"/>
-      <c r="H241" s="27"/>
-      <c r="I241" s="27"/>
-      <c r="J241" s="27"/>
-      <c r="K241" s="33"/>
-      <c r="L241" s="27"/>
-      <c r="M241" s="27"/>
-      <c r="N241" s="34"/>
-      <c r="O241" s="34"/>
-    </row>
-    <row r="242" spans="1:15">
-      <c r="A242" t="s">
-        <v>2588</v>
-      </c>
-      <c r="F242" s="33"/>
-      <c r="G242" s="27"/>
-      <c r="H242" s="27"/>
-      <c r="I242" s="27"/>
-      <c r="J242" s="27"/>
-      <c r="K242" s="33"/>
-      <c r="L242" s="27"/>
-      <c r="M242" s="27"/>
-      <c r="N242" s="34"/>
-      <c r="O242" s="34"/>
-    </row>
-    <row r="243" spans="1:15">
-      <c r="F243" s="33"/>
-      <c r="G243" s="27"/>
-      <c r="H243" s="27"/>
-      <c r="I243" s="27"/>
-      <c r="J243" s="27"/>
-      <c r="K243" s="33"/>
-      <c r="L243" s="27"/>
-      <c r="M243" s="27"/>
-      <c r="N243" s="34"/>
-      <c r="O243" s="34"/>
-    </row>
-    <row r="244" spans="1:15">
-      <c r="A244" t="s">
-        <v>2587</v>
-      </c>
-      <c r="F244" s="33"/>
-      <c r="G244" s="27"/>
-      <c r="H244" s="27"/>
-      <c r="I244" s="27"/>
-      <c r="J244" s="27"/>
-      <c r="K244" s="33"/>
-      <c r="L244" s="27"/>
-      <c r="M244" s="27"/>
-      <c r="N244" s="34"/>
-      <c r="O244" s="34"/>
-    </row>
-    <row r="245" spans="1:15">
-      <c r="F245" s="33"/>
-      <c r="G245" s="27"/>
-      <c r="H245" s="27"/>
-      <c r="I245" s="27"/>
-      <c r="J245" s="27"/>
-      <c r="K245" s="33"/>
-      <c r="L245" s="27"/>
-      <c r="M245" s="27"/>
-      <c r="N245" s="34"/>
-      <c r="O245" s="34"/>
-    </row>
-    <row r="246" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F246" s="33"/>
-      <c r="G246" s="27"/>
-      <c r="H246" s="27"/>
-      <c r="I246" s="27"/>
-      <c r="J246" s="27"/>
-      <c r="K246" s="35"/>
-      <c r="L246" s="36"/>
-      <c r="M246" s="36"/>
-      <c r="N246" s="37"/>
-      <c r="O246" s="34"/>
-    </row>
-    <row r="247" spans="1:15" ht="15.75" thickBot="1">
-      <c r="F247" s="35"/>
-      <c r="G247" s="36"/>
-      <c r="H247" s="36"/>
-      <c r="I247" s="36"/>
-      <c r="J247" s="36"/>
-      <c r="K247" s="36"/>
-      <c r="L247" s="36"/>
-      <c r="M247" s="36"/>
-      <c r="N247" s="36"/>
-      <c r="O247" s="37"/>
-    </row>
-    <row r="249" spans="1:15">
-      <c r="D249" t="s">
-        <v>2568</v>
-      </c>
-      <c r="G249" t="s">
-        <v>2569</v>
-      </c>
-      <c r="I249" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15">
-      <c r="F252" t="s">
-        <v>2590</v>
-      </c>
-      <c r="H252" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15">
-      <c r="G253" t="s">
-        <v>2592</v>
-      </c>
-      <c r="I253" t="s">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15">
-      <c r="C254" t="s">
-        <v>2720</v>
-      </c>
-      <c r="G254" t="s">
-        <v>2593</v>
-      </c>
-      <c r="I254" t="s">
-        <v>2595</v>
-      </c>
+      <c r="H254" s="27"/>
+      <c r="I254" s="27"/>
+      <c r="J254" s="27"/>
+      <c r="K254" s="33"/>
+      <c r="L254" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M254" s="46" t="s">
+        <v>2240</v>
+      </c>
+      <c r="N254" s="34"/>
+      <c r="O254" s="34"/>
     </row>
     <row r="255" spans="1:15" ht="15.75" thickBot="1">
-      <c r="C255" t="s">
-        <v>2721</v>
-      </c>
+      <c r="F255" s="33"/>
+      <c r="G255" s="27"/>
+      <c r="H255" s="27"/>
+      <c r="I255" s="27"/>
+      <c r="J255" s="27"/>
+      <c r="K255" s="33"/>
+      <c r="L255" s="27"/>
+      <c r="M255" s="27"/>
+      <c r="N255" s="34"/>
+      <c r="O255" s="34"/>
     </row>
     <row r="256" spans="1:15" ht="15.75" thickBot="1">
-      <c r="C256" t="s">
-        <v>2724</v>
-      </c>
-      <c r="F256" s="30"/>
-      <c r="G256" s="31"/>
-      <c r="H256" s="31"/>
-      <c r="I256" s="31"/>
-      <c r="J256" s="31"/>
-      <c r="K256" s="31"/>
-      <c r="L256" s="31"/>
-      <c r="M256" s="31"/>
-      <c r="N256" s="31"/>
-      <c r="O256" s="32"/>
-    </row>
-    <row r="257" spans="1:15">
-      <c r="A257" t="s">
-        <v>358</v>
-      </c>
-      <c r="F257" s="33"/>
-      <c r="G257" s="27"/>
+      <c r="F256" s="33" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G256" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="H256" s="27"/>
+      <c r="I256" s="27"/>
+      <c r="J256" s="27"/>
+      <c r="K256" s="33"/>
+      <c r="L256" s="38"/>
+      <c r="M256" s="46"/>
+      <c r="N256" s="34"/>
+      <c r="O256" s="34"/>
+    </row>
+    <row r="257" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F257" s="33" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G257" s="27" t="s">
+        <v>519</v>
+      </c>
       <c r="H257" s="27"/>
-      <c r="I257" s="27"/>
-      <c r="J257" s="30" t="s">
-        <v>1134</v>
-      </c>
-      <c r="K257" s="31"/>
-      <c r="L257" s="31" t="s">
+      <c r="I257" s="46"/>
+      <c r="J257" s="27"/>
+      <c r="K257" s="33"/>
+      <c r="L257" s="27"/>
+      <c r="M257" s="27"/>
+      <c r="N257" s="34"/>
+      <c r="O257" s="34"/>
+    </row>
+    <row r="258" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F258" s="33" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G258" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="M257" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="N257" s="32"/>
-      <c r="O257" s="34"/>
-    </row>
-    <row r="258" spans="1:15">
-      <c r="A258" t="s">
-        <v>2596</v>
-      </c>
-      <c r="C258" t="s">
-        <v>2599</v>
-      </c>
-      <c r="F258" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G258" s="27" t="s">
-        <v>2604</v>
       </c>
       <c r="H258" s="27"/>
       <c r="I258" s="27"/>
-      <c r="J258" s="33"/>
-      <c r="K258" s="27"/>
-      <c r="L258" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="M258" s="27" t="s">
-        <v>2723</v>
-      </c>
+      <c r="J258" s="27"/>
+      <c r="K258" s="33"/>
+      <c r="L258" s="27"/>
+      <c r="M258" s="27"/>
       <c r="N258" s="34"/>
       <c r="O258" s="34"/>
     </row>
-    <row r="259" spans="1:15">
-      <c r="A259" t="s">
-        <v>2597</v>
-      </c>
-      <c r="C259" t="s">
-        <v>2605</v>
-      </c>
-      <c r="F259" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="G259" s="27" t="s">
-        <v>1045</v>
+    <row r="259" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F259" s="50" t="s">
+        <v>2237</v>
+      </c>
+      <c r="G259" s="51" t="s">
+        <v>519</v>
       </c>
       <c r="H259" s="27"/>
-      <c r="I259" s="27"/>
-      <c r="J259" s="33"/>
-      <c r="K259" s="27"/>
-      <c r="L259" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="M259" s="27" t="s">
-        <v>414</v>
-      </c>
+      <c r="I259" s="46"/>
+      <c r="J259" s="27"/>
+      <c r="K259" s="33"/>
+      <c r="L259" s="27"/>
+      <c r="M259" s="27"/>
       <c r="N259" s="34"/>
       <c r="O259" s="34"/>
     </row>
-    <row r="260" spans="1:15">
-      <c r="A260" t="s">
-        <v>2598</v>
-      </c>
-      <c r="F260" s="33" t="s">
-        <v>2722</v>
-      </c>
-      <c r="G260" s="27" t="s">
-        <v>521</v>
-      </c>
+    <row r="260" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F260" s="33"/>
+      <c r="G260" s="27"/>
       <c r="H260" s="27"/>
       <c r="I260" s="27"/>
-      <c r="J260" s="33" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K260" s="38" t="s">
-        <v>2725</v>
-      </c>
-      <c r="L260" s="27" t="s">
-        <v>1980</v>
-      </c>
-      <c r="M260" s="27" t="s">
-        <v>2246</v>
-      </c>
-      <c r="N260" s="34"/>
+      <c r="J260" s="27"/>
+      <c r="K260" s="35"/>
+      <c r="L260" s="36"/>
+      <c r="M260" s="36"/>
+      <c r="N260" s="37"/>
       <c r="O260" s="34"/>
     </row>
-    <row r="261" spans="1:15">
-      <c r="C261" t="s">
-        <v>2018</v>
-      </c>
-      <c r="F261" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="G261" s="27" t="s">
-        <v>2052</v>
-      </c>
-      <c r="H261" s="27"/>
-      <c r="I261" s="27"/>
-      <c r="J261" s="33"/>
-      <c r="K261" s="27"/>
-      <c r="L261" s="27" t="s">
-        <v>2600</v>
-      </c>
-      <c r="M261" t="s">
-        <v>2247</v>
-      </c>
-      <c r="N261" s="34"/>
-      <c r="O261" s="34"/>
-    </row>
-    <row r="262" spans="1:15">
-      <c r="A262" t="s">
-        <v>2621</v>
-      </c>
-      <c r="F262" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="G262" s="27" t="s">
-        <v>2610</v>
-      </c>
-      <c r="H262" s="27"/>
-      <c r="I262" s="27"/>
-      <c r="J262" s="33"/>
-      <c r="K262" s="27"/>
-      <c r="L262" s="38" t="s">
-        <v>2601</v>
-      </c>
-      <c r="M262" s="27" t="s">
-        <v>2248</v>
-      </c>
-      <c r="N262" s="34"/>
-      <c r="O262" s="34"/>
-    </row>
-    <row r="263" spans="1:15">
-      <c r="A263" t="s">
-        <v>2617</v>
-      </c>
-      <c r="F263" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="G263" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="H263" s="27"/>
-      <c r="I263" s="27"/>
-      <c r="J263" s="33"/>
-      <c r="K263" s="27"/>
-      <c r="L263" s="38" t="s">
-        <v>2602</v>
-      </c>
-      <c r="M263" s="38" t="s">
-        <v>1155</v>
-      </c>
-      <c r="N263" s="34"/>
-      <c r="O263" s="34"/>
-    </row>
-    <row r="264" spans="1:15">
+    <row r="261" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F261" s="35"/>
+      <c r="G261" s="36"/>
+      <c r="H261" s="36"/>
+      <c r="I261" s="36"/>
+      <c r="J261" s="36"/>
+      <c r="K261" s="36"/>
+      <c r="L261" s="36"/>
+      <c r="M261" s="36"/>
+      <c r="N261" s="36"/>
+      <c r="O261" s="37"/>
+    </row>
+    <row r="263" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="264" spans="1:15" ht="15.75" thickBot="1">
       <c r="A264" t="s">
-        <v>2618</v>
-      </c>
-      <c r="F264" s="33" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G264" s="38" t="s">
-        <v>2612</v>
-      </c>
-      <c r="H264" s="27"/>
-      <c r="I264" s="27"/>
-      <c r="J264" s="33"/>
-      <c r="K264" s="27"/>
-      <c r="L264" s="38" t="s">
-        <v>2603</v>
-      </c>
-      <c r="M264" s="38" t="s">
-        <v>2249</v>
-      </c>
-      <c r="N264" s="34"/>
-      <c r="O264" s="34"/>
+        <v>508</v>
+      </c>
+      <c r="F264" s="30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G264" s="31"/>
+      <c r="H264" s="31"/>
+      <c r="I264" s="31"/>
+      <c r="J264" s="31"/>
+      <c r="K264" s="31"/>
+      <c r="L264" s="31"/>
+      <c r="M264" s="31"/>
+      <c r="N264" s="31"/>
+      <c r="O264" s="32"/>
     </row>
     <row r="265" spans="1:15">
       <c r="A265" t="s">
-        <v>2619</v>
-      </c>
-      <c r="F265" s="33" t="s">
-        <v>2224</v>
-      </c>
-      <c r="G265" s="38" t="s">
-        <v>2052</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="F265" s="33"/>
+      <c r="G265" s="27"/>
       <c r="H265" s="27"/>
       <c r="I265" s="27"/>
-      <c r="J265" s="33"/>
-      <c r="K265" s="27"/>
-      <c r="L265" s="38" t="s">
-        <v>2604</v>
-      </c>
-      <c r="M265" t="s">
-        <v>2250</v>
-      </c>
-      <c r="N265" s="34"/>
+      <c r="J265" s="27"/>
+      <c r="K265" s="30" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L265" s="31"/>
+      <c r="M265" s="31" t="s">
+        <v>2223</v>
+      </c>
+      <c r="N265" s="32"/>
       <c r="O265" s="34"/>
     </row>
     <row r="266" spans="1:15">
-      <c r="F266" s="33" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G266" s="38" t="s">
-        <v>2603</v>
+      <c r="A266" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F266" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G266" s="51">
+        <v>40</v>
       </c>
       <c r="H266" s="27"/>
       <c r="I266" s="27"/>
-      <c r="J266" s="33"/>
-      <c r="K266" s="27"/>
-      <c r="L266" s="38" t="s">
-        <v>2603</v>
-      </c>
-      <c r="M266" s="27" t="s">
-        <v>561</v>
-      </c>
+      <c r="J266" s="27"/>
+      <c r="K266" s="33"/>
+      <c r="L266" s="27"/>
+      <c r="M266" s="27"/>
       <c r="N266" s="34"/>
       <c r="O266" s="34"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="F267" s="33" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G267" s="38" t="s">
-        <v>2616</v>
-      </c>
+      <c r="A267" t="s">
+        <v>2242</v>
+      </c>
+      <c r="F267" s="50"/>
+      <c r="G267" s="51"/>
       <c r="H267" s="27"/>
       <c r="I267" s="27"/>
-      <c r="J267" s="33"/>
-      <c r="K267" s="27"/>
-      <c r="L267" s="38" t="s">
-        <v>2052</v>
-      </c>
-      <c r="M267" s="38" t="s">
-        <v>2609</v>
-      </c>
-      <c r="N267" s="34"/>
+      <c r="J267" s="27"/>
+      <c r="K267" s="33"/>
+      <c r="L267" s="109" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M267" s="109"/>
+      <c r="N267" s="110"/>
       <c r="O267" s="34"/>
     </row>
     <row r="268" spans="1:15">
-      <c r="F268" s="33"/>
-      <c r="G268" s="27" t="s">
-        <v>2612</v>
-      </c>
-      <c r="H268" s="27" t="s">
-        <v>2609</v>
-      </c>
+      <c r="F268" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G268" s="51" t="s">
+        <v>2251</v>
+      </c>
+      <c r="H268" s="27"/>
       <c r="I268" s="27"/>
-      <c r="J268" s="33"/>
-      <c r="K268" s="27"/>
-      <c r="L268" s="27"/>
-      <c r="M268" s="27"/>
+      <c r="J268" s="27"/>
+      <c r="K268" s="33"/>
+      <c r="L268" s="27" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M268" s="43" t="s">
+        <v>414</v>
+      </c>
       <c r="N268" s="34"/>
       <c r="O268" s="34"/>
     </row>
-    <row r="269" spans="1:15" ht="15.75" thickBot="1">
+    <row r="269" spans="1:15">
       <c r="A269" t="s">
-        <v>2606</v>
-      </c>
-      <c r="F269" s="33"/>
-      <c r="G269" s="27" t="s">
-        <v>2610</v>
-      </c>
-      <c r="H269" s="27" t="s">
-        <v>414</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="F269" s="50"/>
+      <c r="G269" s="74"/>
+      <c r="H269" s="27"/>
       <c r="I269" s="27"/>
-      <c r="J269" s="35"/>
-      <c r="K269" s="36"/>
-      <c r="L269" s="36" t="s">
-        <v>2616</v>
-      </c>
-      <c r="M269" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="N269" s="37"/>
+      <c r="J269" s="27"/>
+      <c r="K269" s="33"/>
+      <c r="L269" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="M269" s="43" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N269" s="34"/>
       <c r="O269" s="34"/>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" t="s">
-        <v>2607</v>
-      </c>
-      <c r="F270" s="33"/>
-      <c r="G270" s="27"/>
+        <v>2243</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F270" s="33" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G270" s="38" t="s">
+        <v>2257</v>
+      </c>
       <c r="H270" s="27"/>
       <c r="I270" s="27"/>
       <c r="J270" s="27"/>
-      <c r="K270" s="27"/>
-      <c r="L270" s="27"/>
-      <c r="M270" s="27"/>
-      <c r="N270" s="27"/>
+      <c r="K270" s="33"/>
+      <c r="L270" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M270" s="43" t="s">
+        <v>2246</v>
+      </c>
+      <c r="N270" s="34"/>
       <c r="O270" s="34"/>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" t="s">
-        <v>2608</v>
-      </c>
-      <c r="F271" s="33" t="s">
-        <v>2620</v>
-      </c>
-      <c r="G271" s="38" t="s">
-        <v>2601</v>
-      </c>
+        <v>2244</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F271" s="33"/>
+      <c r="G271" s="27"/>
       <c r="H271" s="27"/>
-      <c r="I271" s="27" t="s">
-        <v>2601</v>
-      </c>
-      <c r="J271" s="38" t="s">
-        <v>2250</v>
-      </c>
-      <c r="K271" s="27"/>
-      <c r="L271" s="27"/>
-      <c r="M271" s="27"/>
-      <c r="N271" s="27"/>
+      <c r="I271" s="27"/>
+      <c r="J271" s="27"/>
+      <c r="K271" s="33"/>
+      <c r="L271" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="M271" s="43" t="s">
+        <v>2249</v>
+      </c>
+      <c r="N271" s="34"/>
       <c r="O271" s="34"/>
     </row>
     <row r="272" spans="1:15" ht="15.75" thickBot="1">
       <c r="A272" t="s">
-        <v>2611</v>
-      </c>
-      <c r="F272" s="35"/>
-      <c r="G272" s="36"/>
-      <c r="H272" s="36"/>
-      <c r="I272" s="36"/>
-      <c r="J272" s="36"/>
-      <c r="K272" s="36"/>
-      <c r="L272" s="36"/>
-      <c r="M272" s="36"/>
-      <c r="N272" s="36"/>
-      <c r="O272" s="37"/>
-    </row>
-    <row r="273" spans="1:13">
-      <c r="A273" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13">
-      <c r="B275" t="s">
-        <v>2614</v>
-      </c>
-      <c r="C275" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13">
-      <c r="B276" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C276" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" ht="15.75" thickBot="1">
+        <v>2245</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F272" s="33"/>
+      <c r="G272" s="27"/>
+      <c r="H272" s="27"/>
+      <c r="I272" s="27"/>
+      <c r="J272" s="27"/>
+      <c r="K272" s="33"/>
+      <c r="L272" s="38" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M272" s="43" t="s">
+        <v>2247</v>
+      </c>
+      <c r="N272" s="34"/>
+      <c r="O272" s="34"/>
+    </row>
+    <row r="273" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F273" s="33"/>
+      <c r="G273" s="27"/>
+      <c r="H273" s="27" t="s">
+        <v>2257</v>
+      </c>
+      <c r="I273" s="46" t="s">
+        <v>2250</v>
+      </c>
+      <c r="J273" s="27"/>
+      <c r="K273" s="33"/>
+      <c r="L273" s="38" t="s">
+        <v>2251</v>
+      </c>
+      <c r="M273" s="43" t="s">
+        <v>2250</v>
+      </c>
+      <c r="N273" s="34"/>
+      <c r="O273" s="34"/>
+    </row>
+    <row r="274" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A274" t="s">
+        <v>2258</v>
+      </c>
+      <c r="F274" s="33"/>
+      <c r="G274" s="27"/>
+      <c r="H274" s="27"/>
+      <c r="I274" s="27"/>
+      <c r="J274" s="27"/>
+      <c r="K274" s="33"/>
+      <c r="L274" s="27" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M274" s="43" t="s">
+        <v>2248</v>
+      </c>
+      <c r="N274" s="34"/>
+      <c r="O274" s="34"/>
+    </row>
+    <row r="275" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A275" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F275" s="50"/>
+      <c r="G275" s="51"/>
+      <c r="H275" s="27"/>
+      <c r="I275" s="46"/>
+      <c r="J275" s="27"/>
+      <c r="K275" s="33"/>
+      <c r="L275" s="27"/>
+      <c r="M275" s="43"/>
+      <c r="N275" s="34"/>
+      <c r="O275" s="34"/>
+    </row>
+    <row r="276" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A276" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F276" s="33"/>
+      <c r="G276" s="27"/>
+      <c r="H276" s="27"/>
+      <c r="I276" s="27"/>
+      <c r="J276" s="27"/>
+      <c r="K276" s="35"/>
+      <c r="L276" s="36"/>
+      <c r="M276" s="36"/>
+      <c r="N276" s="37"/>
+      <c r="O276" s="34"/>
+    </row>
+    <row r="277" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A277" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F277" s="35"/>
+      <c r="G277" s="36"/>
+      <c r="H277" s="36"/>
+      <c r="I277" s="36"/>
+      <c r="J277" s="36"/>
+      <c r="K277" s="36"/>
+      <c r="L277" s="36"/>
+      <c r="M277" s="36"/>
+      <c r="N277" s="36"/>
+      <c r="O277" s="37"/>
+    </row>
+    <row r="278" spans="1:15">
+      <c r="A278" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="280" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F280" s="30"/>
+      <c r="G280" s="31"/>
+      <c r="H280" s="31"/>
+      <c r="I280" s="31"/>
+      <c r="J280" s="31"/>
+      <c r="K280" s="31"/>
+      <c r="L280" s="31"/>
+      <c r="M280" s="31"/>
+      <c r="N280" s="31"/>
+      <c r="O280" s="32"/>
+    </row>
+    <row r="281" spans="1:15">
+      <c r="A281" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F281" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G281" s="27" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H281" s="27"/>
+      <c r="I281" s="27"/>
+      <c r="J281" s="27"/>
+      <c r="K281" s="30" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L281" s="31"/>
+      <c r="M281" s="31" t="s">
+        <v>2565</v>
+      </c>
+      <c r="N281" s="32"/>
+      <c r="O281" s="34"/>
+    </row>
+    <row r="282" spans="1:15">
+      <c r="A282" t="s">
+        <v>275</v>
+      </c>
+      <c r="F282" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="G282" s="27" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H282" s="27"/>
+      <c r="I282" s="27"/>
+      <c r="J282" s="27"/>
+      <c r="K282" s="33"/>
+      <c r="L282" s="27"/>
+      <c r="M282" s="27"/>
+      <c r="N282" s="34"/>
+      <c r="O282" s="34"/>
+    </row>
+    <row r="283" spans="1:15">
       <c r="A283" t="s">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13">
-      <c r="B284" t="s">
-        <v>2727</v>
-      </c>
-      <c r="F284" s="30"/>
-      <c r="G284" s="31"/>
-      <c r="H284" s="31"/>
-      <c r="I284" s="31"/>
-      <c r="J284" s="31"/>
-      <c r="K284" s="31"/>
-      <c r="L284" s="31"/>
-      <c r="M284" s="32"/>
-    </row>
-    <row r="285" spans="1:13">
-      <c r="C285" t="s">
-        <v>1508</v>
+        <v>1135</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F283" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="G283" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="H283" s="27"/>
+      <c r="I283" s="27"/>
+      <c r="J283" s="27"/>
+      <c r="K283" s="33"/>
+      <c r="L283" s="27" t="s">
+        <v>2570</v>
+      </c>
+      <c r="M283" s="27"/>
+      <c r="N283" s="34"/>
+      <c r="O283" s="34"/>
+    </row>
+    <row r="284" spans="1:15">
+      <c r="A284" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F284" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="G284" s="27" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H284" s="27"/>
+      <c r="I284" s="27"/>
+      <c r="J284" s="27"/>
+      <c r="K284" s="33"/>
+      <c r="L284" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="M284" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="N284" s="34"/>
+      <c r="O284" s="34"/>
+    </row>
+    <row r="285" spans="1:15">
+      <c r="A285" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="F285" s="33" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G285" s="27" t="s">
-        <v>519</v>
+        <v>404</v>
+      </c>
+      <c r="G285" s="51">
+        <v>10</v>
       </c>
       <c r="H285" s="27"/>
-      <c r="I285" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="J285" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K285" s="38" t="s">
-        <v>414</v>
-      </c>
+      <c r="I285" s="27"/>
+      <c r="J285" s="27"/>
+      <c r="K285" s="33"/>
       <c r="L285" s="27"/>
-      <c r="M285" s="34"/>
-    </row>
-    <row r="286" spans="1:13">
-      <c r="B286" t="s">
-        <v>2728</v>
+      <c r="M285" s="27"/>
+      <c r="N285" s="34"/>
+      <c r="O285" s="34"/>
+    </row>
+    <row r="286" spans="1:15">
+      <c r="A286" t="s">
+        <v>1175</v>
       </c>
       <c r="F286" s="33" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G286" s="27" t="s">
-        <v>1156</v>
+        <v>405</v>
+      </c>
+      <c r="G286" s="51">
+        <v>10</v>
       </c>
       <c r="H286" s="27"/>
       <c r="I286" s="27"/>
       <c r="J286" s="27"/>
-      <c r="K286" s="27"/>
+      <c r="K286" s="33"/>
       <c r="L286" s="27"/>
-      <c r="M286" s="34"/>
-    </row>
-    <row r="287" spans="1:13">
-      <c r="C287" t="s">
-        <v>2734</v>
-      </c>
-      <c r="F287" s="33" t="s">
-        <v>2458</v>
-      </c>
-      <c r="G287" s="27" t="s">
-        <v>1045</v>
-      </c>
+      <c r="M286" s="27"/>
+      <c r="N286" s="34"/>
+      <c r="O286" s="34"/>
+    </row>
+    <row r="287" spans="1:15">
+      <c r="F287" s="33"/>
+      <c r="G287" s="27"/>
       <c r="H287" s="27"/>
-      <c r="I287" s="27" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J287" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K287" s="38" t="s">
+      <c r="I287" s="27"/>
+      <c r="J287" s="27"/>
+      <c r="K287" s="33"/>
+      <c r="L287" s="27" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M287" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="L287" s="27"/>
-      <c r="M287" s="34"/>
-    </row>
-    <row r="288" spans="1:13">
+      <c r="N287" s="34"/>
+      <c r="O287" s="34"/>
+    </row>
+    <row r="288" spans="1:15">
       <c r="F288" s="33"/>
       <c r="G288" s="27"/>
       <c r="H288" s="27"/>
       <c r="I288" s="27"/>
       <c r="J288" s="27"/>
-      <c r="K288" s="27"/>
+      <c r="K288" s="33"/>
       <c r="L288" s="27"/>
-      <c r="M288" s="34"/>
-    </row>
-    <row r="289" spans="1:13">
+      <c r="M288" s="27"/>
+      <c r="N288" s="34"/>
+      <c r="O288" s="34"/>
+    </row>
+    <row r="289" spans="1:15">
       <c r="F289" s="33"/>
       <c r="G289" s="27"/>
       <c r="H289" s="27"/>
-      <c r="I289" s="27" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J289" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K289" s="38" t="s">
-        <v>414</v>
-      </c>
+      <c r="I289" s="27"/>
+      <c r="J289" s="27"/>
+      <c r="K289" s="33"/>
       <c r="L289" s="27"/>
-      <c r="M289" s="34"/>
-    </row>
-    <row r="290" spans="1:13">
+      <c r="M289" s="27"/>
+      <c r="N289" s="34"/>
+      <c r="O289" s="34"/>
+    </row>
+    <row r="290" spans="1:15">
       <c r="A290" t="s">
-        <v>2729</v>
+        <v>2567</v>
+      </c>
+      <c r="D290" t="b">
+        <v>1</v>
       </c>
       <c r="F290" s="33"/>
       <c r="G290" s="27"/>
       <c r="H290" s="27"/>
       <c r="I290" s="27"/>
       <c r="J290" s="27"/>
-      <c r="K290" s="27"/>
+      <c r="K290" s="33"/>
       <c r="L290" s="27"/>
-      <c r="M290" s="34"/>
-    </row>
-    <row r="291" spans="1:13" ht="15.75" thickBot="1">
+      <c r="M290" s="27"/>
+      <c r="N290" s="34"/>
+      <c r="O290" s="34"/>
+    </row>
+    <row r="291" spans="1:15">
       <c r="A291" t="s">
-        <v>2731</v>
+        <v>2563</v>
+      </c>
+      <c r="D291" t="b">
+        <v>1</v>
       </c>
       <c r="F291" s="33"/>
       <c r="G291" s="27"/>
       <c r="H291" s="27" t="s">
-        <v>2732</v>
-      </c>
-      <c r="I291" s="27"/>
+        <v>2023</v>
+      </c>
+      <c r="I291" s="27" t="s">
+        <v>414</v>
+      </c>
       <c r="J291" s="27"/>
-      <c r="K291" s="27"/>
+      <c r="K291" s="33"/>
       <c r="L291" s="27"/>
-      <c r="M291" s="34"/>
-    </row>
-    <row r="292" spans="1:13">
+      <c r="M291" s="27"/>
+      <c r="N291" s="34"/>
+      <c r="O291" s="34"/>
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" t="s">
-        <v>2730</v>
+        <v>2564</v>
+      </c>
+      <c r="D292" t="b">
+        <v>0</v>
       </c>
       <c r="F292" s="33"/>
       <c r="G292" s="27"/>
-      <c r="H292" s="27">
-        <v>1</v>
-      </c>
-      <c r="I292" s="30" t="s">
-        <v>2733</v>
-      </c>
-      <c r="J292" s="31"/>
-      <c r="K292" s="31" t="s">
-        <v>2737</v>
-      </c>
-      <c r="L292" s="32" t="s">
-        <v>2739</v>
-      </c>
-      <c r="M292" s="34"/>
-    </row>
-    <row r="293" spans="1:13">
+      <c r="H292" s="27"/>
+      <c r="I292" s="27"/>
+      <c r="J292" s="27"/>
+      <c r="K292" s="33"/>
+      <c r="L292" s="27"/>
+      <c r="M292" s="27"/>
+      <c r="N292" s="34"/>
+      <c r="O292" s="34"/>
+    </row>
+    <row r="293" spans="1:15">
       <c r="F293" s="33"/>
       <c r="G293" s="27"/>
       <c r="H293" s="27"/>
-      <c r="I293" s="33"/>
+      <c r="I293" s="27"/>
       <c r="J293" s="27"/>
-      <c r="K293" s="27"/>
-      <c r="L293" s="34"/>
-      <c r="M293" s="34"/>
-    </row>
-    <row r="294" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A294" t="s">
-        <v>2735</v>
-      </c>
+      <c r="K293" s="33"/>
+      <c r="L293" s="27"/>
+      <c r="M293" s="27"/>
+      <c r="N293" s="34"/>
+      <c r="O293" s="34"/>
+    </row>
+    <row r="294" spans="1:15" ht="15.75" thickBot="1">
       <c r="F294" s="33"/>
       <c r="G294" s="27"/>
       <c r="H294" s="27"/>
-      <c r="I294" s="35"/>
-      <c r="J294" s="36"/>
-      <c r="K294" s="36"/>
-      <c r="L294" s="37"/>
-      <c r="M294" s="34"/>
-    </row>
-    <row r="295" spans="1:13">
-      <c r="A295" t="s">
+      <c r="I294" s="27"/>
+      <c r="J294" s="27"/>
+      <c r="K294" s="35"/>
+      <c r="L294" s="36"/>
+      <c r="M294" s="36"/>
+      <c r="N294" s="37"/>
+      <c r="O294" s="34"/>
+    </row>
+    <row r="295" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F295" s="35"/>
+      <c r="G295" s="36"/>
+      <c r="H295" s="36"/>
+      <c r="I295" s="36"/>
+      <c r="J295" s="36"/>
+      <c r="K295" s="36"/>
+      <c r="L295" s="36"/>
+      <c r="M295" s="36"/>
+      <c r="N295" s="36"/>
+      <c r="O295" s="37"/>
+    </row>
+    <row r="297" spans="1:15">
+      <c r="D297" t="s">
+        <v>2568</v>
+      </c>
+      <c r="G297" t="s">
+        <v>2569</v>
+      </c>
+      <c r="I297" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
+      <c r="I298" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="301" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F301" s="30"/>
+      <c r="G301" s="31"/>
+      <c r="H301" s="31"/>
+      <c r="I301" s="31"/>
+      <c r="J301" s="31"/>
+      <c r="K301" s="31"/>
+      <c r="L301" s="31"/>
+      <c r="M301" s="31"/>
+      <c r="N301" s="31"/>
+      <c r="O301" s="32"/>
+    </row>
+    <row r="302" spans="1:15">
+      <c r="F302" s="33"/>
+      <c r="G302" s="27"/>
+      <c r="H302" s="27"/>
+      <c r="I302" s="27"/>
+      <c r="J302" s="27"/>
+      <c r="K302" s="30" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L302" s="31"/>
+      <c r="M302" s="31"/>
+      <c r="N302" s="32"/>
+      <c r="O302" s="34"/>
+    </row>
+    <row r="303" spans="1:15">
+      <c r="A303" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F303" s="33" t="s">
+        <v>2580</v>
+      </c>
+      <c r="G303" s="27"/>
+      <c r="H303" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I303" s="27"/>
+      <c r="J303" s="27"/>
+      <c r="K303" s="33"/>
+      <c r="L303" s="27"/>
+      <c r="M303" s="27"/>
+      <c r="N303" s="34"/>
+      <c r="O303" s="34"/>
+    </row>
+    <row r="304" spans="1:15">
+      <c r="A304" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D304" s="10"/>
+      <c r="F304" s="33" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G304" s="27"/>
+      <c r="H304" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I304" s="27"/>
+      <c r="J304" s="27"/>
+      <c r="K304" s="33"/>
+      <c r="L304" s="27"/>
+      <c r="M304" s="27"/>
+      <c r="N304" s="34"/>
+      <c r="O304" s="34"/>
+    </row>
+    <row r="305" spans="1:15">
+      <c r="A305" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D305" s="10"/>
+      <c r="F305" s="33" t="s">
+        <v>2582</v>
+      </c>
+      <c r="G305" s="27"/>
+      <c r="H305" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I305" s="27"/>
+      <c r="J305" s="27"/>
+      <c r="K305" s="33"/>
+      <c r="L305" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="M305" s="27" t="s">
+        <v>2010</v>
+      </c>
+      <c r="N305" s="34"/>
+      <c r="O305" s="34"/>
+    </row>
+    <row r="306" spans="1:15">
+      <c r="A306" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D306" s="10"/>
+      <c r="F306" s="33" t="s">
+        <v>2583</v>
+      </c>
+      <c r="G306" s="51"/>
+      <c r="H306" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I306" s="27"/>
+      <c r="J306" s="27"/>
+      <c r="K306" s="33"/>
+      <c r="L306" s="27"/>
+      <c r="M306" s="27"/>
+      <c r="N306" s="34"/>
+      <c r="O306" s="34"/>
+    </row>
+    <row r="307" spans="1:15">
+      <c r="A307" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F307" s="33" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G307" s="51"/>
+      <c r="H307" s="27" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I307" s="27"/>
+      <c r="J307" s="27"/>
+      <c r="K307" s="33"/>
+      <c r="L307" s="27"/>
+      <c r="M307" s="27"/>
+      <c r="N307" s="34"/>
+      <c r="O307" s="34"/>
+    </row>
+    <row r="308" spans="1:15">
+      <c r="A308" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F308" s="33" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G308" s="27"/>
+      <c r="H308" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I308" s="27"/>
+      <c r="J308" s="27"/>
+      <c r="K308" s="33"/>
+      <c r="L308" s="27"/>
+      <c r="M308" s="27"/>
+      <c r="N308" s="34"/>
+      <c r="O308" s="34"/>
+    </row>
+    <row r="309" spans="1:15">
+      <c r="A309" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F309" s="33" t="s">
+        <v>2586</v>
+      </c>
+      <c r="G309" s="27"/>
+      <c r="H309" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I309" s="27"/>
+      <c r="J309" s="27"/>
+      <c r="K309" s="33"/>
+      <c r="L309" s="27" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M309" s="27" t="s">
+        <v>2589</v>
+      </c>
+      <c r="N309" s="34"/>
+      <c r="O309" s="34"/>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="F310" s="33"/>
+      <c r="G310" s="27"/>
+      <c r="H310" s="27"/>
+      <c r="I310" s="27"/>
+      <c r="J310" s="27"/>
+      <c r="K310" s="33"/>
+      <c r="L310" s="27"/>
+      <c r="M310" s="27"/>
+      <c r="N310" s="34"/>
+      <c r="O310" s="34"/>
+    </row>
+    <row r="311" spans="1:15">
+      <c r="A311" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F311" s="33"/>
+      <c r="G311" s="27"/>
+      <c r="H311" s="27"/>
+      <c r="I311" s="27"/>
+      <c r="J311" s="27"/>
+      <c r="K311" s="33"/>
+      <c r="L311" s="27"/>
+      <c r="M311" s="27"/>
+      <c r="N311" s="34"/>
+      <c r="O311" s="34"/>
+    </row>
+    <row r="312" spans="1:15">
+      <c r="F312" s="33"/>
+      <c r="G312" s="27"/>
+      <c r="H312" s="27"/>
+      <c r="I312" s="27"/>
+      <c r="J312" s="27"/>
+      <c r="K312" s="33"/>
+      <c r="L312" s="27"/>
+      <c r="M312" s="27"/>
+      <c r="N312" s="34"/>
+      <c r="O312" s="34"/>
+    </row>
+    <row r="313" spans="1:15">
+      <c r="A313" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F313" s="33"/>
+      <c r="G313" s="27"/>
+      <c r="H313" s="27"/>
+      <c r="I313" s="27"/>
+      <c r="J313" s="27"/>
+      <c r="K313" s="33"/>
+      <c r="L313" s="27"/>
+      <c r="M313" s="27"/>
+      <c r="N313" s="34"/>
+      <c r="O313" s="34"/>
+    </row>
+    <row r="314" spans="1:15">
+      <c r="F314" s="33"/>
+      <c r="G314" s="27"/>
+      <c r="H314" s="27"/>
+      <c r="I314" s="27"/>
+      <c r="J314" s="27"/>
+      <c r="K314" s="33"/>
+      <c r="L314" s="27"/>
+      <c r="M314" s="27"/>
+      <c r="N314" s="34"/>
+      <c r="O314" s="34"/>
+    </row>
+    <row r="315" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F315" s="33"/>
+      <c r="G315" s="27"/>
+      <c r="H315" s="27"/>
+      <c r="I315" s="27"/>
+      <c r="J315" s="27"/>
+      <c r="K315" s="35"/>
+      <c r="L315" s="36"/>
+      <c r="M315" s="36"/>
+      <c r="N315" s="37"/>
+      <c r="O315" s="34"/>
+    </row>
+    <row r="316" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F316" s="35"/>
+      <c r="G316" s="36"/>
+      <c r="H316" s="36"/>
+      <c r="I316" s="36"/>
+      <c r="J316" s="36"/>
+      <c r="K316" s="36"/>
+      <c r="L316" s="36"/>
+      <c r="M316" s="36"/>
+      <c r="N316" s="36"/>
+      <c r="O316" s="37"/>
+    </row>
+    <row r="318" spans="1:15">
+      <c r="D318" t="s">
+        <v>2568</v>
+      </c>
+      <c r="G318" t="s">
+        <v>2569</v>
+      </c>
+      <c r="I318" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15">
+      <c r="F321" t="s">
+        <v>2590</v>
+      </c>
+      <c r="H321" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15">
+      <c r="G322" t="s">
+        <v>2592</v>
+      </c>
+      <c r="I322" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15">
+      <c r="C323" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G323" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I323" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C324" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C325" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F325" s="30"/>
+      <c r="G325" s="31"/>
+      <c r="H325" s="31"/>
+      <c r="I325" s="31"/>
+      <c r="J325" s="31"/>
+      <c r="K325" s="31"/>
+      <c r="L325" s="31"/>
+      <c r="M325" s="31"/>
+      <c r="N325" s="31"/>
+      <c r="O325" s="32"/>
+    </row>
+    <row r="326" spans="1:15">
+      <c r="A326" t="s">
+        <v>358</v>
+      </c>
+      <c r="F326" s="33"/>
+      <c r="G326" s="27"/>
+      <c r="H326" s="27"/>
+      <c r="I326" s="27"/>
+      <c r="J326" s="30" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K326" s="31"/>
+      <c r="L326" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="M326" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N326" s="32"/>
+      <c r="O326" s="34"/>
+    </row>
+    <row r="327" spans="1:15">
+      <c r="A327" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F327" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G327" s="27" t="s">
+        <v>2604</v>
+      </c>
+      <c r="H327" s="27"/>
+      <c r="I327" s="27"/>
+      <c r="J327" s="33"/>
+      <c r="K327" s="27"/>
+      <c r="L327" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="M327" s="27" t="s">
+        <v>2723</v>
+      </c>
+      <c r="N327" s="34"/>
+      <c r="O327" s="34"/>
+    </row>
+    <row r="328" spans="1:15">
+      <c r="A328" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F328" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="G328" s="27" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H328" s="27"/>
+      <c r="I328" s="27"/>
+      <c r="J328" s="33"/>
+      <c r="K328" s="27"/>
+      <c r="L328" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="M328" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="N328" s="34"/>
+      <c r="O328" s="34"/>
+    </row>
+    <row r="329" spans="1:15">
+      <c r="A329" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F329" s="33" t="s">
+        <v>2722</v>
+      </c>
+      <c r="G329" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="H329" s="27"/>
+      <c r="I329" s="27"/>
+      <c r="J329" s="33" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K329" s="38" t="s">
+        <v>2725</v>
+      </c>
+      <c r="L329" s="27" t="s">
+        <v>1980</v>
+      </c>
+      <c r="M329" s="27" t="s">
+        <v>2246</v>
+      </c>
+      <c r="N329" s="34"/>
+      <c r="O329" s="34"/>
+    </row>
+    <row r="330" spans="1:15">
+      <c r="C330" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F330" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="G330" s="27" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H330" s="27"/>
+      <c r="I330" s="27"/>
+      <c r="J330" s="33"/>
+      <c r="K330" s="27"/>
+      <c r="L330" s="27" t="s">
+        <v>2600</v>
+      </c>
+      <c r="M330" t="s">
+        <v>2247</v>
+      </c>
+      <c r="N330" s="34"/>
+      <c r="O330" s="34"/>
+    </row>
+    <row r="331" spans="1:15">
+      <c r="A331" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F331" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="G331" s="27" t="s">
+        <v>2610</v>
+      </c>
+      <c r="H331" s="27"/>
+      <c r="I331" s="27"/>
+      <c r="J331" s="33"/>
+      <c r="K331" s="27"/>
+      <c r="L331" s="38" t="s">
+        <v>2601</v>
+      </c>
+      <c r="M331" s="27" t="s">
+        <v>2248</v>
+      </c>
+      <c r="N331" s="34"/>
+      <c r="O331" s="34"/>
+    </row>
+    <row r="332" spans="1:15">
+      <c r="A332" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F332" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="G332" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="H332" s="27"/>
+      <c r="I332" s="27"/>
+      <c r="J332" s="33"/>
+      <c r="K332" s="27"/>
+      <c r="L332" s="38" t="s">
+        <v>2602</v>
+      </c>
+      <c r="M332" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N332" s="34"/>
+      <c r="O332" s="34"/>
+    </row>
+    <row r="333" spans="1:15">
+      <c r="A333" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F333" s="33" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G333" s="38" t="s">
+        <v>2612</v>
+      </c>
+      <c r="H333" s="27"/>
+      <c r="I333" s="27"/>
+      <c r="J333" s="33"/>
+      <c r="K333" s="27"/>
+      <c r="L333" s="38" t="s">
+        <v>2603</v>
+      </c>
+      <c r="M333" s="38" t="s">
+        <v>2249</v>
+      </c>
+      <c r="N333" s="34"/>
+      <c r="O333" s="34"/>
+    </row>
+    <row r="334" spans="1:15">
+      <c r="A334" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F334" s="33" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G334" s="38" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H334" s="27"/>
+      <c r="I334" s="27"/>
+      <c r="J334" s="33"/>
+      <c r="K334" s="27"/>
+      <c r="L334" s="38" t="s">
+        <v>2604</v>
+      </c>
+      <c r="M334" t="s">
+        <v>2250</v>
+      </c>
+      <c r="N334" s="34"/>
+      <c r="O334" s="34"/>
+    </row>
+    <row r="335" spans="1:15">
+      <c r="F335" s="33" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G335" s="38" t="s">
+        <v>2603</v>
+      </c>
+      <c r="H335" s="27"/>
+      <c r="I335" s="27"/>
+      <c r="J335" s="33"/>
+      <c r="K335" s="27"/>
+      <c r="L335" s="38" t="s">
+        <v>2603</v>
+      </c>
+      <c r="M335" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="N335" s="34"/>
+      <c r="O335" s="34"/>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="F336" s="33" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G336" s="38" t="s">
+        <v>2616</v>
+      </c>
+      <c r="H336" s="27"/>
+      <c r="I336" s="27"/>
+      <c r="J336" s="33"/>
+      <c r="K336" s="27"/>
+      <c r="L336" s="38" t="s">
+        <v>2052</v>
+      </c>
+      <c r="M336" s="38" t="s">
+        <v>2609</v>
+      </c>
+      <c r="N336" s="34"/>
+      <c r="O336" s="34"/>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="F337" s="33"/>
+      <c r="G337" s="27" t="s">
+        <v>2612</v>
+      </c>
+      <c r="H337" s="27" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I337" s="27"/>
+      <c r="J337" s="33"/>
+      <c r="K337" s="27"/>
+      <c r="L337" s="27"/>
+      <c r="M337" s="27"/>
+      <c r="N337" s="34"/>
+      <c r="O337" s="34"/>
+    </row>
+    <row r="338" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A338" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F338" s="33"/>
+      <c r="G338" s="27" t="s">
+        <v>2610</v>
+      </c>
+      <c r="H338" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="I338" s="27"/>
+      <c r="J338" s="35"/>
+      <c r="K338" s="36"/>
+      <c r="L338" s="36" t="s">
+        <v>2616</v>
+      </c>
+      <c r="M338" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="N338" s="37"/>
+      <c r="O338" s="34"/>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F339" s="33"/>
+      <c r="G339" s="27"/>
+      <c r="H339" s="27"/>
+      <c r="I339" s="27"/>
+      <c r="J339" s="27"/>
+      <c r="K339" s="27"/>
+      <c r="L339" s="27"/>
+      <c r="M339" s="27"/>
+      <c r="N339" s="27"/>
+      <c r="O339" s="34"/>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="A340" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F340" s="33" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G340" s="38" t="s">
+        <v>2601</v>
+      </c>
+      <c r="H340" s="27"/>
+      <c r="I340" s="27" t="s">
+        <v>2601</v>
+      </c>
+      <c r="J340" s="38" t="s">
+        <v>2250</v>
+      </c>
+      <c r="K340" s="27"/>
+      <c r="L340" s="27"/>
+      <c r="M340" s="27"/>
+      <c r="N340" s="27"/>
+      <c r="O340" s="34"/>
+    </row>
+    <row r="341" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A341" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F341" s="35"/>
+      <c r="G341" s="36"/>
+      <c r="H341" s="36"/>
+      <c r="I341" s="36"/>
+      <c r="J341" s="36"/>
+      <c r="K341" s="36"/>
+      <c r="L341" s="36"/>
+      <c r="M341" s="36"/>
+      <c r="N341" s="36"/>
+      <c r="O341" s="37"/>
+    </row>
+    <row r="342" spans="1:15">
+      <c r="A342" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15">
+      <c r="B344" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15">
+      <c r="B345" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A352" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13">
+      <c r="B353" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F353" s="30"/>
+      <c r="G353" s="31"/>
+      <c r="H353" s="31"/>
+      <c r="I353" s="31"/>
+      <c r="J353" s="31"/>
+      <c r="K353" s="31"/>
+      <c r="L353" s="31"/>
+      <c r="M353" s="32"/>
+    </row>
+    <row r="354" spans="1:13">
+      <c r="C354" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F354" s="33" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G354" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="H354" s="27"/>
+      <c r="I354" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="J354" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K354" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="L354" s="27"/>
+      <c r="M354" s="34"/>
+    </row>
+    <row r="355" spans="1:13">
+      <c r="B355" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F355" s="33" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G355" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H355" s="27"/>
+      <c r="I355" s="27"/>
+      <c r="J355" s="27"/>
+      <c r="K355" s="27"/>
+      <c r="L355" s="27"/>
+      <c r="M355" s="34"/>
+    </row>
+    <row r="356" spans="1:13">
+      <c r="C356" t="s">
+        <v>2734</v>
+      </c>
+      <c r="F356" s="33" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G356" s="27" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H356" s="27"/>
+      <c r="I356" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J356" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K356" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="L356" s="27"/>
+      <c r="M356" s="34"/>
+    </row>
+    <row r="357" spans="1:13">
+      <c r="F357" s="33"/>
+      <c r="G357" s="27"/>
+      <c r="H357" s="27"/>
+      <c r="I357" s="27"/>
+      <c r="J357" s="27"/>
+      <c r="K357" s="27"/>
+      <c r="L357" s="27"/>
+      <c r="M357" s="34"/>
+    </row>
+    <row r="358" spans="1:13">
+      <c r="F358" s="33"/>
+      <c r="G358" s="27"/>
+      <c r="H358" s="27"/>
+      <c r="I358" s="27" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J358" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K358" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="L358" s="27"/>
+      <c r="M358" s="34"/>
+    </row>
+    <row r="359" spans="1:13">
+      <c r="A359" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F359" s="33"/>
+      <c r="G359" s="27"/>
+      <c r="H359" s="27"/>
+      <c r="I359" s="27"/>
+      <c r="J359" s="27"/>
+      <c r="K359" s="27"/>
+      <c r="L359" s="27"/>
+      <c r="M359" s="34"/>
+    </row>
+    <row r="360" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A360" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F360" s="33"/>
+      <c r="G360" s="27"/>
+      <c r="H360" s="27" t="s">
+        <v>2732</v>
+      </c>
+      <c r="I360" s="27"/>
+      <c r="J360" s="27"/>
+      <c r="K360" s="27"/>
+      <c r="L360" s="27"/>
+      <c r="M360" s="34"/>
+    </row>
+    <row r="361" spans="1:13">
+      <c r="A361" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F361" s="33"/>
+      <c r="G361" s="27"/>
+      <c r="H361" s="27">
+        <v>1</v>
+      </c>
+      <c r="I361" s="30" t="s">
+        <v>2733</v>
+      </c>
+      <c r="J361" s="31"/>
+      <c r="K361" s="31" t="s">
+        <v>2737</v>
+      </c>
+      <c r="L361" s="32" t="s">
+        <v>2739</v>
+      </c>
+      <c r="M361" s="34"/>
+    </row>
+    <row r="362" spans="1:13">
+      <c r="F362" s="33"/>
+      <c r="G362" s="27"/>
+      <c r="H362" s="27"/>
+      <c r="I362" s="33"/>
+      <c r="J362" s="27"/>
+      <c r="K362" s="27"/>
+      <c r="L362" s="34"/>
+      <c r="M362" s="34"/>
+    </row>
+    <row r="363" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A363" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F363" s="33"/>
+      <c r="G363" s="27"/>
+      <c r="H363" s="27"/>
+      <c r="I363" s="35"/>
+      <c r="J363" s="36"/>
+      <c r="K363" s="36"/>
+      <c r="L363" s="37"/>
+      <c r="M363" s="34"/>
+    </row>
+    <row r="364" spans="1:13">
+      <c r="A364" t="s">
         <v>2736</v>
       </c>
-      <c r="F295" s="33"/>
-      <c r="G295" s="27"/>
-      <c r="H295" s="27"/>
-      <c r="I295" s="27"/>
-      <c r="J295" s="27"/>
-      <c r="K295" s="27"/>
-      <c r="L295" s="27"/>
-      <c r="M295" s="34"/>
-    </row>
-    <row r="296" spans="1:13">
-      <c r="A296" t="s">
+      <c r="F364" s="33"/>
+      <c r="G364" s="27"/>
+      <c r="H364" s="27"/>
+      <c r="I364" s="27"/>
+      <c r="J364" s="27"/>
+      <c r="K364" s="27"/>
+      <c r="L364" s="27"/>
+      <c r="M364" s="34"/>
+    </row>
+    <row r="365" spans="1:13">
+      <c r="A365" t="s">
         <v>2738</v>
       </c>
-      <c r="F296" s="33"/>
-      <c r="G296" s="27"/>
-      <c r="H296" s="27"/>
-      <c r="I296" s="27"/>
-      <c r="J296" s="27"/>
-      <c r="K296" s="27"/>
-      <c r="L296" s="27"/>
-      <c r="M296" s="34"/>
-    </row>
-    <row r="297" spans="1:13" ht="15.75" thickBot="1">
-      <c r="F297" s="35"/>
-      <c r="G297" s="36"/>
-      <c r="H297" s="36"/>
-      <c r="I297" s="36"/>
-      <c r="J297" s="36"/>
-      <c r="K297" s="36"/>
-      <c r="L297" s="36"/>
-      <c r="M297" s="37"/>
+      <c r="F365" s="33"/>
+      <c r="G365" s="27"/>
+      <c r="H365" s="27"/>
+      <c r="I365" s="27"/>
+      <c r="J365" s="27"/>
+      <c r="K365" s="27"/>
+      <c r="L365" s="27"/>
+      <c r="M365" s="34"/>
+    </row>
+    <row r="366" spans="1:13" ht="15.75" thickBot="1">
+      <c r="F366" s="35"/>
+      <c r="G366" s="36"/>
+      <c r="H366" s="36"/>
+      <c r="I366" s="36"/>
+      <c r="J366" s="36"/>
+      <c r="K366" s="36"/>
+      <c r="L366" s="36"/>
+      <c r="M366" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35197,7 +35766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A329" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F343" sqref="F343"/>
     </sheetView>
   </sheetViews>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5938" uniqueCount="3150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5940" uniqueCount="3150">
   <si>
     <t>USER</t>
   </si>
@@ -8138,36 +8138,6 @@
   </si>
   <si>
     <t>name=john</t>
-  </si>
-  <si>
-    <t>&lt;Restaurant&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/Restaurant&gt;</t>
-  </si>
-  <si>
-    <t>&lt;name&gt;john&lt;/name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;customer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/customer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;address&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/address&gt;</t>
-  </si>
-  <si>
-    <t>&lt;city&gt;</t>
-  </si>
-  <si>
-    <t>&lt;state&gt;</t>
   </si>
   <si>
     <t>disk</t>
@@ -9756,6 +9726,36 @@
   </si>
   <si>
     <t>studentNameKey</t>
+  </si>
+  <si>
+    <t>var restu={</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>name:"john",</t>
+  </si>
+  <si>
+    <t>customer:{</t>
+  </si>
+  <si>
+    <t>creditcard:</t>
+  </si>
+  <si>
+    <t>cvc:123</t>
+  </si>
+  <si>
+    <t>number:123213123,</t>
+  </si>
+  <si>
+    <t>expiry:"12/12",</t>
+  </si>
+  <si>
+    <t>name:"jane",</t>
+  </si>
+  <si>
+    <t>restu.customer.creditcard.number</t>
   </si>
 </sst>
 </file>
@@ -10967,6 +10967,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11030,14 +11034,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11356,7 +11356,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="B2" t="s">
-        <v>2765</v>
+        <v>2755</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="31"/>
@@ -11376,7 +11376,7 @@
         <v>2226</v>
       </c>
       <c r="D3" t="s">
-        <v>2762</v>
+        <v>2752</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>1623</v>
@@ -11402,7 +11402,7 @@
         <v>2360</v>
       </c>
       <c r="D4" t="s">
-        <v>2764</v>
+        <v>2754</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>404</v>
@@ -11477,7 +11477,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>2804</v>
+        <v>2794</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="51"/>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="B10" t="s">
-        <v>2799</v>
+        <v>2789</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="B11" t="s">
-        <v>2798</v>
+        <v>2788</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -11543,7 +11543,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
-        <v>2797</v>
+        <v>2787</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="51"/>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="B13" t="s">
-        <v>2800</v>
+        <v>2790</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="51"/>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
-        <v>2809</v>
+        <v>2799</v>
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="51"/>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" t="s">
-        <v>2810</v>
+        <v>2800</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="51"/>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="B16" t="s">
-        <v>2801</v>
+        <v>2791</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
@@ -11625,16 +11625,16 @@
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="27" t="s">
-        <v>2767</v>
+        <v>2757</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>2805</v>
+        <v>2795</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>2762</v>
+        <v>2752</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>2806</v>
+        <v>2796</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -11643,17 +11643,17 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="B18" t="s">
-        <v>2802</v>
+        <v>2792</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="36" t="s">
-        <v>2807</v>
+        <v>2797</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>2808</v>
+        <v>2798</v>
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
@@ -11663,33 +11663,33 @@
     </row>
     <row r="19" spans="1:13">
       <c r="B19" t="s">
-        <v>2803</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="B20" t="s">
-        <v>2811</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="B21" t="s">
-        <v>2812</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="A24" t="s">
-        <v>2776</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>2777</v>
+        <v>2767</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31" t="s">
-        <v>2824</v>
+        <v>2814</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="32"/>
@@ -11715,7 +11715,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1">
       <c r="F27" s="33" t="s">
-        <v>2825</v>
+        <v>2815</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>415</v>
@@ -11727,16 +11727,16 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>2778</v>
+        <v>2768</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27" t="s">
-        <v>2822</v>
+        <v>2812</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>2788</v>
+        <v>2778</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>2510</v>
@@ -11747,14 +11747,14 @@
         <v>2260</v>
       </c>
       <c r="C29" t="s">
-        <v>2814</v>
+        <v>2804</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="35" t="s">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="K29" s="37">
         <v>123</v>
@@ -11765,7 +11765,7 @@
         <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>2813</v>
+        <v>2803</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="27"/>
@@ -11782,25 +11782,25 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27" t="s">
-        <v>2823</v>
+        <v>2813</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>2819</v>
+        <v>2809</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>2821</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" t="s">
-        <v>2782</v>
+        <v>2772</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="35" t="s">
-        <v>2820</v>
+        <v>2810</v>
       </c>
       <c r="K32" s="37">
         <v>1234</v>
@@ -11811,7 +11811,7 @@
         <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>2815</v>
+        <v>2805</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="27"/>
@@ -11825,7 +11825,7 @@
         <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>2816</v>
+        <v>2806</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="27"/>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="B38" t="s">
-        <v>2817</v>
+        <v>2807</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="27"/>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="B39" t="s">
-        <v>2818</v>
+        <v>2808</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="36"/>
@@ -11907,7 +11907,7 @@
       <c r="H65" s="48"/>
       <c r="I65" s="48"/>
       <c r="J65" s="48" t="s">
-        <v>2773</v>
+        <v>2763</v>
       </c>
       <c r="K65" s="48"/>
       <c r="L65" s="48"/>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="B66" t="s">
-        <v>2765</v>
+        <v>2755</v>
       </c>
       <c r="F66" s="260" t="s">
         <v>1623</v>
@@ -11934,13 +11934,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="B67" t="s">
-        <v>2766</v>
+        <v>2756</v>
       </c>
       <c r="C67" t="s">
         <v>2226</v>
       </c>
       <c r="D67" t="s">
-        <v>2762</v>
+        <v>2752</v>
       </c>
       <c r="F67" s="50" t="s">
         <v>404</v>
@@ -11964,16 +11964,16 @@
         <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>2763</v>
+        <v>2753</v>
       </c>
       <c r="D68" t="s">
-        <v>2764</v>
+        <v>2754</v>
       </c>
       <c r="F68" s="50" t="s">
         <v>551</v>
       </c>
       <c r="G68" s="51" t="s">
-        <v>2772</v>
+        <v>2762</v>
       </c>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
@@ -11994,7 +11994,7 @@
         <v>552</v>
       </c>
       <c r="G69" s="51" t="s">
-        <v>2774</v>
+        <v>2764</v>
       </c>
       <c r="H69" s="51"/>
       <c r="I69" s="51"/>
@@ -12005,14 +12005,14 @@
     </row>
     <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>2752</v>
+        <v>2742</v>
       </c>
       <c r="F70" s="50"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
       <c r="J70" s="51" t="s">
-        <v>2772</v>
+        <v>2762</v>
       </c>
       <c r="K70" s="99"/>
       <c r="L70" s="100"/>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="B71" t="s">
-        <v>2753</v>
+        <v>2743</v>
       </c>
       <c r="F71" s="50"/>
       <c r="G71" s="51"/>
@@ -12037,7 +12037,7 @@
     </row>
     <row r="72" spans="1:13" ht="15.75" thickBot="1">
       <c r="B72" t="s">
-        <v>2754</v>
+        <v>2744</v>
       </c>
       <c r="F72" s="50"/>
       <c r="G72" s="51"/>
@@ -12054,7 +12054,7 @@
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1">
       <c r="B73" t="s">
-        <v>2756</v>
+        <v>2746</v>
       </c>
       <c r="F73" s="50"/>
       <c r="G73" s="51"/>
@@ -12067,14 +12067,14 @@
     </row>
     <row r="74" spans="1:13">
       <c r="B74" t="s">
-        <v>2755</v>
+        <v>2745</v>
       </c>
       <c r="F74" s="50"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
       <c r="J74" s="51" t="s">
-        <v>2774</v>
+        <v>2764</v>
       </c>
       <c r="K74" s="99"/>
       <c r="L74" s="100"/>
@@ -12082,7 +12082,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="B75" t="s">
-        <v>2759</v>
+        <v>2749</v>
       </c>
       <c r="F75" s="50"/>
       <c r="G75" s="51"/>
@@ -12099,7 +12099,7 @@
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1">
       <c r="B76" t="s">
-        <v>2757</v>
+        <v>2747</v>
       </c>
       <c r="F76" s="50"/>
       <c r="G76" s="51"/>
@@ -12116,17 +12116,17 @@
     </row>
     <row r="77" spans="1:13">
       <c r="B77" t="s">
-        <v>2758</v>
+        <v>2748</v>
       </c>
       <c r="F77" s="50"/>
       <c r="G77" s="51" t="s">
-        <v>2767</v>
+        <v>2757</v>
       </c>
       <c r="H77" s="51" t="s">
-        <v>2768</v>
+        <v>2758</v>
       </c>
       <c r="I77" s="51" t="s">
-        <v>2769</v>
+        <v>2759</v>
       </c>
       <c r="J77" s="51"/>
       <c r="K77" s="51"/>
@@ -12142,10 +12142,10 @@
         <v>1822</v>
       </c>
       <c r="H78" s="51" t="s">
-        <v>2770</v>
+        <v>2760</v>
       </c>
       <c r="I78" s="117" t="s">
-        <v>2771</v>
+        <v>2761</v>
       </c>
       <c r="J78" s="51"/>
       <c r="K78" s="51"/>
@@ -12154,7 +12154,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="B79" t="s">
-        <v>2760</v>
+        <v>2750</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="51"/>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1">
       <c r="B80" t="s">
-        <v>2761</v>
+        <v>2751</v>
       </c>
       <c r="F80" s="53"/>
       <c r="G80" s="54"/>
@@ -12197,24 +12197,24 @@
       <c r="I83" s="256"/>
       <c r="J83" s="256"/>
       <c r="K83" s="256" t="s">
-        <v>2785</v>
+        <v>2775</v>
       </c>
       <c r="L83" s="121" t="s">
         <v>201</v>
       </c>
       <c r="M83" s="122" t="s">
-        <v>2786</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="B84" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F84" s="186" t="s">
+        <v>2785</v>
+      </c>
+      <c r="G84" s="27" t="s">
         <v>2775</v>
-      </c>
-      <c r="F84" s="186" t="s">
-        <v>2795</v>
-      </c>
-      <c r="G84" s="27" t="s">
-        <v>2785</v>
       </c>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
@@ -12225,7 +12225,7 @@
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1">
       <c r="B85" t="s">
-        <v>2796</v>
+        <v>2786</v>
       </c>
       <c r="F85" s="186"/>
       <c r="G85" s="27"/>
@@ -12246,10 +12246,10 @@
       <c r="I86" s="32"/>
       <c r="J86" s="27"/>
       <c r="K86" s="27" t="s">
-        <v>2786</v>
+        <v>2776</v>
       </c>
       <c r="L86" s="121" t="s">
-        <v>2787</v>
+        <v>2777</v>
       </c>
       <c r="M86" s="122" t="b">
         <v>1</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1">
       <c r="A87" t="s">
-        <v>2776</v>
+        <v>2766</v>
       </c>
       <c r="F87" s="186"/>
       <c r="G87" s="27"/>
@@ -12266,15 +12266,15 @@
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
       <c r="L87" s="186" t="s">
-        <v>2788</v>
+        <v>2778</v>
       </c>
       <c r="M87" s="76" t="s">
-        <v>2790</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="B88" t="s">
-        <v>2777</v>
+        <v>2767</v>
       </c>
       <c r="F88" s="186"/>
       <c r="G88" s="27"/>
@@ -12283,10 +12283,10 @@
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
       <c r="L88" s="123" t="s">
-        <v>2791</v>
+        <v>2781</v>
       </c>
       <c r="M88" s="124" t="s">
-        <v>2792</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -12304,7 +12304,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>2778</v>
+        <v>2768</v>
       </c>
       <c r="F90" s="186"/>
       <c r="G90" s="27"/>
@@ -12312,7 +12312,7 @@
       <c r="I90" s="76"/>
       <c r="J90" s="27"/>
       <c r="K90" s="27" t="s">
-        <v>2789</v>
+        <v>2779</v>
       </c>
       <c r="L90" s="121" t="s">
         <v>195</v>
@@ -12323,7 +12323,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="B91" t="s">
-        <v>2779</v>
+        <v>2769</v>
       </c>
       <c r="F91" s="186"/>
       <c r="G91" s="27"/>
@@ -12340,7 +12340,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="B92" t="s">
-        <v>2780</v>
+        <v>2770</v>
       </c>
       <c r="F92" s="186"/>
       <c r="G92" s="27"/>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="B93" t="s">
-        <v>2781</v>
+        <v>2771</v>
       </c>
       <c r="F93" s="186"/>
       <c r="G93" s="27"/>
@@ -12361,10 +12361,10 @@
       <c r="I93" s="122"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27" t="s">
-        <v>2792</v>
+        <v>2782</v>
       </c>
       <c r="L93" s="121" t="s">
-        <v>2793</v>
+        <v>2783</v>
       </c>
       <c r="M93" s="264">
         <v>44542</v>
@@ -12381,7 +12381,7 @@
       <c r="J94" s="27"/>
       <c r="K94" s="27"/>
       <c r="L94" s="123" t="s">
-        <v>2794</v>
+        <v>2784</v>
       </c>
       <c r="M94" s="124">
         <v>12312312</v>
@@ -12389,7 +12389,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>2782</v>
+        <v>2772</v>
       </c>
       <c r="F95" s="186"/>
       <c r="G95" s="27"/>
@@ -12405,7 +12405,7 @@
         <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>2783</v>
+        <v>2773</v>
       </c>
       <c r="F96" s="186"/>
       <c r="G96" s="27"/>
@@ -12421,7 +12421,7 @@
         <v>182</v>
       </c>
       <c r="C97" t="s">
-        <v>2784</v>
+        <v>2774</v>
       </c>
       <c r="F97" s="123"/>
       <c r="G97" s="36"/>
@@ -15877,7 +15877,7 @@
     </row>
     <row r="179" spans="1:18" ht="15.75" thickBot="1">
       <c r="B179" t="s">
-        <v>2926</v>
+        <v>2916</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="27" t="s">
@@ -15899,11 +15899,11 @@
     </row>
     <row r="180" spans="1:18">
       <c r="B180" t="s">
-        <v>2906</v>
+        <v>2896</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="51" t="s">
-        <v>2896</v>
+        <v>2886</v>
       </c>
       <c r="H180" s="51" t="s">
         <v>1954</v>
@@ -15949,7 +15949,7 @@
     </row>
     <row r="182" spans="1:18" ht="15.75" thickBot="1">
       <c r="B182" t="s">
-        <v>2936</v>
+        <v>2926</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="51" t="s">
@@ -15971,7 +15971,7 @@
     </row>
     <row r="183" spans="1:18">
       <c r="B183" t="s">
-        <v>2908</v>
+        <v>2898</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="51" t="s">
@@ -16029,7 +16029,7 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186" t="s">
-        <v>2935</v>
+        <v>2925</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="51"/>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="188" spans="1:18" ht="15.75" thickBot="1">
       <c r="B188" t="s">
-        <v>2927</v>
+        <v>2917</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="27"/>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="F189" s="33"/>
       <c r="G189" t="s">
-        <v>2934</v>
+        <v>2924</v>
       </c>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="190" spans="1:18">
       <c r="B190" t="s">
-        <v>2905</v>
+        <v>2895</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="27"/>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="192" spans="1:18">
       <c r="A192" t="s">
-        <v>2928</v>
+        <v>2918</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="27"/>
@@ -16181,11 +16181,11 @@
     </row>
     <row r="194" spans="1:18">
       <c r="B194" t="s">
-        <v>2929</v>
+        <v>2919</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="27" t="s">
-        <v>2933</v>
+        <v>2923</v>
       </c>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
@@ -16205,7 +16205,7 @@
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="27" t="s">
-        <v>2932</v>
+        <v>2922</v>
       </c>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
@@ -16221,7 +16221,7 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196" t="s">
-        <v>2930</v>
+        <v>2920</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="38"/>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="197" spans="1:18">
       <c r="B197" t="s">
-        <v>2931</v>
+        <v>2921</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="27"/>
@@ -18668,7 +18668,7 @@
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57" t="s">
-        <v>2941</v>
+        <v>2931</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -18690,7 +18690,7 @@
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="E4" s="127" t="s">
-        <v>2923</v>
+        <v>2913</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="57"/>
@@ -18754,7 +18754,7 @@
         <v>578</v>
       </c>
       <c r="E7" s="127" t="s">
-        <v>2942</v>
+        <v>2932</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>591</v>
@@ -18771,7 +18771,7 @@
       </c>
       <c r="N7" s="57"/>
       <c r="O7" t="s">
-        <v>2925</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -18780,7 +18780,7 @@
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
       <c r="E8" s="127" t="s">
-        <v>2922</v>
+        <v>2912</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>592</v>
@@ -18845,7 +18845,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="127" t="s">
-        <v>2943</v>
+        <v>2933</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="61" t="s">
@@ -18962,7 +18962,7 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="127" t="s">
-        <v>2948</v>
+        <v>2938</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>583</v>
@@ -19022,7 +19022,7 @@
         <v>1660</v>
       </c>
       <c r="I18" s="289" t="s">
-        <v>2947</v>
+        <v>2937</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="57" t="s">
@@ -19050,7 +19050,7 @@
       <c r="G19" s="147"/>
       <c r="H19" s="150"/>
       <c r="I19" s="289" t="s">
-        <v>2946</v>
+        <v>2936</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="67" t="s">
@@ -19075,7 +19075,7 @@
         <v>587</v>
       </c>
       <c r="F20" s="127" t="s">
-        <v>2945</v>
+        <v>2935</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="64" t="s">
@@ -19099,7 +19099,7 @@
         <v>588</v>
       </c>
       <c r="F21" s="127" t="s">
-        <v>2946</v>
+        <v>2936</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="65" t="s">
@@ -19123,7 +19123,7 @@
         <v>588</v>
       </c>
       <c r="D22" s="288" t="s">
-        <v>2944</v>
+        <v>2934</v>
       </c>
       <c r="E22" s="57" t="s">
         <v>577</v>
@@ -19142,7 +19142,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="127" t="s">
-        <v>2924</v>
+        <v>2914</v>
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="57" t="s">
@@ -19977,7 +19977,7 @@
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="27" t="s">
-        <v>2954</v>
+        <v>2944</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>1435</v>
@@ -20030,7 +20030,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="B6" t="s">
-        <v>2949</v>
+        <v>2939</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="38" t="s">
@@ -20048,7 +20048,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="C7" t="s">
-        <v>2950</v>
+        <v>2940</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="27"/>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2951</v>
+        <v>2941</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="27"/>
@@ -20138,7 +20138,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>2952</v>
+        <v>2942</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="27"/>
@@ -20152,7 +20152,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>2953</v>
+        <v>2943</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="27"/>
@@ -21520,10 +21520,10 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="H2" t="s">
-        <v>2957</v>
+        <v>2947</v>
       </c>
       <c r="I2" t="s">
-        <v>2958</v>
+        <v>2948</v>
       </c>
       <c r="J2" t="s">
         <v>763</v>
@@ -21531,17 +21531,17 @@
     </row>
     <row r="4" spans="2:13">
       <c r="H4" t="s">
-        <v>2959</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="H5" t="s">
-        <v>2960</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="H6" s="56" t="s">
-        <v>2961</v>
+        <v>2951</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -21553,12 +21553,12 @@
       <c r="D9" s="299"/>
       <c r="F9" s="30"/>
       <c r="G9" s="79" t="s">
-        <v>2956</v>
+        <v>2946</v>
       </c>
       <c r="H9" s="32"/>
       <c r="K9" s="297"/>
       <c r="L9" s="300" t="s">
-        <v>2956</v>
+        <v>2946</v>
       </c>
       <c r="M9" s="299"/>
     </row>
@@ -21600,13 +21600,13 @@
       <c r="C13" s="27"/>
       <c r="D13" s="34"/>
       <c r="E13" t="s">
-        <v>2965</v>
+        <v>2955</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="27"/>
       <c r="H13" s="34"/>
       <c r="J13" s="290" t="s">
-        <v>2966</v>
+        <v>2956</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="27"/>
@@ -21614,25 +21614,25 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="33" t="s">
-        <v>2962</v>
+        <v>2952</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="34" t="s">
-        <v>2963</v>
+        <v>2953</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>2962</v>
+        <v>2952</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="34" t="s">
-        <v>2963</v>
+        <v>2953</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>2962</v>
+        <v>2952</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="34" t="s">
-        <v>2963</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -21649,17 +21649,17 @@
     <row r="16" spans="2:13">
       <c r="B16" s="33"/>
       <c r="C16" s="27" t="s">
-        <v>2964</v>
+        <v>2954</v>
       </c>
       <c r="D16" s="34"/>
       <c r="F16" s="33"/>
       <c r="G16" s="27" t="s">
-        <v>2964</v>
+        <v>2954</v>
       </c>
       <c r="H16" s="34"/>
       <c r="K16" s="33"/>
       <c r="L16" s="27" t="s">
-        <v>2964</v>
+        <v>2954</v>
       </c>
       <c r="M16" s="34"/>
     </row>
@@ -21745,7 +21745,7 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" t="s">
-        <v>2955</v>
+        <v>2945</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="27" t="s">
@@ -22028,16 +22028,16 @@
     </row>
     <row r="78" spans="2:21">
       <c r="B78" t="s">
-        <v>2967</v>
+        <v>2957</v>
       </c>
       <c r="C78" t="s">
-        <v>2795</v>
+        <v>2785</v>
       </c>
       <c r="D78" t="s">
-        <v>2968</v>
+        <v>2958</v>
       </c>
       <c r="E78" t="s">
-        <v>2969</v>
+        <v>2959</v>
       </c>
       <c r="F78" t="s">
         <v>225</v>
@@ -22054,7 +22054,7 @@
     </row>
     <row r="79" spans="2:21">
       <c r="F79" t="s">
-        <v>2970</v>
+        <v>2960</v>
       </c>
       <c r="I79" t="s">
         <v>146</v>
@@ -22065,16 +22065,16 @@
     </row>
     <row r="80" spans="2:21">
       <c r="B80" t="s">
-        <v>2967</v>
+        <v>2957</v>
       </c>
       <c r="C80" t="s">
-        <v>2795</v>
+        <v>2785</v>
       </c>
       <c r="D80" t="s">
-        <v>2968</v>
+        <v>2958</v>
       </c>
       <c r="E80" t="s">
-        <v>2968</v>
+        <v>2958</v>
       </c>
       <c r="N80" t="s">
         <v>146</v>
@@ -22082,12 +22082,12 @@
     </row>
     <row r="81" spans="2:10">
       <c r="F81" t="s">
-        <v>2971</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="F82" t="s">
-        <v>2972</v>
+        <v>2962</v>
       </c>
       <c r="J82" t="s">
         <v>750</v>
@@ -22095,31 +22095,31 @@
     </row>
     <row r="83" spans="2:10">
       <c r="B83" t="s">
-        <v>2967</v>
+        <v>2957</v>
       </c>
       <c r="C83" t="s">
-        <v>2795</v>
+        <v>2785</v>
       </c>
       <c r="D83" t="s">
-        <v>2976</v>
+        <v>2966</v>
       </c>
       <c r="E83" t="s">
-        <v>2973</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="84" spans="2:10">
       <c r="F84" t="s">
-        <v>2974</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="F85" t="s">
-        <v>2975</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" t="s">
-        <v>2977</v>
+        <v>2967</v>
       </c>
       <c r="J87" t="s">
         <v>753</v>
@@ -24496,13 +24496,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="318" t="s">
+      <c r="H3" s="320" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="320"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="322"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
@@ -24520,20 +24520,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="321" t="s">
+      <c r="G6" s="323" t="s">
         <v>1592</v>
       </c>
-      <c r="H6" s="322"/>
+      <c r="H6" s="324"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="321" t="s">
+      <c r="J6" s="323" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="322"/>
+      <c r="K6" s="324"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="321" t="s">
+      <c r="M6" s="323" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="322"/>
+      <c r="N6" s="324"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="125" t="s">
@@ -24551,20 +24551,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="323" t="s">
+      <c r="G8" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="324"/>
+      <c r="H8" s="326"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="323" t="s">
+      <c r="J8" s="325" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="324"/>
+      <c r="K8" s="326"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="323" t="s">
+      <c r="M8" s="325" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="324"/>
+      <c r="N8" s="326"/>
       <c r="Q8" s="142"/>
     </row>
     <row r="9" spans="1:18">
@@ -24604,33 +24604,33 @@
       <c r="Q11" s="142"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="F12" s="314" t="s">
-        <v>2664</v>
-      </c>
-      <c r="G12" s="315"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="315"/>
-      <c r="J12" s="315"/>
-      <c r="K12" s="315"/>
-      <c r="L12" s="315"/>
-      <c r="M12" s="315"/>
-      <c r="N12" s="315"/>
+      <c r="F12" s="316" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G12" s="317"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="317"/>
+      <c r="J12" s="317"/>
+      <c r="K12" s="317"/>
+      <c r="L12" s="317"/>
+      <c r="M12" s="317"/>
+      <c r="N12" s="317"/>
       <c r="Q12" s="142"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F13" s="316"/>
-      <c r="G13" s="317"/>
-      <c r="H13" s="317"/>
-      <c r="I13" s="317"/>
-      <c r="J13" s="317"/>
-      <c r="K13" s="317"/>
-      <c r="L13" s="317"/>
-      <c r="M13" s="317"/>
-      <c r="N13" s="317"/>
+      <c r="F13" s="318"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="319"/>
+      <c r="M13" s="319"/>
+      <c r="N13" s="319"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="D14" s="125" t="s">
         <v>1591</v>
@@ -24780,7 +24780,7 @@
     <row r="23" spans="1:17">
       <c r="F23" s="140"/>
       <c r="G23" s="17" t="s">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
@@ -24856,7 +24856,7 @@
     </row>
     <row r="33" spans="1:17 16384:16384">
       <c r="A33" s="27" t="s">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -24888,7 +24888,7 @@
     </row>
     <row r="34" spans="1:17 16384:16384">
       <c r="A34" s="251" t="s">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="B34" s="132"/>
       <c r="C34" s="132"/>
@@ -24896,20 +24896,20 @@
       <c r="E34" s="132"/>
       <c r="F34" s="132"/>
       <c r="G34" s="132" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="H34" s="132" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="I34" s="132"/>
       <c r="J34" s="132"/>
       <c r="K34" s="132"/>
       <c r="L34" s="132"/>
       <c r="M34" s="132" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="N34" s="132" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="P34" s="163"/>
     </row>
@@ -25065,7 +25065,7 @@
     </row>
     <row r="45" spans="1:17 16384:16384">
       <c r="B45" t="s">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="143"/>
@@ -25081,7 +25081,7 @@
     </row>
     <row r="46" spans="1:17 16384:16384">
       <c r="B46" t="s">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="143"/>
@@ -25100,7 +25100,7 @@
         <v>1813</v>
       </c>
       <c r="B47" t="s">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="143"/>
@@ -25557,15 +25557,15 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>2978</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="A2" s="96" t="s">
-        <v>2989</v>
+        <v>2979</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>2987</v>
+        <v>2977</v>
       </c>
       <c r="C2" s="96"/>
       <c r="E2" s="57" t="s">
@@ -25585,14 +25585,14 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="96" t="s">
-        <v>2988</v>
+        <v>2978</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>462</v>
       </c>
       <c r="C3" s="96"/>
       <c r="E3" s="57" t="s">
-        <v>2994</v>
+        <v>2984</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="51" t="s">
@@ -25607,8 +25607,8 @@
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="329" t="s">
-        <v>2993</v>
+      <c r="N3" s="331" t="s">
+        <v>2983</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -25616,18 +25616,18 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="96" t="s">
-        <v>2988</v>
+        <v>2978</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>2979</v>
+        <v>2969</v>
       </c>
       <c r="C4" s="96"/>
       <c r="E4" s="57" t="s">
-        <v>2994</v>
+        <v>2984</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="51" t="s">
-        <v>2984</v>
+        <v>2974</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>415</v>
@@ -25636,7 +25636,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="330"/>
+      <c r="N4" s="332"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -25644,12 +25644,12 @@
     <row r="5" spans="1:17">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
-        <v>2980</v>
+        <v>2970</v>
       </c>
       <c r="C5" s="96"/>
       <c r="G5" s="50"/>
       <c r="H5" s="51" t="s">
-        <v>2986</v>
+        <v>2976</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>1954</v>
@@ -25662,7 +25662,7 @@
       <c r="M5" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="N5" s="330"/>
+      <c r="N5" s="332"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -25679,12 +25679,12 @@
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
       <c r="L6" s="53" t="s">
-        <v>2985</v>
+        <v>2975</v>
       </c>
       <c r="M6" s="54">
         <v>12345</v>
       </c>
-      <c r="N6" s="330"/>
+      <c r="N6" s="332"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -25693,7 +25693,7 @@
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96" t="s">
-        <v>2981</v>
+        <v>2971</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="51"/>
@@ -25702,7 +25702,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="330"/>
+      <c r="N7" s="332"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -25722,7 +25722,7 @@
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="330"/>
+      <c r="N8" s="332"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -25740,7 +25740,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="50"/>
       <c r="M9" s="51"/>
-      <c r="N9" s="330"/>
+      <c r="N9" s="332"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -25757,14 +25757,14 @@
       <c r="M10" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="N10" s="330"/>
+      <c r="N10" s="332"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="C11" s="57" t="s">
-        <v>2982</v>
+        <v>2972</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="51"/>
@@ -25772,19 +25772,19 @@
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
       <c r="L11" s="53" t="s">
-        <v>2985</v>
+        <v>2975</v>
       </c>
       <c r="M11" s="54">
         <v>12346</v>
       </c>
-      <c r="N11" s="331"/>
+      <c r="N11" s="333"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:17">
       <c r="C12" s="57" t="s">
-        <v>2983</v>
+        <v>2973</v>
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
@@ -25800,7 +25800,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="57" t="s">
-        <v>2990</v>
+        <v>2980</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="51"/>
@@ -25816,10 +25816,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="57" t="s">
-        <v>2991</v>
+        <v>2981</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>2821</v>
+        <v>2811</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="51"/>
@@ -25835,10 +25835,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="57" t="s">
-        <v>2992</v>
+        <v>2982</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>2821</v>
+        <v>2811</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="51"/>
@@ -25867,7 +25867,7 @@
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="57" t="s">
-        <v>2995</v>
+        <v>2985</v>
       </c>
       <c r="G17" s="50"/>
       <c r="H17" s="51"/>
@@ -25883,7 +25883,7 @@
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="57" t="s">
-        <v>2996</v>
+        <v>2986</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>561</v>
@@ -25902,7 +25902,7 @@
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="57" t="s">
-        <v>2997</v>
+        <v>2987</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>526</v>
@@ -29117,10 +29117,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>2998</v>
+        <v>2988</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>3002</v>
+        <v>2992</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>415</v>
@@ -29135,10 +29135,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>2999</v>
+        <v>2989</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>3003</v>
+        <v>2993</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>1954</v>
@@ -29155,10 +29155,10 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" t="s">
-        <v>3000</v>
+        <v>2990</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>3004</v>
+        <v>2994</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>2634</v>
@@ -29171,7 +29171,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="G4" s="33" t="s">
-        <v>3007</v>
+        <v>2997</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>419</v>
@@ -29199,7 +29199,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="G6" s="33" t="s">
-        <v>3005</v>
+        <v>2995</v>
       </c>
       <c r="H6" s="302">
         <v>0</v>
@@ -29214,7 +29214,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>3001</v>
+        <v>2991</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="302">
@@ -29232,10 +29232,10 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" t="s">
-        <v>3008</v>
+        <v>2998</v>
       </c>
       <c r="D8" t="s">
-        <v>3014</v>
+        <v>3004</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="302">
@@ -29255,7 +29255,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>3009</v>
+        <v>2999</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="302">
@@ -29271,7 +29271,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>3010</v>
+        <v>3000</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="302">
@@ -29287,7 +29287,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>3011</v>
+        <v>3001</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
@@ -29299,7 +29299,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="27"/>
@@ -29320,7 +29320,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
-        <v>3012</v>
+        <v>3002</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
@@ -29332,7 +29332,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" t="s">
-        <v>3013</v>
+        <v>3003</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="27"/>
@@ -29371,7 +29371,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>3015</v>
+        <v>3005</v>
       </c>
       <c r="E22" t="s">
         <v>1917</v>
@@ -29379,7 +29379,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>3016</v>
+        <v>3006</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57">
@@ -29421,10 +29421,10 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>3017</v>
+        <v>3007</v>
       </c>
       <c r="D29" t="s">
-        <v>3024</v>
+        <v>3014</v>
       </c>
       <c r="E29" s="129">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>3025</v>
+        <v>3015</v>
       </c>
       <c r="I29" s="129">
         <v>0</v>
@@ -29444,7 +29444,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>3018</v>
+        <v>3008</v>
       </c>
       <c r="E30" s="129">
         <v>1</v>
@@ -29461,7 +29461,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>3019</v>
+        <v>3009</v>
       </c>
       <c r="E31" s="129">
         <v>2</v>
@@ -29478,7 +29478,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="E32" s="129">
         <v>3</v>
@@ -29495,7 +29495,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="E33" s="129">
         <v>4</v>
@@ -29512,15 +29512,15 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>3022</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>3023</v>
+        <v>3013</v>
       </c>
       <c r="E35" t="s">
-        <v>3026</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1"/>
@@ -32161,7 +32161,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>551</v>
@@ -32179,7 +32179,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>552</v>
@@ -32219,7 +32219,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" t="s">
-        <v>3033</v>
+        <v>3023</v>
       </c>
       <c r="F7" s="50" t="s">
         <v>1143</v>
@@ -32254,13 +32254,13 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" t="s">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>3034</v>
+        <v>3024</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>2772</v>
+        <v>2762</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -32313,14 +32313,14 @@
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="27" t="s">
-        <v>2772</v>
+        <v>2762</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="33"/>
       <c r="L12" s="38" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
@@ -32357,18 +32357,18 @@
     </row>
     <row r="17" spans="1:15">
       <c r="G17" t="s">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="I17" t="s">
-        <v>3035</v>
+        <v>3025</v>
       </c>
       <c r="K17" t="s">
-        <v>3036</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="K18" s="56" t="s">
-        <v>3037</v>
+        <v>3027</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -32377,7 +32377,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" t="s">
-        <v>3043</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
@@ -32395,7 +32395,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="27"/>
@@ -32403,7 +32403,7 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="304" t="s">
-        <v>3049</v>
+        <v>3039</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="32"/>
@@ -32411,13 +32411,13 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>3042</v>
+        <v>3032</v>
       </c>
       <c r="C23" s="50" t="s">
         <v>551</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>3046</v>
+        <v>3036</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
@@ -32426,14 +32426,14 @@
         <v>1911</v>
       </c>
       <c r="I23" s="248" t="s">
-        <v>3044</v>
+        <v>3034</v>
       </c>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>2171</v>
@@ -32455,7 +32455,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" t="s">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="38"/>
@@ -32478,7 +32478,7 @@
         <v>415</v>
       </c>
       <c r="F26" s="308" t="s">
-        <v>3052</v>
+        <v>3042</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="305" t="s">
@@ -32500,14 +32500,14 @@
         <v>2636</v>
       </c>
       <c r="I27" s="248" t="s">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>3054</v>
+        <v>3044</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="38"/>
@@ -32515,27 +32515,27 @@
       <c r="F28" s="38"/>
       <c r="G28" s="27"/>
       <c r="H28" s="305" t="s">
-        <v>3045</v>
+        <v>3035</v>
       </c>
       <c r="I28" s="247" t="s">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>3055</v>
+        <v>3045</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="27"/>
       <c r="H29" s="305" t="s">
-        <v>3046</v>
+        <v>3036</v>
       </c>
       <c r="I29" s="248" t="s">
-        <v>3052</v>
+        <v>3042</v>
       </c>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
@@ -32550,7 +32550,7 @@
       <c r="F30" s="38"/>
       <c r="G30" s="27"/>
       <c r="H30" s="305" t="s">
-        <v>3047</v>
+        <v>3037</v>
       </c>
       <c r="I30" s="248"/>
       <c r="J30" s="34"/>
@@ -32564,7 +32564,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="27"/>
       <c r="H31" s="305" t="s">
-        <v>3048</v>
+        <v>3038</v>
       </c>
       <c r="I31" s="247"/>
       <c r="J31" s="34"/>
@@ -32599,7 +32599,7 @@
     </row>
     <row r="36" spans="2:15">
       <c r="B36" t="s">
-        <v>3053</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="37" spans="2:15">
@@ -37825,7 +37825,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="B333" t="s">
-        <v>3027</v>
+        <v>3017</v>
       </c>
       <c r="F333" s="33"/>
       <c r="G333" s="27" t="s">
@@ -37908,7 +37908,7 @@
     </row>
     <row r="340" spans="2:12">
       <c r="B340" t="s">
-        <v>3028</v>
+        <v>3018</v>
       </c>
       <c r="D340" t="s">
         <v>414</v>
@@ -37923,7 +37923,7 @@
     </row>
     <row r="341" spans="2:12">
       <c r="B341" t="s">
-        <v>3029</v>
+        <v>3019</v>
       </c>
       <c r="F341" s="33"/>
       <c r="G341" s="27"/>
@@ -37944,7 +37944,7 @@
     </row>
     <row r="352" spans="2:12">
       <c r="C352" t="s">
-        <v>2931</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="353" spans="2:2">
@@ -37993,59 +37993,59 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" t="s">
-        <v>3066</v>
+        <v>3056</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>3061</v>
+        <v>3051</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>3058</v>
+        <v>3048</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>3059</v>
+        <v>3049</v>
       </c>
       <c r="I4" t="s">
-        <v>3073</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="C5" t="s">
-        <v>3067</v>
+        <v>3057</v>
       </c>
       <c r="I5" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="K5" t="s">
-        <v>3064</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="G6" t="s">
-        <v>3072</v>
+        <v>3062</v>
       </c>
       <c r="K6" t="s">
-        <v>3071</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="G7" s="43"/>
       <c r="I7" s="43" t="s">
-        <v>3062</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="C8" t="s">
-        <v>3068</v>
+        <v>3058</v>
       </c>
       <c r="G8" s="43"/>
       <c r="I8" s="43" t="s">
-        <v>3063</v>
+        <v>3053</v>
       </c>
       <c r="K8" t="s">
-        <v>3069</v>
+        <v>3059</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -38057,7 +38057,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>3070</v>
+        <v>3060</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -38078,7 +38078,7 @@
     <row r="11" spans="2:13">
       <c r="G11" s="43"/>
       <c r="I11" s="43" t="s">
-        <v>3057</v>
+        <v>3047</v>
       </c>
       <c r="K11" t="s">
         <v>2190</v>
@@ -38101,30 +38101,30 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>3065</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="332" t="s">
+      <c r="B22" s="334" t="s">
         <v>1253</v>
       </c>
-      <c r="C22" s="332"/>
+      <c r="C22" s="334"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="332" t="s">
+      <c r="F22" s="334" t="s">
         <v>1357</v>
       </c>
-      <c r="G22" s="332"/>
-      <c r="H22" s="332"/>
+      <c r="G22" s="334"/>
+      <c r="H22" s="334"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="332" t="s">
+      <c r="K22" s="334" t="s">
         <v>1255</v>
       </c>
-      <c r="L22" s="332"/>
-      <c r="M22" s="332"/>
+      <c r="L22" s="334"/>
+      <c r="M22" s="334"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -38146,7 +38146,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="106"/>
       <c r="B24" s="84" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="106"/>
@@ -38204,7 +38204,7 @@
       <c r="J26" s="106"/>
       <c r="K26" s="84"/>
       <c r="L26" s="176" t="s">
-        <v>3076</v>
+        <v>3066</v>
       </c>
       <c r="M26" s="75"/>
       <c r="N26" s="106"/>
@@ -38212,7 +38212,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="106"/>
       <c r="B27" s="84" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="106"/>
@@ -38226,7 +38226,7 @@
       <c r="J27" s="106"/>
       <c r="K27" s="84"/>
       <c r="L27" s="176" t="s">
-        <v>3077</v>
+        <v>3067</v>
       </c>
       <c r="M27" s="75"/>
       <c r="N27" s="106"/>
@@ -38234,7 +38234,7 @@
     <row r="28" spans="1:14">
       <c r="A28" s="106"/>
       <c r="B28" s="310" t="s">
-        <v>3077</v>
+        <v>3067</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="106"/>
@@ -38248,7 +38248,7 @@
       <c r="J28" s="106"/>
       <c r="K28" s="84"/>
       <c r="L28" s="176" t="s">
-        <v>3078</v>
+        <v>3068</v>
       </c>
       <c r="M28" s="75"/>
       <c r="N28" s="106"/>
@@ -38256,7 +38256,7 @@
     <row r="29" spans="1:14">
       <c r="A29" s="106"/>
       <c r="B29" s="310" t="s">
-        <v>3078</v>
+        <v>3068</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="106"/>
@@ -38292,7 +38292,7 @@
       <c r="J30" s="106"/>
       <c r="K30" s="84"/>
       <c r="L30" s="247" t="s">
-        <v>3076</v>
+        <v>3066</v>
       </c>
       <c r="M30" s="75"/>
       <c r="N30" s="106"/>
@@ -38300,7 +38300,7 @@
     <row r="31" spans="1:14" s="108" customFormat="1">
       <c r="A31" s="106"/>
       <c r="B31" s="84" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="106"/>
@@ -38330,7 +38330,7 @@
       <c r="J32" s="106"/>
       <c r="K32" s="84"/>
       <c r="L32" s="247" t="s">
-        <v>3076</v>
+        <v>3066</v>
       </c>
       <c r="M32" s="75"/>
       <c r="N32" s="106"/>
@@ -38366,7 +38366,7 @@
       <c r="J34" s="106"/>
       <c r="K34" s="84"/>
       <c r="L34" s="176" t="s">
-        <v>3077</v>
+        <v>3067</v>
       </c>
       <c r="M34" s="75"/>
       <c r="N34" s="106"/>
@@ -38384,7 +38384,7 @@
       <c r="J35" s="106"/>
       <c r="K35" s="84"/>
       <c r="L35" s="176" t="s">
-        <v>3078</v>
+        <v>3068</v>
       </c>
       <c r="M35" s="75"/>
       <c r="N35" s="106"/>
@@ -38440,10 +38440,10 @@
     </row>
     <row r="40" spans="1:16">
       <c r="F40" t="s">
-        <v>3079</v>
+        <v>3069</v>
       </c>
       <c r="H40" t="s">
-        <v>3080</v>
+        <v>3070</v>
       </c>
       <c r="L40" s="245"/>
       <c r="P40" t="s">
@@ -40512,7 +40512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
@@ -40529,13 +40529,13 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="B1" t="s">
-        <v>3082</v>
+        <v>3072</v>
       </c>
       <c r="C1" t="s">
         <v>2340</v>
       </c>
       <c r="F1" t="s">
-        <v>3082</v>
+        <v>3072</v>
       </c>
       <c r="G1" t="s">
         <v>2340</v>
@@ -40549,7 +40549,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>3081</v>
+        <v>3071</v>
       </c>
       <c r="B2" s="303">
         <v>0</v>
@@ -40675,84 +40675,84 @@
     </row>
     <row r="7" spans="1:31">
       <c r="M7" s="249" t="s">
-        <v>3140</v>
+        <v>3130</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="334" t="s">
-        <v>3083</v>
-      </c>
-      <c r="C8" s="334"/>
-      <c r="F8" s="334" t="s">
-        <v>3084</v>
-      </c>
-      <c r="G8" s="334"/>
-      <c r="I8" s="334" t="s">
-        <v>3084</v>
-      </c>
-      <c r="J8" s="334"/>
+      <c r="B8" s="336" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C8" s="336"/>
+      <c r="F8" s="336" t="s">
+        <v>3074</v>
+      </c>
+      <c r="G8" s="336"/>
+      <c r="I8" s="336" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J8" s="336"/>
       <c r="M8" s="249" t="s">
-        <v>3141</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="334" t="s">
-        <v>3085</v>
-      </c>
-      <c r="G9" s="334"/>
-      <c r="I9" s="334" t="s">
-        <v>3086</v>
-      </c>
-      <c r="J9" s="334"/>
+      <c r="F9" s="336" t="s">
+        <v>3075</v>
+      </c>
+      <c r="G9" s="336"/>
+      <c r="I9" s="336" t="s">
+        <v>3076</v>
+      </c>
+      <c r="J9" s="336"/>
       <c r="M9" s="337" t="s">
-        <v>3084</v>
+        <v>3074</v>
       </c>
       <c r="N9" s="337"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="M10" s="338" t="s">
-        <v>3087</v>
-      </c>
-      <c r="N10" s="338"/>
+      <c r="M10" s="315" t="s">
+        <v>3077</v>
+      </c>
+      <c r="N10" s="315"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="333" t="s">
-        <v>3088</v>
-      </c>
-      <c r="F11" s="333"/>
-      <c r="G11" s="333"/>
-      <c r="H11" s="333"/>
-      <c r="I11" s="333"/>
-      <c r="J11" s="333"/>
-      <c r="K11" s="333"/>
-      <c r="L11" s="333"/>
-      <c r="M11" s="333"/>
-      <c r="N11" s="333"/>
-      <c r="O11" s="333"/>
+      <c r="E11" s="335" t="s">
+        <v>3078</v>
+      </c>
+      <c r="F11" s="335"/>
+      <c r="G11" s="335"/>
+      <c r="H11" s="335"/>
+      <c r="I11" s="335"/>
+      <c r="J11" s="335"/>
+      <c r="K11" s="335"/>
+      <c r="L11" s="335"/>
+      <c r="M11" s="335"/>
+      <c r="N11" s="335"/>
+      <c r="O11" s="335"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>3089</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>3090</v>
+        <v>3080</v>
       </c>
       <c r="F13" t="s">
-        <v>3091</v>
+        <v>3081</v>
       </c>
       <c r="H13" t="s">
-        <v>3092</v>
+        <v>3082</v>
       </c>
       <c r="J13" t="s">
-        <v>3093</v>
+        <v>3083</v>
       </c>
       <c r="L13" t="s">
-        <v>3094</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -40884,10 +40884,10 @@
     </row>
     <row r="19" spans="1:32">
       <c r="C19" t="s">
-        <v>3095</v>
+        <v>3085</v>
       </c>
       <c r="F19" t="s">
-        <v>3096</v>
+        <v>3086</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="43"/>
@@ -40926,7 +40926,7 @@
         <v>414</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>3097</v>
+        <v>3087</v>
       </c>
       <c r="M20" s="175"/>
       <c r="N20" s="27"/>
@@ -41095,7 +41095,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="F26" s="56" t="s">
-        <v>3098</v>
+        <v>3088</v>
       </c>
       <c r="G26" s="56"/>
       <c r="M26" s="27"/>
@@ -41120,7 +41120,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="H27" t="s">
-        <v>3112</v>
+        <v>3102</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -41144,10 +41144,10 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>3099</v>
+        <v>3089</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>3100</v>
+        <v>3090</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -41171,7 +41171,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="43" t="s">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -41195,16 +41195,16 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1">
       <c r="E30" t="s">
-        <v>3110</v>
+        <v>3100</v>
       </c>
       <c r="G30" s="160" t="s">
-        <v>3102</v>
+        <v>3092</v>
       </c>
       <c r="I30" t="s">
-        <v>3109</v>
+        <v>3099</v>
       </c>
       <c r="K30" t="s">
-        <v>3108</v>
+        <v>3098</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -41229,7 +41229,7 @@
     <row r="31" spans="1:32">
       <c r="E31" s="26"/>
       <c r="G31" s="43" t="s">
-        <v>3103</v>
+        <v>3093</v>
       </c>
       <c r="I31" s="26"/>
       <c r="K31" s="26"/>
@@ -41255,13 +41255,13 @@
     </row>
     <row r="32" spans="1:32">
       <c r="E32" s="313" t="s">
-        <v>3102</v>
+        <v>3092</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>3104</v>
+        <v>3094</v>
       </c>
       <c r="I32" s="313" t="s">
-        <v>3102</v>
+        <v>3092</v>
       </c>
       <c r="K32" s="313"/>
       <c r="M32" s="27"/>
@@ -41290,7 +41290,7 @@
     <row r="33" spans="1:32">
       <c r="E33" s="313"/>
       <c r="G33" s="43" t="s">
-        <v>3105</v>
+        <v>3095</v>
       </c>
       <c r="I33" s="313"/>
       <c r="K33" s="313"/>
@@ -41320,7 +41320,7 @@
     <row r="34" spans="1:32">
       <c r="E34" s="313"/>
       <c r="G34" s="43" t="s">
-        <v>3106</v>
+        <v>3096</v>
       </c>
       <c r="I34" s="313"/>
       <c r="K34" s="313"/>
@@ -41347,7 +41347,7 @@
     <row r="35" spans="1:32" ht="15.75" thickBot="1">
       <c r="E35" s="213"/>
       <c r="G35" s="43" t="s">
-        <v>3107</v>
+        <v>3097</v>
       </c>
       <c r="I35" s="213"/>
       <c r="K35" s="213"/>
@@ -41394,7 +41394,7 @@
     </row>
     <row r="37" spans="1:32">
       <c r="C37" t="s">
-        <v>3111</v>
+        <v>3101</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -41418,12 +41418,12 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>3113</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="40" spans="1:32">
       <c r="M40" t="s">
-        <v>3119</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -41501,7 +41501,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>3116</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -41541,7 +41541,7 @@
         <v>99999999</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>3114</v>
+        <v>3104</v>
       </c>
       <c r="G45">
         <v>99999999</v>
@@ -41561,7 +41561,7 @@
         <v>10000000</v>
       </c>
       <c r="C46" s="131" t="s">
-        <v>3114</v>
+        <v>3104</v>
       </c>
       <c r="D46">
         <v>10000000</v>
@@ -41570,7 +41570,7 @@
         <v>10000000</v>
       </c>
       <c r="H46" s="131" t="s">
-        <v>3114</v>
+        <v>3104</v>
       </c>
       <c r="I46">
         <v>10000000</v>
@@ -41581,15 +41581,15 @@
     </row>
     <row r="47" spans="1:32">
       <c r="J47" s="131" t="s">
-        <v>3114</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="48" spans="1:32">
       <c r="C48" t="s">
-        <v>3096</v>
+        <v>3086</v>
       </c>
       <c r="H48" t="s">
-        <v>3115</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -41753,7 +41753,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="56" t="s">
-        <v>3117</v>
+        <v>3107</v>
       </c>
       <c r="B62" s="56"/>
       <c r="N62" s="27"/>
@@ -41875,7 +41875,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="56" t="s">
-        <v>3118</v>
+        <v>3108</v>
       </c>
       <c r="B69" s="56"/>
       <c r="N69" s="27"/>
@@ -41950,10 +41950,10 @@
         <v>1911</v>
       </c>
       <c r="C72" s="197" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="E72" s="197" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="F72" t="s">
         <v>2510</v>
@@ -41996,7 +41996,7 @@
         <v>1911</v>
       </c>
       <c r="D75" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="E75" s="197" t="s">
         <v>2510</v>
@@ -42004,7 +42004,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="B77" t="s">
-        <v>3142</v>
+        <v>3132</v>
       </c>
       <c r="C77" t="s">
         <v>2333</v>
@@ -42018,7 +42018,7 @@
         <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>3143</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -42029,7 +42029,7 @@
         <v>80</v>
       </c>
       <c r="F79" t="s">
-        <v>3144</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -42040,7 +42040,7 @@
         <v>20</v>
       </c>
       <c r="L80" t="s">
-        <v>3149</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="81" spans="2:12">
@@ -42054,7 +42054,7 @@
         <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>3145</v>
+        <v>3135</v>
       </c>
       <c r="K81" t="s">
         <v>50</v>
@@ -42067,7 +42067,7 @@
       <c r="B82" s="309"/>
       <c r="C82" s="309"/>
       <c r="F82" t="s">
-        <v>3146</v>
+        <v>3136</v>
       </c>
       <c r="L82" s="309" t="s">
         <v>526</v>
@@ -42083,7 +42083,7 @@
     </row>
     <row r="84" spans="2:12">
       <c r="G84" t="s">
-        <v>3147</v>
+        <v>3137</v>
       </c>
       <c r="L84" s="309" t="s">
         <v>1761</v>
@@ -42094,7 +42094,7 @@
         <v>51</v>
       </c>
       <c r="G85" t="s">
-        <v>3148</v>
+        <v>3138</v>
       </c>
       <c r="L85">
         <v>50</v>
@@ -44050,7 +44050,7 @@
   <sheetData>
     <row r="2" spans="1:21">
       <c r="A2" s="27" t="s">
-        <v>3120</v>
+        <v>3110</v>
       </c>
       <c r="E2" s="121" t="s">
         <v>551</v>
@@ -44062,11 +44062,11 @@
       <c r="H2" s="256"/>
       <c r="I2" s="256"/>
       <c r="J2" s="256"/>
-      <c r="K2" s="336" t="s">
+      <c r="K2" s="314" t="s">
         <v>415</v>
       </c>
       <c r="L2" s="121" t="s">
-        <v>3124</v>
+        <v>3114</v>
       </c>
       <c r="M2" s="122" t="s">
         <v>1155</v>
@@ -44074,7 +44074,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="27" t="s">
-        <v>3121</v>
+        <v>3111</v>
       </c>
       <c r="E3" s="186" t="s">
         <v>552</v>
@@ -44092,7 +44092,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="27" t="s">
-        <v>3122</v>
+        <v>3112</v>
       </c>
       <c r="E4" s="186" t="s">
         <v>712</v>
@@ -44105,7 +44105,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="117" t="s">
-        <v>3123</v>
+        <v>3113</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="186" t="s">
@@ -44120,10 +44120,10 @@
         <v>1954</v>
       </c>
       <c r="L5" s="121" t="s">
-        <v>3124</v>
+        <v>3114</v>
       </c>
       <c r="M5" s="122" t="s">
-        <v>3125</v>
+        <v>3115</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -44145,7 +44145,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="27" t="s">
-        <v>3127</v>
+        <v>3117</v>
       </c>
       <c r="E7" s="186"/>
       <c r="K7" s="117"/>
@@ -44163,10 +44163,10 @@
         <v>2635</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>3124</v>
+        <v>3114</v>
       </c>
       <c r="M8" s="122" t="s">
-        <v>3126</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -44205,7 +44205,7 @@
         <v>2634</v>
       </c>
       <c r="L11" s="121" t="s">
-        <v>3124</v>
+        <v>3114</v>
       </c>
       <c r="M11" s="122" t="s">
         <v>1155</v>
@@ -44214,7 +44214,7 @@
     <row r="12" spans="1:21">
       <c r="E12" s="186"/>
       <c r="G12" s="27" t="s">
-        <v>3130</v>
+        <v>3120</v>
       </c>
       <c r="K12" s="117"/>
       <c r="L12" s="123" t="s">
@@ -44226,45 +44226,45 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="38" t="s">
-        <v>3129</v>
+        <v>3119</v>
       </c>
       <c r="E13" s="186" t="s">
         <v>2432</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>3128</v>
+        <v>3118</v>
       </c>
       <c r="G13" s="132">
         <v>1</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>3137</v>
+        <v>3127</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>3138</v>
+        <v>3128</v>
       </c>
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="38" t="s">
-        <v>3132</v>
+        <v>3122</v>
       </c>
       <c r="C14" s="277" t="s">
-        <v>3131</v>
+        <v>3121</v>
       </c>
       <c r="E14" s="186"/>
       <c r="G14" s="132">
         <v>2</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>3139</v>
+        <v>3129</v>
       </c>
       <c r="I14" s="43"/>
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="38" t="s">
-        <v>3133</v>
+        <v>3123</v>
       </c>
       <c r="E15" s="186"/>
       <c r="G15" s="132"/>
@@ -44274,7 +44274,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="38" t="s">
-        <v>3134</v>
+        <v>3124</v>
       </c>
       <c r="E16" s="123"/>
       <c r="F16" s="257"/>
@@ -44288,7 +44288,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="38" t="s">
-        <v>3135</v>
+        <v>3125</v>
       </c>
       <c r="C17" s="27">
         <f>1</f>
@@ -44297,7 +44297,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="38" t="s">
-        <v>3136</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -44491,11 +44491,11 @@
       <c r="L6" s="43" t="s">
         <v>1529</v>
       </c>
-      <c r="M6" s="335" t="s">
+      <c r="M6" s="338" t="s">
         <v>1530</v>
       </c>
-      <c r="N6" s="335"/>
-      <c r="O6" s="335"/>
+      <c r="N6" s="338"/>
+      <c r="O6" s="338"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -46097,29 +46097,29 @@
     </row>
     <row r="139" spans="2:16">
       <c r="D139" t="s">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="J139" t="s">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="P139" t="s">
-        <v>2672</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="141" spans="2:16">
       <c r="D141" t="s">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="J141" t="s">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="P141" t="s">
-        <v>2655</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="142" spans="2:16">
       <c r="D142" t="s">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="J142" t="s">
         <v>2217</v>
@@ -46130,7 +46130,7 @@
     </row>
     <row r="143" spans="2:16">
       <c r="D143" t="s">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="G143" t="s">
         <v>1839</v>
@@ -46143,28 +46143,28 @@
     </row>
     <row r="145" spans="2:19">
       <c r="B145" t="s">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="D145" t="s">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="G145" t="s">
         <v>1606</v>
       </c>
       <c r="J145" t="s">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="P145" t="s">
-        <v>2666</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="148" spans="2:19">
       <c r="D148" s="197" t="s">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="E148" s="29"/>
       <c r="J148" s="197" t="s">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="K148" s="197"/>
       <c r="P148" s="197" t="s">
@@ -46174,10 +46174,10 @@
     </row>
     <row r="150" spans="2:19">
       <c r="D150" t="s">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="J150" t="s">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="P150" t="s">
         <v>1841</v>
@@ -46185,19 +46185,19 @@
     </row>
     <row r="151" spans="2:19">
       <c r="D151" s="108" t="s">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="E151" s="108"/>
       <c r="F151" s="108"/>
       <c r="G151" s="108"/>
       <c r="J151" s="108" t="s">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="K151" s="108"/>
       <c r="L151" s="108"/>
       <c r="M151" s="108"/>
       <c r="P151" s="108" t="s">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="Q151" s="108"/>
       <c r="R151" s="108"/>
@@ -46208,15 +46208,15 @@
         <v>1821</v>
       </c>
       <c r="C153" t="s">
-        <v>2657</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="154" spans="2:19">
       <c r="B154" t="s">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="D154" t="s">
-        <v>2659</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="155" spans="2:19">
@@ -46224,7 +46224,7 @@
         <v>44</v>
       </c>
       <c r="D155" t="s">
-        <v>2660</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="156" spans="2:19">
@@ -46232,7 +46232,7 @@
         <v>45</v>
       </c>
       <c r="D156" t="s">
-        <v>2661</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="207" spans="4:11">
@@ -46289,20 +46289,20 @@
     </row>
     <row r="209" spans="4:15">
       <c r="D209" s="132" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="E209" s="132" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="F209" s="132"/>
       <c r="G209" s="132"/>
       <c r="H209" s="132"/>
       <c r="I209" s="132"/>
       <c r="J209" s="132" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="K209" s="132" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="N209">
         <v>1</v>
@@ -46373,7 +46373,7 @@
         <v>0</v>
       </c>
       <c r="M212" t="s">
-        <v>2937</v>
+        <v>2927</v>
       </c>
       <c r="N212" s="74">
         <v>8</v>
@@ -46393,7 +46393,7 @@
         <v>0</v>
       </c>
       <c r="M213" t="s">
-        <v>2938</v>
+        <v>2928</v>
       </c>
       <c r="N213" s="74">
         <v>14</v>
@@ -46413,7 +46413,7 @@
         <v>0</v>
       </c>
       <c r="M214" t="s">
-        <v>2939</v>
+        <v>2929</v>
       </c>
       <c r="N214" s="74">
         <v>6</v>
@@ -46421,7 +46421,7 @@
     </row>
     <row r="217" spans="4:15">
       <c r="N217" t="s">
-        <v>2940</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="246" spans="3:14" ht="15.75" thickBot="1"/>
@@ -47031,28 +47031,28 @@
     </row>
     <row r="184" spans="3:14">
       <c r="C184" t="s">
-        <v>2673</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="185" spans="3:14">
       <c r="D185" t="s">
-        <v>2674</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="186" spans="3:14">
       <c r="D186" t="s">
-        <v>2675</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="187" spans="3:14">
       <c r="D187" t="s">
-        <v>2676</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="188" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="189" spans="3:14">
       <c r="C189" s="30" t="s">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="D189" s="31"/>
       <c r="E189" s="32"/>
@@ -47080,7 +47080,7 @@
         <v>189</v>
       </c>
       <c r="J190" s="34" t="s">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="L190" s="33"/>
       <c r="M190" s="27" t="s">
@@ -47096,7 +47096,7 @@
         <v>2260</v>
       </c>
       <c r="E191" s="34" t="s">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="H191" s="33"/>
       <c r="I191" s="27" t="s">
@@ -47110,7 +47110,7 @@
         <v>179</v>
       </c>
       <c r="N191" s="34" t="s">
-        <v>2681</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="192" spans="3:14">
@@ -47119,7 +47119,7 @@
         <v>190</v>
       </c>
       <c r="E192" s="34" t="s">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="F192" t="s">
         <v>2268</v>
@@ -47136,16 +47136,16 @@
         <v>189</v>
       </c>
       <c r="N192" s="34" t="s">
-        <v>2682</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="193" spans="3:14">
       <c r="C193" s="33"/>
       <c r="D193" s="38" t="s">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="E193" s="34" t="s">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="H193" s="33"/>
       <c r="I193" s="38" t="s">
@@ -47159,7 +47159,7 @@
         <v>189</v>
       </c>
       <c r="N193" s="34" t="s">
-        <v>2683</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="194" spans="3:14">
@@ -47213,7 +47213,7 @@
     <row r="199" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="200" spans="3:14">
       <c r="C200" s="30" t="s">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="D200" s="31"/>
       <c r="E200" s="32"/>
@@ -47229,14 +47229,14 @@
       <c r="C202" s="33"/>
       <c r="D202" s="38"/>
       <c r="E202" s="34" t="s">
-        <v>2688</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="203" spans="3:14">
       <c r="C203" s="33"/>
       <c r="D203" s="27"/>
       <c r="E203" s="34" t="s">
-        <v>2689</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="204" spans="3:14">
@@ -47266,37 +47266,37 @@
     </row>
     <row r="211" spans="2:15">
       <c r="B211" t="s">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="C211" t="s">
-        <v>2693</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="212" spans="2:15">
       <c r="E212" t="s">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="J212" t="s">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="O212" t="s">
-        <v>2672</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="213" spans="2:15">
       <c r="E213" t="s">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="J213" t="s">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="O213" t="s">
-        <v>2691</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="214" spans="2:15">
       <c r="E214" t="s">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="J214" t="s">
         <v>1458</v>
@@ -47310,44 +47310,44 @@
         <v>1839</v>
       </c>
       <c r="E215" t="s">
-        <v>2701</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="217" spans="2:15">
       <c r="E217" s="255" t="s">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="F217" s="255"/>
     </row>
     <row r="218" spans="2:15">
       <c r="B218" t="s">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="D218" t="s">
         <v>1606</v>
       </c>
       <c r="E218" t="s">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="I218" t="s">
         <v>1606</v>
       </c>
       <c r="J218" t="s">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="N218" t="s">
         <v>1606</v>
       </c>
       <c r="O218" t="s">
-        <v>2702</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="221" spans="2:15">
       <c r="B221" t="s">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="E221" s="255" t="s">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="F221" s="255"/>
       <c r="J221" s="255" t="s">
@@ -47359,7 +47359,7 @@
     </row>
     <row r="222" spans="2:15">
       <c r="E222" t="s">
-        <v>2699</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="223" spans="2:15">
@@ -47367,7 +47367,7 @@
         <v>1840</v>
       </c>
       <c r="J223" t="s">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="O223" t="s">
         <v>1841</v>
@@ -47375,22 +47375,22 @@
     </row>
     <row r="225" spans="2:12">
       <c r="B225" t="s">
-        <v>2694</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="226" spans="2:12">
       <c r="B226" t="s">
-        <v>2695</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="227" spans="2:12">
       <c r="B227" t="s">
-        <v>2697</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="228" spans="2:12">
       <c r="B228" t="s">
-        <v>2698</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="230" spans="2:12">
@@ -47400,34 +47400,34 @@
     </row>
     <row r="231" spans="2:12">
       <c r="E231" t="s">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="J231" t="s">
-        <v>2673</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="232" spans="2:12">
       <c r="E232" t="s">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="K232" t="s">
-        <v>2710</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="233" spans="2:12">
       <c r="E233" t="s">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="K233" t="s">
-        <v>2711</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="234" spans="2:12">
       <c r="E234" t="s">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="K234" t="s">
-        <v>2712</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="236" spans="2:12">
@@ -47437,17 +47437,17 @@
     </row>
     <row r="237" spans="2:12">
       <c r="E237" t="s">
-        <v>2708</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="238" spans="2:12">
       <c r="E238" t="s">
-        <v>2709</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="240" spans="2:12">
       <c r="B240" s="121" t="s">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="C240" s="256"/>
       <c r="D240" s="122"/>
@@ -47475,7 +47475,7 @@
         <v>182</v>
       </c>
       <c r="H241" s="76" t="s">
-        <v>2716</v>
+        <v>2706</v>
       </c>
       <c r="J241" s="186"/>
       <c r="K241" s="27" t="s">
@@ -47491,21 +47491,21 @@
         <v>190</v>
       </c>
       <c r="D242" s="76" t="s">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="F242" s="186"/>
       <c r="G242" s="27" t="s">
         <v>186</v>
       </c>
       <c r="H242" s="76" t="s">
-        <v>2717</v>
+        <v>2707</v>
       </c>
       <c r="J242" s="186"/>
       <c r="K242" s="27" t="s">
         <v>179</v>
       </c>
       <c r="L242" s="76" t="s">
-        <v>2718</v>
+        <v>2708</v>
       </c>
       <c r="M242" s="40"/>
       <c r="N242">
@@ -47518,7 +47518,7 @@
         <v>182</v>
       </c>
       <c r="D243" s="76" t="s">
-        <v>2713</v>
+        <v>2703</v>
       </c>
       <c r="F243" s="186"/>
       <c r="G243" s="27" t="s">
@@ -47532,7 +47532,7 @@
         <v>189</v>
       </c>
       <c r="L243" s="76" t="s">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="N243">
         <v>32767</v>
@@ -47544,7 +47544,7 @@
         <v>188</v>
       </c>
       <c r="D244" s="76" t="s">
-        <v>2714</v>
+        <v>2704</v>
       </c>
       <c r="F244" s="186"/>
       <c r="G244" s="38" t="s">
@@ -47558,7 +47558,7 @@
         <v>189</v>
       </c>
       <c r="L244" s="76" t="s">
-        <v>2683</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -47567,7 +47567,7 @@
         <v>2260</v>
       </c>
       <c r="D245" s="76" t="s">
-        <v>2715</v>
+        <v>2705</v>
       </c>
       <c r="F245" s="186"/>
       <c r="G245" s="38" t="s">
@@ -47589,7 +47589,7 @@
         <v>2117</v>
       </c>
       <c r="D246" s="76" t="s">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="F246" s="186"/>
       <c r="G246" s="38" t="s">
@@ -47605,10 +47605,10 @@
         <v>179</v>
       </c>
       <c r="P246" t="s">
-        <v>2727</v>
+        <v>2717</v>
       </c>
       <c r="Q246" t="s">
-        <v>2731</v>
+        <v>2721</v>
       </c>
       <c r="R246">
         <v>127</v>
@@ -47628,13 +47628,13 @@
         <v>189</v>
       </c>
       <c r="P247" t="s">
-        <v>2728</v>
+        <v>2718</v>
       </c>
       <c r="Q247" t="s">
-        <v>2732</v>
+        <v>2722</v>
       </c>
       <c r="R247" t="s">
-        <v>2737</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -47645,13 +47645,13 @@
         <v>186</v>
       </c>
       <c r="P248" t="s">
-        <v>2729</v>
+        <v>2719</v>
       </c>
       <c r="Q248" t="s">
-        <v>2733</v>
+        <v>2723</v>
       </c>
       <c r="R248" t="s">
-        <v>2734</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -47662,13 +47662,13 @@
         <v>190</v>
       </c>
       <c r="P249" t="s">
-        <v>2730</v>
+        <v>2720</v>
       </c>
       <c r="Q249" t="s">
-        <v>2735</v>
+        <v>2725</v>
       </c>
       <c r="R249" t="s">
-        <v>2736</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -47699,7 +47699,7 @@
     </row>
     <row r="251" spans="1:18">
       <c r="A251" s="27" t="s">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="F251" s="27" t="s">
         <v>37</v>
@@ -47731,20 +47731,20 @@
     </row>
     <row r="252" spans="1:18">
       <c r="G252" s="132" t="s">
-        <v>2719</v>
+        <v>2709</v>
       </c>
       <c r="H252" s="132" t="s">
-        <v>2720</v>
+        <v>2710</v>
       </c>
       <c r="I252" s="132"/>
       <c r="J252" s="132"/>
       <c r="K252" s="132"/>
       <c r="L252" s="132"/>
       <c r="M252" s="132" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="N252" s="132" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -47777,39 +47777,39 @@
       </c>
       <c r="O253" s="249"/>
       <c r="P253" t="s">
-        <v>2718</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="255" spans="1:18">
       <c r="G255" t="s">
-        <v>2722</v>
+        <v>2712</v>
       </c>
       <c r="J255" t="s">
         <v>179</v>
       </c>
       <c r="K255" t="s">
-        <v>2721</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="256" spans="1:18">
       <c r="G256" t="s">
-        <v>2723</v>
+        <v>2713</v>
       </c>
       <c r="J256" t="s">
         <v>179</v>
       </c>
       <c r="K256" t="s">
-        <v>2725</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="257" spans="3:16">
       <c r="G257" t="s">
-        <v>2724</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="258" spans="3:16">
       <c r="J258" t="s">
-        <v>2726</v>
+        <v>2716</v>
       </c>
       <c r="N258">
         <v>127</v>
@@ -47818,7 +47818,7 @@
     <row r="261" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="262" spans="3:16">
       <c r="C262" s="30" t="s">
-        <v>2738</v>
+        <v>2728</v>
       </c>
       <c r="D262" s="31"/>
       <c r="E262" s="31"/>
@@ -47853,7 +47853,7 @@
         <v>414</v>
       </c>
       <c r="F264" s="175" t="s">
-        <v>2743</v>
+        <v>2733</v>
       </c>
       <c r="G264" s="207"/>
       <c r="H264" s="170"/>
@@ -47873,7 +47873,7 @@
       <c r="D265" s="27"/>
       <c r="E265" s="27"/>
       <c r="F265" s="143" t="s">
-        <v>2744</v>
+        <v>2734</v>
       </c>
       <c r="G265" s="259"/>
       <c r="L265" s="33"/>
@@ -47898,7 +47898,7 @@
       <c r="C267" s="33"/>
       <c r="D267" s="27"/>
       <c r="E267" s="27" t="s">
-        <v>2751</v>
+        <v>2741</v>
       </c>
       <c r="F267" s="27"/>
       <c r="G267" s="34"/>
@@ -47915,7 +47915,7 @@
       <c r="F268" s="27"/>
       <c r="G268" s="34"/>
       <c r="H268" s="29" t="s">
-        <v>2739</v>
+        <v>2729</v>
       </c>
       <c r="I268" s="29"/>
       <c r="J268" s="29"/>
@@ -47930,16 +47930,16 @@
       <c r="C269" s="33"/>
       <c r="D269" s="27"/>
       <c r="E269" s="27" t="s">
-        <v>2740</v>
+        <v>2730</v>
       </c>
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="325" t="s">
-        <v>2749</v>
+      <c r="G269" s="327" t="s">
+        <v>2739</v>
       </c>
       <c r="I269" s="56" t="s">
-        <v>2742</v>
+        <v>2732</v>
       </c>
       <c r="L269" s="33"/>
       <c r="M269" s="27"/>
@@ -47951,14 +47951,14 @@
       <c r="C270" s="33"/>
       <c r="D270" s="27"/>
       <c r="E270" s="27" t="s">
-        <v>2741</v>
+        <v>2731</v>
       </c>
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="326"/>
+      <c r="G270" s="328"/>
       <c r="I270" s="170" t="s">
-        <v>2745</v>
+        <v>2735</v>
       </c>
       <c r="J270" s="170"/>
       <c r="L270" s="33"/>
@@ -47973,10 +47973,10 @@
       <c r="E271" s="27"/>
       <c r="F271" s="27"/>
       <c r="G271" s="259" t="s">
-        <v>2750</v>
+        <v>2740</v>
       </c>
       <c r="I271" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
       <c r="L271" s="33"/>
       <c r="M271" s="27"/>
@@ -47991,7 +47991,7 @@
       <c r="F272" s="27"/>
       <c r="G272" s="34"/>
       <c r="I272" t="s">
-        <v>2747</v>
+        <v>2737</v>
       </c>
       <c r="L272" s="33"/>
       <c r="M272" s="27"/>
@@ -48006,7 +48006,7 @@
       <c r="F273" s="27"/>
       <c r="G273" s="34"/>
       <c r="I273" t="s">
-        <v>2748</v>
+        <v>2738</v>
       </c>
       <c r="L273" s="33"/>
       <c r="M273" s="27"/>
@@ -48040,23 +48040,23 @@
     </row>
     <row r="282" spans="3:16" ht="18">
       <c r="C282" s="283" t="s">
-        <v>2913</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="283" spans="3:16" ht="18">
       <c r="D283" s="283" t="s">
-        <v>2914</v>
+        <v>2904</v>
       </c>
       <c r="N283" t="s">
-        <v>2921</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="284" spans="3:16" ht="18">
       <c r="D284" s="284" t="s">
-        <v>2915</v>
+        <v>2905</v>
       </c>
       <c r="N284" t="s">
-        <v>2920</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="286" spans="3:16">
@@ -48113,20 +48113,20 @@
     </row>
     <row r="288" spans="3:16">
       <c r="C288" s="132" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="D288" s="132" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="E288" s="132"/>
       <c r="F288" s="132"/>
       <c r="G288" s="132"/>
       <c r="H288" s="132"/>
       <c r="I288" s="132" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="J288" s="132" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="289" spans="3:14">
@@ -48194,10 +48194,10 @@
         <v>0</v>
       </c>
       <c r="K292" s="57" t="s">
-        <v>2916</v>
+        <v>2906</v>
       </c>
       <c r="L292" t="s">
-        <v>2917</v>
+        <v>2907</v>
       </c>
       <c r="N292">
         <v>4</v>
@@ -48219,7 +48219,7 @@
         <v>1</v>
       </c>
       <c r="K293" s="57" t="s">
-        <v>2918</v>
+        <v>2908</v>
       </c>
       <c r="N293">
         <v>5</v>
@@ -48241,7 +48241,7 @@
         <v>1</v>
       </c>
       <c r="K294" s="57" t="s">
-        <v>2919</v>
+        <v>2909</v>
       </c>
       <c r="N294">
         <v>1</v>
@@ -48260,15 +48260,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -48618,7 +48619,7 @@
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>2638</v>
+        <v>3140</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>2266</v>
@@ -48633,7 +48634,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
-        <v>2640</v>
+        <v>3142</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="27" t="s">
@@ -48658,7 +48659,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="B32" t="s">
-        <v>2641</v>
+        <v>3143</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="27" t="s">
@@ -48683,7 +48684,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="C33" t="s">
-        <v>2643</v>
+        <v>3148</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="27" t="s">
@@ -48708,7 +48709,10 @@
     </row>
     <row r="34" spans="1:15">
       <c r="C34" t="s">
-        <v>2644</v>
+        <v>3144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>368</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="38" t="s">
@@ -48730,7 +48734,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="D35" t="s">
-        <v>2646</v>
+        <v>3146</v>
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
@@ -48748,22 +48752,23 @@
     </row>
     <row r="36" spans="1:15">
       <c r="D36" t="s">
-        <v>2647</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>3141</v>
+      </c>
       <c r="C37" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="B38" t="s">
-        <v>2642</v>
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3145</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" t="s">
-        <v>2639</v>
+      <c r="B39" t="s">
+        <v>3149</v>
       </c>
       <c r="C39" s="40"/>
     </row>
@@ -49534,27 +49539,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="328" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="I1" s="328" t="s">
-        <v>2840</v>
-      </c>
-      <c r="J1" s="328"/>
-      <c r="K1" s="328"/>
-      <c r="L1" s="328"/>
-      <c r="M1" s="328"/>
-      <c r="N1" s="328"/>
-      <c r="O1" s="328"/>
+      <c r="A1" s="330" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="I1" s="330" t="s">
+        <v>2830</v>
+      </c>
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="330"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>2826</v>
+        <v>2816</v>
       </c>
       <c r="I2" t="s">
         <v>364</v>
@@ -49565,16 +49570,16 @@
         <v>368</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>2841</v>
+        <v>2831</v>
       </c>
       <c r="J3" t="s">
         <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>2829</v>
+        <v>2819</v>
       </c>
       <c r="L3" t="s">
-        <v>2830</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -49588,13 +49593,13 @@
         <v>225</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>2827</v>
+        <v>2817</v>
       </c>
       <c r="F4" s="152" t="s">
-        <v>2843</v>
+        <v>2833</v>
       </c>
       <c r="G4" s="267" t="s">
-        <v>2844</v>
+        <v>2834</v>
       </c>
       <c r="J4" t="s">
         <v>368</v>
@@ -49608,7 +49613,7 @@
         <v>380</v>
       </c>
       <c r="K5" t="s">
-        <v>2831</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -49616,16 +49621,16 @@
         <v>1709</v>
       </c>
       <c r="F6" t="s">
-        <v>2895</v>
+        <v>2885</v>
       </c>
       <c r="K6" s="162" t="s">
-        <v>2832</v>
+        <v>2822</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>295</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>2833</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -49634,10 +49639,10 @@
       </c>
       <c r="D7" s="108"/>
       <c r="F7" t="s">
-        <v>2892</v>
+        <v>2882</v>
       </c>
       <c r="K7" s="266" t="s">
-        <v>2834</v>
+        <v>2824</v>
       </c>
       <c r="L7" s="57" t="s">
         <v>295</v>
@@ -49651,16 +49656,16 @@
         <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>2894</v>
+        <v>2884</v>
       </c>
       <c r="K8" s="268" t="s">
-        <v>2845</v>
+        <v>2835</v>
       </c>
       <c r="L8" s="57" t="s">
         <v>295</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>2846</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -49668,28 +49673,28 @@
         <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>2893</v>
+        <v>2883</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>2835</v>
+        <v>2825</v>
       </c>
       <c r="L9" s="57" t="s">
         <v>295</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>2836</v>
+        <v>2826</v>
       </c>
       <c r="N9" s="162" t="s">
-        <v>2837</v>
+        <v>2827</v>
       </c>
       <c r="O9" s="266" t="s">
-        <v>2838</v>
+        <v>2828</v>
       </c>
       <c r="P9" s="268" t="s">
         <v>1262</v>
       </c>
       <c r="Q9" s="57" t="s">
-        <v>2839</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -49697,7 +49702,7 @@
         <v>146</v>
       </c>
       <c r="M10" s="125" t="s">
-        <v>2857</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
@@ -49706,32 +49711,32 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="321" t="s">
-        <v>2842</v>
-      </c>
-      <c r="B12" s="327"/>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="327"/>
-      <c r="G12" s="327"/>
-      <c r="H12" s="322"/>
-      <c r="I12" s="321" t="s">
-        <v>2842</v>
-      </c>
-      <c r="J12" s="327"/>
-      <c r="K12" s="327"/>
-      <c r="L12" s="327"/>
-      <c r="M12" s="327"/>
-      <c r="N12" s="327"/>
-      <c r="O12" s="327"/>
-      <c r="P12" s="327"/>
-      <c r="Q12" s="327"/>
-      <c r="R12" s="322"/>
+      <c r="A12" s="323" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B12" s="329"/>
+      <c r="C12" s="329"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
+      <c r="F12" s="329"/>
+      <c r="G12" s="329"/>
+      <c r="H12" s="324"/>
+      <c r="I12" s="323" t="s">
+        <v>2832</v>
+      </c>
+      <c r="J12" s="329"/>
+      <c r="K12" s="329"/>
+      <c r="L12" s="329"/>
+      <c r="M12" s="329"/>
+      <c r="N12" s="329"/>
+      <c r="O12" s="329"/>
+      <c r="P12" s="329"/>
+      <c r="Q12" s="329"/>
+      <c r="R12" s="324"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
-        <v>2891</v>
+        <v>2881</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -49741,13 +49746,13 @@
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="33" t="s">
-        <v>2897</v>
+        <v>2887</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27" t="s">
-        <v>2849</v>
+        <v>2839</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
@@ -49758,24 +49763,24 @@
     <row r="14" spans="1:18">
       <c r="A14" s="33"/>
       <c r="B14" s="27" t="s">
-        <v>2860</v>
+        <v>2850</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>2859</v>
+        <v>2849</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="34"/>
       <c r="I14" s="33" t="s">
-        <v>2898</v>
+        <v>2888</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27" t="s">
-        <v>2847</v>
+        <v>2837</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
@@ -49789,18 +49794,18 @@
         <v>1621</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>2862</v>
+        <v>2852</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>2863</v>
+        <v>2853</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="34"/>
       <c r="I15" s="33"/>
       <c r="J15" s="27" t="s">
-        <v>2850</v>
+        <v>2840</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -49814,21 +49819,21 @@
     <row r="16" spans="1:18">
       <c r="A16" s="33"/>
       <c r="B16" s="27" t="s">
-        <v>2843</v>
+        <v>2833</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>2864</v>
+        <v>2854</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>2865</v>
+        <v>2855</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="34"/>
       <c r="I16" s="33"/>
       <c r="J16" s="27" t="s">
-        <v>2851</v>
+        <v>2841</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
@@ -49842,26 +49847,26 @@
     <row r="17" spans="1:18">
       <c r="A17" s="33"/>
       <c r="B17" s="38" t="s">
-        <v>2866</v>
+        <v>2856</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>2867</v>
+        <v>2857</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="38" t="s">
-        <v>2868</v>
+        <v>2858</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="34"/>
       <c r="I17" s="33" t="s">
-        <v>2899</v>
+        <v>2889</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27" t="s">
-        <v>2848</v>
+        <v>2838</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
@@ -49871,7 +49876,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="33" t="s">
-        <v>2854</v>
+        <v>2844</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -49881,7 +49886,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>2852</v>
+        <v>2842</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -49896,7 +49901,7 @@
     <row r="19" spans="1:18">
       <c r="A19" s="33"/>
       <c r="B19" s="27" t="s">
-        <v>2858</v>
+        <v>2848</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -49906,7 +49911,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="33"/>
       <c r="J19" s="27" t="s">
-        <v>2853</v>
+        <v>2843</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -49919,7 +49924,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="33" t="s">
-        <v>2855</v>
+        <v>2845</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -49935,7 +49940,7 @@
     <row r="21" spans="1:18" ht="15.75" thickBot="1">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
-        <v>2856</v>
+        <v>2846</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -49955,16 +49960,16 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="328" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B24" s="328"/>
-      <c r="C24" s="328"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="328"/>
-      <c r="F24" s="328"/>
+      <c r="A24" s="330" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B24" s="330"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="330"/>
+      <c r="F24" s="330"/>
       <c r="H24" s="273" t="s">
-        <v>2840</v>
+        <v>2830</v>
       </c>
       <c r="I24" s="273"/>
       <c r="J24" s="273"/>
@@ -49972,15 +49977,15 @@
       <c r="L24" s="273"/>
       <c r="M24" s="273"/>
       <c r="N24" s="273"/>
-      <c r="P24" s="328" t="s">
-        <v>2881</v>
-      </c>
-      <c r="Q24" s="328"/>
-      <c r="R24" s="328"/>
+      <c r="P24" s="330" t="s">
+        <v>2871</v>
+      </c>
+      <c r="Q24" s="330"/>
+      <c r="R24" s="330"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
-        <v>2872</v>
+        <v>2862</v>
       </c>
       <c r="B25" s="106"/>
       <c r="C25" s="106"/>
@@ -49989,7 +49994,7 @@
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
       <c r="H25" s="106" t="s">
-        <v>2871</v>
+        <v>2861</v>
       </c>
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
@@ -50037,13 +50042,13 @@
         <v>182</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>2869</v>
+        <v>2859</v>
       </c>
       <c r="E27" s="271"/>
       <c r="F27" s="270"/>
       <c r="G27" s="106"/>
       <c r="H27" s="106" t="s">
-        <v>2873</v>
+        <v>2863</v>
       </c>
       <c r="I27" s="106"/>
       <c r="J27" s="106"/>
@@ -50068,10 +50073,10 @@
       <c r="F28" s="106"/>
       <c r="G28" s="106"/>
       <c r="H28" s="106" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I28" s="280" t="s">
         <v>2874</v>
-      </c>
-      <c r="I28" s="280" t="s">
-        <v>2884</v>
       </c>
       <c r="J28" s="107" t="s">
         <v>295</v>
@@ -50098,13 +50103,13 @@
       <c r="G29" s="106"/>
       <c r="H29" s="106"/>
       <c r="I29" s="153" t="s">
-        <v>2832</v>
+        <v>2822</v>
       </c>
       <c r="J29" s="107" t="s">
         <v>295</v>
       </c>
       <c r="K29" s="107" t="s">
-        <v>2833</v>
+        <v>2823</v>
       </c>
       <c r="L29" s="107"/>
       <c r="M29" s="278"/>
@@ -50120,7 +50125,7 @@
       <c r="G30" s="106"/>
       <c r="H30" s="106"/>
       <c r="I30" s="106" t="s">
-        <v>2876</v>
+        <v>2866</v>
       </c>
       <c r="J30" s="57"/>
       <c r="L30" s="107"/>
@@ -50134,7 +50139,7 @@
       <c r="A31" s="106"/>
       <c r="B31" s="106"/>
       <c r="C31" s="106" t="s">
-        <v>2870</v>
+        <v>2860</v>
       </c>
       <c r="D31" s="170"/>
       <c r="E31" s="106"/>
@@ -50142,22 +50147,22 @@
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
       <c r="I31" s="275" t="s">
-        <v>2877</v>
+        <v>2867</v>
       </c>
       <c r="J31" s="107" t="s">
         <v>295</v>
       </c>
       <c r="K31" s="107" t="s">
-        <v>2878</v>
+        <v>2868</v>
       </c>
       <c r="L31" s="274" t="s">
-        <v>2879</v>
+        <v>2869</v>
       </c>
       <c r="M31" s="190" t="s">
-        <v>2880</v>
+        <v>2870</v>
       </c>
       <c r="N31" s="281" t="s">
-        <v>2883</v>
+        <v>2873</v>
       </c>
       <c r="O31" s="106"/>
       <c r="P31" s="106"/>
@@ -50175,7 +50180,7 @@
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106" t="s">
-        <v>2885</v>
+        <v>2875</v>
       </c>
       <c r="L32" t="s">
         <v>526</v>
@@ -50197,7 +50202,7 @@
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
       <c r="I33" s="106" t="s">
-        <v>2886</v>
+        <v>2876</v>
       </c>
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
@@ -50216,32 +50221,32 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="321" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B35" s="327"/>
-      <c r="C35" s="327"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="322"/>
-      <c r="I35" s="321" t="s">
+      <c r="A35" s="323" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B35" s="329"/>
+      <c r="C35" s="329"/>
+      <c r="D35" s="329"/>
+      <c r="E35" s="329"/>
+      <c r="F35" s="329"/>
+      <c r="G35" s="329"/>
+      <c r="H35" s="324"/>
+      <c r="I35" s="323" t="s">
         <v>1133</v>
       </c>
-      <c r="J35" s="327"/>
-      <c r="K35" s="327"/>
-      <c r="L35" s="327"/>
-      <c r="M35" s="327"/>
-      <c r="N35" s="327"/>
-      <c r="O35" s="327"/>
-      <c r="P35" s="327"/>
-      <c r="Q35" s="327"/>
-      <c r="R35" s="322"/>
+      <c r="J35" s="329"/>
+      <c r="K35" s="329"/>
+      <c r="L35" s="329"/>
+      <c r="M35" s="329"/>
+      <c r="N35" s="329"/>
+      <c r="O35" s="329"/>
+      <c r="P35" s="329"/>
+      <c r="Q35" s="329"/>
+      <c r="R35" s="324"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">
-        <v>2861</v>
+        <v>2851</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -50268,19 +50273,19 @@
     <row r="37" spans="1:18">
       <c r="A37" s="33"/>
       <c r="B37" s="27" t="s">
-        <v>2860</v>
+        <v>2850</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27" t="s">
-        <v>2859</v>
+        <v>2849</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="34"/>
       <c r="I37" s="33"/>
       <c r="J37" s="51" t="s">
-        <v>2896</v>
+        <v>2886</v>
       </c>
       <c r="K37" s="51" t="s">
         <v>415</v>
@@ -50300,15 +50305,15 @@
     <row r="38" spans="1:18">
       <c r="A38" s="33"/>
       <c r="B38" s="277" t="s">
-        <v>2875</v>
+        <v>2865</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>2887</v>
+        <v>2877</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27" t="s">
-        <v>2889</v>
+        <v>2879</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="34"/>
@@ -50320,7 +50325,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>2902</v>
+        <v>2892</v>
       </c>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
@@ -50339,12 +50344,12 @@
         <v>1621</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>2888</v>
+        <v>2878</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27" t="s">
-        <v>2890</v>
+        <v>2880</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="34"/>
@@ -50398,10 +50403,10 @@
       <c r="H41" s="34"/>
       <c r="I41" s="33"/>
       <c r="J41" s="74" t="s">
-        <v>2900</v>
+        <v>2890</v>
       </c>
       <c r="K41" s="74" t="s">
-        <v>2901</v>
+        <v>2891</v>
       </c>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
@@ -50474,7 +50479,7 @@
     <row r="45" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="46" spans="1:18" ht="15.75" thickBot="1">
       <c r="B46" t="s">
-        <v>2903</v>
+        <v>2893</v>
       </c>
       <c r="G46" s="30"/>
       <c r="H46" s="31"/>
@@ -50491,7 +50496,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="C47" t="s">
-        <v>2904</v>
+        <v>2894</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="51" t="s">
@@ -50514,11 +50519,11 @@
     </row>
     <row r="48" spans="1:18">
       <c r="C48" t="s">
-        <v>2912</v>
+        <v>2902</v>
       </c>
       <c r="G48" s="33"/>
       <c r="H48" s="57" t="s">
-        <v>2896</v>
+        <v>2886</v>
       </c>
       <c r="I48" s="51" t="s">
         <v>1954</v>
@@ -50539,7 +50544,7 @@
     </row>
     <row r="49" spans="2:18" ht="15.75" thickBot="1">
       <c r="C49" t="s">
-        <v>2905</v>
+        <v>2895</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="51" t="s">
@@ -50581,7 +50586,7 @@
     </row>
     <row r="51" spans="2:18" ht="15.75" thickBot="1">
       <c r="B51" t="s">
-        <v>2910</v>
+        <v>2900</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="74" t="s">
@@ -50642,7 +50647,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1">
       <c r="C54" t="s">
-        <v>2911</v>
+        <v>2901</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="27"/>
@@ -50679,7 +50684,7 @@
         <v>2321</v>
       </c>
       <c r="C56" t="s">
-        <v>2909</v>
+        <v>2899</v>
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="27"/>
@@ -50696,7 +50701,7 @@
     </row>
     <row r="57" spans="2:18">
       <c r="C57" t="s">
-        <v>2906</v>
+        <v>2896</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="27"/>
@@ -50713,7 +50718,7 @@
     </row>
     <row r="58" spans="2:18">
       <c r="C58" t="s">
-        <v>2907</v>
+        <v>2897</v>
       </c>
       <c r="G58" s="33"/>
       <c r="H58" s="27"/>
@@ -50730,7 +50735,7 @@
     </row>
     <row r="59" spans="2:18">
       <c r="C59" t="s">
-        <v>2908</v>
+        <v>2898</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="27"/>
